--- a/Data/US_Macro_Factors.xlsx
+++ b/Data/US_Macro_Factors.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MFE\Semester Courses\Winter\230K\Factor Timing Project\MFE_DAM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077E15BF-961C-4C35-BF87-92C92359C862}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24AEB64-8074-4388-B9D1-B2A417A8ED56}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{04018FAE-C41F-4DB3-BF25-5BF627EE5875}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Data_UMich" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$1:$E$494</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Data_UMich!$A$1:$E$494</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
   <si>
     <t>Month</t>
   </si>
@@ -86,6 +88,9 @@
   </si>
   <si>
     <t>Volatility</t>
+  </si>
+  <si>
+    <t>#NA</t>
   </si>
 </sst>
 </file>
@@ -19051,7 +19056,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19081,6 +19086,9409 @@
         <f>EOMONTH(DATE(Sheet1!B3,Sheet1!A3,1),0)</f>
         <v>28521</v>
       </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D2" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E2">
+        <v>8.1126133670673006E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <f>EOMONTH(DATE(Sheet1!B4,Sheet1!A4,1),0)</f>
+        <v>28549</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <f>(Sheet1!G4-Sheet1!G3)/100</f>
+        <v>1.2000000000000002E-2</v>
+      </c>
+      <c r="D3" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E3">
+        <v>7.9125899814061498E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <f>EOMONTH(DATE(Sheet1!B5,Sheet1!A5,1),0)</f>
+        <v>28580</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <f>(Sheet1!G5-Sheet1!G4)/100</f>
+        <v>-1.0000000000000052E-3</v>
+      </c>
+      <c r="D4" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E4">
+        <v>7.7654595275300303E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <f>EOMONTH(DATE(Sheet1!B6,Sheet1!A6,1),0)</f>
+        <v>28610</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <f>(Sheet1!G6-Sheet1!G5)/100</f>
+        <v>4.0000000000000036E-3</v>
+      </c>
+      <c r="D5" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E5">
+        <v>8.3154339802284497E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <f>EOMONTH(DATE(Sheet1!B7,Sheet1!A7,1),0)</f>
+        <v>28641</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <f>(Sheet1!G7-Sheet1!G6)/100</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="D6" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E6">
+        <v>8.21824475158765E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <f>EOMONTH(DATE(Sheet1!B8,Sheet1!A8,1),0)</f>
+        <v>28671</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <f>(Sheet1!G8-Sheet1!G7)/100</f>
+        <v>-4.0000000000000036E-3</v>
+      </c>
+      <c r="D7" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E7">
+        <v>8.2020032349612595E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <f>EOMONTH(DATE(Sheet1!B9,Sheet1!A9,1),0)</f>
+        <v>28702</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <f>(Sheet1!G9-Sheet1!G8)/100</f>
+        <v>9.9999999999999655E-4</v>
+      </c>
+      <c r="D8" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E8">
+        <v>8.0756116961192295E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <f>EOMONTH(DATE(Sheet1!B10,Sheet1!A10,1),0)</f>
+        <v>28733</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <f>(Sheet1!G10-Sheet1!G9)/100</f>
+        <v>2.0999999999999998E-2</v>
+      </c>
+      <c r="D9" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E9">
+        <v>8.0696579771308605E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <f>EOMONTH(DATE(Sheet1!B11,Sheet1!A11,1),0)</f>
+        <v>28763</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <f>(Sheet1!G11-Sheet1!G10)/100</f>
+        <v>-1.7999999999999988E-2</v>
+      </c>
+      <c r="D10" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E10">
+        <v>8.2148293103019396E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <f>EOMONTH(DATE(Sheet1!B12,Sheet1!A12,1),0)</f>
+        <v>28794</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <f>(Sheet1!G12-Sheet1!G11)/100</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D11" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E11">
+        <v>9.2790200915092103E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <f>EOMONTH(DATE(Sheet1!B13,Sheet1!A13,1),0)</f>
+        <v>28824</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <f>(Sheet1!G13-Sheet1!G12)/100</f>
+        <v>9.9999999999999655E-4</v>
+      </c>
+      <c r="D12" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E12">
+        <v>0.101591183465695</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <f>EOMONTH(DATE(Sheet1!B14,Sheet1!A14,1),0)</f>
+        <v>28855</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <f>(Sheet1!G14-Sheet1!G13)/100</f>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="D13" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E13">
+        <v>0.100757282209893</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <f>EOMONTH(DATE(Sheet1!B15,Sheet1!A15,1),0)</f>
+        <v>28886</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <f>(Sheet1!G15-Sheet1!G14)/100</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D14" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E14">
+        <v>9.1611461526704296E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <f>EOMONTH(DATE(Sheet1!B16,Sheet1!A16,1),0)</f>
+        <v>28914</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <f>(Sheet1!G16-Sheet1!G15)/100</f>
+        <v>1.5000000000000008E-2</v>
+      </c>
+      <c r="D15" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E15">
+        <v>8.8802301107253595E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <f>EOMONTH(DATE(Sheet1!B17,Sheet1!A17,1),0)</f>
+        <v>28945</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <f>(Sheet1!G17-Sheet1!G16)/100</f>
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="D16" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E16">
+        <v>8.4431562657846002E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <f>EOMONTH(DATE(Sheet1!B18,Sheet1!A18,1),0)</f>
+        <v>28975</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <f>(Sheet1!G18-Sheet1!G17)/100</f>
+        <v>8.9999999999999854E-3</v>
+      </c>
+      <c r="D17" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E17">
+        <v>8.1303492057637705E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <f>EOMONTH(DATE(Sheet1!B19,Sheet1!A19,1),0)</f>
+        <v>29006</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <f>(Sheet1!G19-Sheet1!G18)/100</f>
+        <v>1.0000000000000141E-3</v>
+      </c>
+      <c r="D18" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E18">
+        <v>8.1568500159285406E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <f>EOMONTH(DATE(Sheet1!B20,Sheet1!A20,1),0)</f>
+        <v>29036</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <f>(Sheet1!G20-Sheet1!G19)/100</f>
+        <v>9.9999999999999655E-4</v>
+      </c>
+      <c r="D19" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E19">
+        <v>7.9093884240719198E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <f>EOMONTH(DATE(Sheet1!B21,Sheet1!A21,1),0)</f>
+        <v>29067</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <f>(Sheet1!G21-Sheet1!G20)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E20">
+        <v>7.8450827345407897E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <f>EOMONTH(DATE(Sheet1!B22,Sheet1!A22,1),0)</f>
+        <v>29098</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <f>(Sheet1!G22-Sheet1!G21)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E21">
+        <v>7.6325197997855407E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <f>EOMONTH(DATE(Sheet1!B23,Sheet1!A23,1),0)</f>
+        <v>29128</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22">
+        <f>(Sheet1!G23-Sheet1!G22)/100</f>
+        <v>-3.000000000000007E-3</v>
+      </c>
+      <c r="D22" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E22">
+        <v>8.08305879085012E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <f>EOMONTH(DATE(Sheet1!B24,Sheet1!A24,1),0)</f>
+        <v>29159</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23">
+        <f>(Sheet1!G24-Sheet1!G23)/100</f>
+        <v>-5.9999999999999967E-3</v>
+      </c>
+      <c r="D23" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E23">
+        <v>9.6185202931357794E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <f>EOMONTH(DATE(Sheet1!B25,Sheet1!A25,1),0)</f>
+        <v>29189</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24">
+        <f>(Sheet1!G25-Sheet1!G24)/100</f>
+        <v>0.01</v>
+      </c>
+      <c r="D24" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E24">
+        <v>9.3950106470903502E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <f>EOMONTH(DATE(Sheet1!B26,Sheet1!A26,1),0)</f>
+        <v>29220</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25">
+        <f>(Sheet1!G26-Sheet1!G25)/100</f>
+        <v>-9.9999999999999655E-4</v>
+      </c>
+      <c r="D25" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E25">
+        <v>8.6158261247797005E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <f>EOMONTH(DATE(Sheet1!B27,Sheet1!A27,1),0)</f>
+        <v>29251</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <f>(Sheet1!G27-Sheet1!G26)/100</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D26" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E26">
+        <v>8.9153365240700402E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <f>EOMONTH(DATE(Sheet1!B28,Sheet1!A28,1),0)</f>
+        <v>29280</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <f>(Sheet1!G28-Sheet1!G27)/100</f>
+        <v>-4.0000000000000036E-3</v>
+      </c>
+      <c r="D27" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E27">
+        <v>9.1875415698335003E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <f>EOMONTH(DATE(Sheet1!B29,Sheet1!A29,1),0)</f>
+        <v>29311</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <f>(Sheet1!G29-Sheet1!G28)/100</f>
+        <v>1.9999999999999931E-3</v>
+      </c>
+      <c r="D28" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E28">
+        <v>0.117259584438703</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <f>EOMONTH(DATE(Sheet1!B30,Sheet1!A30,1),0)</f>
+        <v>29341</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <f>(Sheet1!G30-Sheet1!G29)/100</f>
+        <v>-9.9999999999999655E-4</v>
+      </c>
+      <c r="D29" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E29">
+        <v>0.11386807050224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <f>EOMONTH(DATE(Sheet1!B31,Sheet1!A31,1),0)</f>
+        <v>29372</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <f>(Sheet1!G31-Sheet1!G30)/100</f>
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="D30" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E30">
+        <v>0.10500000059647201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <f>EOMONTH(DATE(Sheet1!B32,Sheet1!A32,1),0)</f>
+        <v>29402</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <f>(Sheet1!G32-Sheet1!G31)/100</f>
+        <v>-9.9999999999999655E-4</v>
+      </c>
+      <c r="D31" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E31">
+        <v>9.6559025358766801E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <f>EOMONTH(DATE(Sheet1!B33,Sheet1!A33,1),0)</f>
+        <v>29433</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <f>(Sheet1!G33-Sheet1!G32)/100</f>
+        <v>1.0999999999999996E-2</v>
+      </c>
+      <c r="D32" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E32">
+        <v>9.30267962379977E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <f>EOMONTH(DATE(Sheet1!B34,Sheet1!A34,1),0)</f>
+        <v>29464</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <f>(Sheet1!G34-Sheet1!G33)/100</f>
+        <v>-0.02</v>
+      </c>
+      <c r="D33" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E33">
+        <v>9.4283457334810597E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <f>EOMONTH(DATE(Sheet1!B35,Sheet1!A35,1),0)</f>
+        <v>29494</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <f>(Sheet1!G35-Sheet1!G34)/100</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D34" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E34">
+        <v>9.9988430101894205E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <f>EOMONTH(DATE(Sheet1!B36,Sheet1!A36,1),0)</f>
+        <v>29525</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <f>(Sheet1!G36-Sheet1!G35)/100</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D35" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E35">
+        <v>0.10017856617306301</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <f>EOMONTH(DATE(Sheet1!B37,Sheet1!A37,1),0)</f>
+        <v>29555</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <f>(Sheet1!G37-Sheet1!G36)/100</f>
+        <v>-0.01</v>
+      </c>
+      <c r="D36" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E36">
+        <v>0.10166757054992</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <f>EOMONTH(DATE(Sheet1!B38,Sheet1!A38,1),0)</f>
+        <v>29586</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <f>(Sheet1!G38-Sheet1!G37)/100</f>
+        <v>1.0999999999999996E-2</v>
+      </c>
+      <c r="D37" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E37">
+        <v>0.103707962513999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <f>EOMONTH(DATE(Sheet1!B39,Sheet1!A39,1),0)</f>
+        <v>29617</v>
+      </c>
+      <c r="B38">
+        <v>2.7949999999999999</v>
+      </c>
+      <c r="C38">
+        <f>(Sheet1!G39-Sheet1!G38)/100</f>
+        <v>-1.9999999999999931E-3</v>
+      </c>
+      <c r="D38" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E38">
+        <v>9.9221615355313098E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <f>EOMONTH(DATE(Sheet1!B40,Sheet1!A40,1),0)</f>
+        <v>29645</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <f>(Sheet1!G40-Sheet1!G39)/100</f>
+        <v>-9.0000000000000028E-3</v>
+      </c>
+      <c r="D39" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E39">
+        <v>9.6252644383063801E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <f>EOMONTH(DATE(Sheet1!B41,Sheet1!A41,1),0)</f>
+        <v>29676</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <f>(Sheet1!G41-Sheet1!G40)/100</f>
+        <v>-1.3999999999999995E-2</v>
+      </c>
+      <c r="D40" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E40">
+        <v>9.4383653176004695E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <f>EOMONTH(DATE(Sheet1!B42,Sheet1!A42,1),0)</f>
+        <v>29706</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <f>(Sheet1!G42-Sheet1!G41)/100</f>
+        <v>7.9999999999999984E-3</v>
+      </c>
+      <c r="D41" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E41">
+        <v>8.9577995327522794E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <f>EOMONTH(DATE(Sheet1!B43,Sheet1!A43,1),0)</f>
+        <v>29737</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <f>(Sheet1!G43-Sheet1!G42)/100</f>
+        <v>-7.0000000000000019E-3</v>
+      </c>
+      <c r="D42" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E42">
+        <v>8.5708333637106393E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <f>EOMONTH(DATE(Sheet1!B44,Sheet1!A44,1),0)</f>
+        <v>29767</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <f>(Sheet1!G44-Sheet1!G43)/100</f>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="D43" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E43">
+        <v>8.4584751834715602E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <f>EOMONTH(DATE(Sheet1!B45,Sheet1!A45,1),0)</f>
+        <v>29798</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <f>(Sheet1!G45-Sheet1!G44)/100</f>
+        <v>-2.9999999999999983E-3</v>
+      </c>
+      <c r="D44" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E44">
+        <v>8.4331685443643306E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <f>EOMONTH(DATE(Sheet1!B46,Sheet1!A46,1),0)</f>
+        <v>29829</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <f>(Sheet1!G46-Sheet1!G45)/100</f>
+        <v>-0.01</v>
+      </c>
+      <c r="D45" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E45">
+        <v>9.0930469061796595E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <f>EOMONTH(DATE(Sheet1!B47,Sheet1!A47,1),0)</f>
+        <v>29859</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <f>(Sheet1!G47-Sheet1!G46)/100</f>
+        <v>1.1000000000000005E-2</v>
+      </c>
+      <c r="D46" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E46">
+        <v>0.103439104763134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <f>EOMONTH(DATE(Sheet1!B48,Sheet1!A48,1),0)</f>
+        <v>29890</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <f>(Sheet1!G48-Sheet1!G47)/100</f>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="D47" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E47">
+        <v>9.7099916678990705E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <f>EOMONTH(DATE(Sheet1!B49,Sheet1!A49,1),0)</f>
+        <v>29920</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <f>(Sheet1!G49-Sheet1!G48)/100</f>
+        <v>5.9999999999999967E-3</v>
+      </c>
+      <c r="D48" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E48">
+        <v>9.5337943943583803E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <f>EOMONTH(DATE(Sheet1!B50,Sheet1!A50,1),0)</f>
+        <v>29951</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <f>(Sheet1!G50-Sheet1!G49)/100</f>
+        <v>-0.02</v>
+      </c>
+      <c r="D49" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E49">
+        <v>8.8676274437696101E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <f>EOMONTH(DATE(Sheet1!B51,Sheet1!A51,1),0)</f>
+        <v>29982</v>
+      </c>
+      <c r="B50">
+        <v>-4.34</v>
+      </c>
+      <c r="C50">
+        <f>(Sheet1!G51-Sheet1!G50)/100</f>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="D50" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E50">
+        <v>9.5710118729850996E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <f>EOMONTH(DATE(Sheet1!B52,Sheet1!A52,1),0)</f>
+        <v>30010</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <f>(Sheet1!G52-Sheet1!G51)/100</f>
+        <v>1.0000000000000052E-3</v>
+      </c>
+      <c r="D51" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E51">
+        <v>9.5499711848254204E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <f>EOMONTH(DATE(Sheet1!B53,Sheet1!A53,1),0)</f>
+        <v>30041</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <f>(Sheet1!G53-Sheet1!G52)/100</f>
+        <v>-0.01</v>
+      </c>
+      <c r="D52" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E52">
+        <v>9.3444492590578895E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <f>EOMONTH(DATE(Sheet1!B54,Sheet1!A54,1),0)</f>
+        <v>30071</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <f>(Sheet1!G54-Sheet1!G53)/100</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D53" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E53">
+        <v>8.9398331134792494E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <f>EOMONTH(DATE(Sheet1!B55,Sheet1!A55,1),0)</f>
+        <v>30102</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <f>(Sheet1!G55-Sheet1!G54)/100</f>
+        <v>-1.2000000000000002E-2</v>
+      </c>
+      <c r="D54" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E54">
+        <v>8.6340904788776096E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <f>EOMONTH(DATE(Sheet1!B56,Sheet1!A56,1),0)</f>
+        <v>30132</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <f>(Sheet1!G56-Sheet1!G55)/100</f>
+        <v>1.0999999999999996E-2</v>
+      </c>
+      <c r="D55" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E55">
+        <v>8.7878351023015999E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <f>EOMONTH(DATE(Sheet1!B57,Sheet1!A57,1),0)</f>
+        <v>30163</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <f>(Sheet1!G57-Sheet1!G56)/100</f>
+        <v>4.0000000000000036E-3</v>
+      </c>
+      <c r="D56" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E56">
+        <v>8.5442864570631202E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <f>EOMONTH(DATE(Sheet1!B58,Sheet1!A58,1),0)</f>
+        <v>30194</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <f>(Sheet1!G58-Sheet1!G57)/100</f>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="D57" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E57">
+        <v>0.109161848059843</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <f>EOMONTH(DATE(Sheet1!B59,Sheet1!A59,1),0)</f>
+        <v>30224</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <f>(Sheet1!G59-Sheet1!G58)/100</f>
+        <v>-2.9999999999999983E-3</v>
+      </c>
+      <c r="D58" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E58">
+        <v>0.10410219898354001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <f>EOMONTH(DATE(Sheet1!B60,Sheet1!A60,1),0)</f>
+        <v>30255</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <f>(Sheet1!G60-Sheet1!G59)/100</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="D59" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E59">
+        <v>0.11879030992525499</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <f>EOMONTH(DATE(Sheet1!B61,Sheet1!A61,1),0)</f>
+        <v>30285</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <f>(Sheet1!G61-Sheet1!G60)/100</f>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="D60" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E60">
+        <v>0.117697993676202</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <f>EOMONTH(DATE(Sheet1!B62,Sheet1!A62,1),0)</f>
+        <v>30316</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <f>(Sheet1!G62-Sheet1!G61)/100</f>
+        <v>-7.9999999999999984E-3</v>
+      </c>
+      <c r="D61" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E61">
+        <v>0.111123298504998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <f>EOMONTH(DATE(Sheet1!B63,Sheet1!A63,1),0)</f>
+        <v>30347</v>
+      </c>
+      <c r="B62">
+        <v>6.3859999999999904</v>
+      </c>
+      <c r="C62">
+        <f>(Sheet1!G63-Sheet1!G62)/100</f>
+        <v>-9.0000000000000028E-3</v>
+      </c>
+      <c r="D62" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E62">
+        <v>0.111064793602956</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <f>EOMONTH(DATE(Sheet1!B64,Sheet1!A64,1),0)</f>
+        <v>30375</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <f>(Sheet1!G64-Sheet1!G63)/100</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="D63" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E63">
+        <v>0.103456859102486</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <f>EOMONTH(DATE(Sheet1!B65,Sheet1!A65,1),0)</f>
+        <v>30406</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <f>(Sheet1!G65-Sheet1!G64)/100</f>
+        <v>-1.2E-2</v>
+      </c>
+      <c r="D64" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E64">
+        <v>9.5490308901024001E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <f>EOMONTH(DATE(Sheet1!B66,Sheet1!A66,1),0)</f>
+        <v>30436</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <f>(Sheet1!G66-Sheet1!G65)/100</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="D65" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E65">
+        <v>9.1531009460146501E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <f>EOMONTH(DATE(Sheet1!B67,Sheet1!A67,1),0)</f>
+        <v>30467</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <f>(Sheet1!G67-Sheet1!G66)/100</f>
+        <v>-1.9999999999999974E-3</v>
+      </c>
+      <c r="D66" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E66">
+        <v>8.75759475746484E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <f>EOMONTH(DATE(Sheet1!B68,Sheet1!A68,1),0)</f>
+        <v>30497</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <f>(Sheet1!G68-Sheet1!G67)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D67" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E67">
+        <v>8.8479165973238502E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <f>EOMONTH(DATE(Sheet1!B69,Sheet1!A69,1),0)</f>
+        <v>30528</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <f>(Sheet1!G69-Sheet1!G68)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D68" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E68">
+        <v>9.3404766885353999E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <f>EOMONTH(DATE(Sheet1!B70,Sheet1!A70,1),0)</f>
+        <v>30559</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <f>(Sheet1!G70-Sheet1!G69)/100</f>
+        <v>9.9999999999999655E-4</v>
+      </c>
+      <c r="D69" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E69">
+        <v>8.9704432264072403E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <f>EOMONTH(DATE(Sheet1!B71,Sheet1!A71,1),0)</f>
+        <v>30589</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <f>(Sheet1!G71-Sheet1!G70)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D70" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E70">
+        <v>8.6479755057393304E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <f>EOMONTH(DATE(Sheet1!B72,Sheet1!A72,1),0)</f>
+        <v>30620</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <f>(Sheet1!G72-Sheet1!G71)/100</f>
+        <v>4.0000000000000036E-3</v>
+      </c>
+      <c r="D71" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E71">
+        <v>8.5829600789817398E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <f>EOMONTH(DATE(Sheet1!B73,Sheet1!A73,1),0)</f>
+        <v>30650</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <f>(Sheet1!G73-Sheet1!G72)/100</f>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="D72" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E72">
+        <v>8.1918852131515799E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <f>EOMONTH(DATE(Sheet1!B74,Sheet1!A74,1),0)</f>
+        <v>30681</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <f>(Sheet1!G74-Sheet1!G73)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D73" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E73">
+        <v>7.8756290040164698E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <f>EOMONTH(DATE(Sheet1!B75,Sheet1!A75,1),0)</f>
+        <v>30712</v>
+      </c>
+      <c r="B74">
+        <v>2.653</v>
+      </c>
+      <c r="C74">
+        <f>(Sheet1!G75-Sheet1!G74)/100</f>
+        <v>-2.9999999999999983E-3</v>
+      </c>
+      <c r="D74" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E74">
+        <v>7.9207999161182097E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <f>EOMONTH(DATE(Sheet1!B76,Sheet1!A76,1),0)</f>
+        <v>30741</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <f>(Sheet1!G76-Sheet1!G75)/100</f>
+        <v>9.9999999999999655E-4</v>
+      </c>
+      <c r="D75" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E75">
+        <v>8.7903827153583206E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <f>EOMONTH(DATE(Sheet1!B77,Sheet1!A77,1),0)</f>
+        <v>30772</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <f>(Sheet1!G77-Sheet1!G76)/100</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="D76" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E76">
+        <v>8.6376770989896795E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <f>EOMONTH(DATE(Sheet1!B78,Sheet1!A78,1),0)</f>
+        <v>30802</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <f>(Sheet1!G78-Sheet1!G77)/100</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D77" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E77">
+        <v>8.3880137785030701E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <f>EOMONTH(DATE(Sheet1!B79,Sheet1!A79,1),0)</f>
+        <v>30833</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <f>(Sheet1!G79-Sheet1!G78)/100</f>
+        <v>3.0000000000000027E-3</v>
+      </c>
+      <c r="D78" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E78">
+        <v>8.3344097677549106E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <f>EOMONTH(DATE(Sheet1!B80,Sheet1!A80,1),0)</f>
+        <v>30863</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <f>(Sheet1!G80-Sheet1!G79)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D79" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E79">
+        <v>8.4838278825395602E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <f>EOMONTH(DATE(Sheet1!B81,Sheet1!A81,1),0)</f>
+        <v>30894</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <f>(Sheet1!G81-Sheet1!G80)/100</f>
+        <v>-8.0000000000000019E-3</v>
+      </c>
+      <c r="D80" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E80">
+        <v>8.2608859982962607E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <f>EOMONTH(DATE(Sheet1!B82,Sheet1!A82,1),0)</f>
+        <v>30925</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <f>(Sheet1!G82-Sheet1!G81)/100</f>
+        <v>-3.9999999999999992E-3</v>
+      </c>
+      <c r="D81" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E81">
+        <v>9.0961456165745094E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <f>EOMONTH(DATE(Sheet1!B83,Sheet1!A83,1),0)</f>
+        <v>30955</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <f>(Sheet1!G83-Sheet1!G82)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D82" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E82">
+        <v>8.5996026848606605E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <f>EOMONTH(DATE(Sheet1!B84,Sheet1!A84,1),0)</f>
+        <v>30986</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <f>(Sheet1!G84-Sheet1!G83)/100</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D83" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E83">
+        <v>8.4405008897637607E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <f>EOMONTH(DATE(Sheet1!B85,Sheet1!A85,1),0)</f>
+        <v>31016</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <f>(Sheet1!G85-Sheet1!G84)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D84" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E84">
+        <v>8.3023077728439698E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <f>EOMONTH(DATE(Sheet1!B86,Sheet1!A86,1),0)</f>
+        <v>31047</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <f>(Sheet1!G86-Sheet1!G85)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D85">
+        <v>-2.5833333333333101E-4</v>
+      </c>
+      <c r="E85">
+        <v>8.2668972961798606E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <f>EOMONTH(DATE(Sheet1!B87,Sheet1!A87,1),0)</f>
+        <v>31078</v>
+      </c>
+      <c r="B86">
+        <v>-3.0680000000000001</v>
+      </c>
+      <c r="C86">
+        <f>(Sheet1!G87-Sheet1!G86)/100</f>
+        <v>-3.9999999999999992E-3</v>
+      </c>
+      <c r="D86">
+        <v>-8.0000000000000101E-4</v>
+      </c>
+      <c r="E86">
+        <v>8.4529923783930302E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <f>EOMONTH(DATE(Sheet1!B88,Sheet1!A88,1),0)</f>
+        <v>31106</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <f>(Sheet1!G88-Sheet1!G87)/100</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="D87">
+        <v>-1.2083333333333299E-3</v>
+      </c>
+      <c r="E87">
+        <v>8.1865217540893695E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <f>EOMONTH(DATE(Sheet1!B89,Sheet1!A89,1),0)</f>
+        <v>31137</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <f>(Sheet1!G89-Sheet1!G88)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D88">
+        <v>-5.20833333333333E-4</v>
+      </c>
+      <c r="E88">
+        <v>8.0016465620152202E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <f>EOMONTH(DATE(Sheet1!B90,Sheet1!A90,1),0)</f>
+        <v>31167</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <f>(Sheet1!G90-Sheet1!G89)/100</f>
+        <v>2.9999999999999983E-3</v>
+      </c>
+      <c r="D89">
+        <v>-4.2499999999999998E-4</v>
+      </c>
+      <c r="E89">
+        <v>7.7194985446479805E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <f>EOMONTH(DATE(Sheet1!B91,Sheet1!A91,1),0)</f>
+        <v>31198</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <f>(Sheet1!G91-Sheet1!G90)/100</f>
+        <v>-9.9999999999999655E-4</v>
+      </c>
+      <c r="D90">
+        <v>1.87499999999999E-4</v>
+      </c>
+      <c r="E90">
+        <v>7.7202856112980903E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <f>EOMONTH(DATE(Sheet1!B92,Sheet1!A92,1),0)</f>
+        <v>31228</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <f>(Sheet1!G92-Sheet1!G91)/100</f>
+        <v>1.9999999999999974E-3</v>
+      </c>
+      <c r="D91">
+        <v>-6.1666666666666402E-4</v>
+      </c>
+      <c r="E91">
+        <v>7.6894500999379597E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <f>EOMONTH(DATE(Sheet1!B93,Sheet1!A93,1),0)</f>
+        <v>31259</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <f>(Sheet1!G93-Sheet1!G92)/100</f>
+        <v>-6.000000000000001E-3</v>
+      </c>
+      <c r="D92">
+        <v>-1.23333333333333E-3</v>
+      </c>
+      <c r="E92">
+        <v>7.7327245930250005E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <f>EOMONTH(DATE(Sheet1!B94,Sheet1!A94,1),0)</f>
+        <v>31290</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <f>(Sheet1!G94-Sheet1!G93)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>-7.5833333333333395E-4</v>
+      </c>
+      <c r="E93">
+        <v>7.6324387131058297E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <f>EOMONTH(DATE(Sheet1!B95,Sheet1!A95,1),0)</f>
+        <v>31320</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <f>(Sheet1!G95-Sheet1!G94)/100</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="D94">
+        <v>-8.7249999999999795E-4</v>
+      </c>
+      <c r="E94">
+        <v>7.8578966098492006E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <f>EOMONTH(DATE(Sheet1!B96,Sheet1!A96,1),0)</f>
+        <v>31351</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <f>(Sheet1!G96-Sheet1!G95)/100</f>
+        <v>3.9999999999999992E-3</v>
+      </c>
+      <c r="D95">
+        <v>-9.0833333333333304E-4</v>
+      </c>
+      <c r="E95">
+        <v>7.7868144134390305E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <f>EOMONTH(DATE(Sheet1!B97,Sheet1!A97,1),0)</f>
+        <v>31381</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <f>(Sheet1!G97-Sheet1!G96)/100</f>
+        <v>-1.9999999999999974E-3</v>
+      </c>
+      <c r="D96">
+        <v>-8.3124999999999898E-4</v>
+      </c>
+      <c r="E96">
+        <v>7.8190611665112805E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <f>EOMONTH(DATE(Sheet1!B98,Sheet1!A98,1),0)</f>
+        <v>31412</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <f>(Sheet1!G98-Sheet1!G97)/100</f>
+        <v>3.9999999999999992E-3</v>
+      </c>
+      <c r="D97">
+        <v>-7.0000000000000097E-4</v>
+      </c>
+      <c r="E97">
+        <v>7.9944585535346696E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <f>EOMONTH(DATE(Sheet1!B99,Sheet1!A99,1),0)</f>
+        <v>31443</v>
+      </c>
+      <c r="B98">
+        <v>-0.70599999999999896</v>
+      </c>
+      <c r="C98">
+        <f>(Sheet1!G99-Sheet1!G98)/100</f>
+        <v>-6.000000000000001E-3</v>
+      </c>
+      <c r="D98">
+        <v>-8.4374999999999901E-4</v>
+      </c>
+      <c r="E98">
+        <v>8.3309332512408199E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <f>EOMONTH(DATE(Sheet1!B100,Sheet1!A100,1),0)</f>
+        <v>31471</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <f>(Sheet1!G100-Sheet1!G99)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D99">
+        <v>-7.5416666666666601E-4</v>
+      </c>
+      <c r="E99">
+        <v>8.2755791080221505E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <f>EOMONTH(DATE(Sheet1!B101,Sheet1!A101,1),0)</f>
+        <v>31502</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <f>(Sheet1!G101-Sheet1!G100)/100</f>
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="D100">
+        <v>-2.9583333333333198E-4</v>
+      </c>
+      <c r="E100">
+        <v>8.2280727165715301E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <f>EOMONTH(DATE(Sheet1!B102,Sheet1!A102,1),0)</f>
+        <v>31532</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <f>(Sheet1!G102-Sheet1!G101)/100</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="D101">
+        <v>-4.4583333333333302E-4</v>
+      </c>
+      <c r="E101">
+        <v>8.5519921089178705E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <f>EOMONTH(DATE(Sheet1!B103,Sheet1!A103,1),0)</f>
+        <v>31563</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <f>(Sheet1!G103-Sheet1!G102)/100</f>
+        <v>3.0000000000000027E-3</v>
+      </c>
+      <c r="D102">
+        <v>-8.5416666666666605E-4</v>
+      </c>
+      <c r="E102">
+        <v>8.6579837504088597E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <f>EOMONTH(DATE(Sheet1!B104,Sheet1!A104,1),0)</f>
+        <v>31593</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <f>(Sheet1!G104-Sheet1!G103)/100</f>
+        <v>1.9999999999999974E-3</v>
+      </c>
+      <c r="D103">
+        <v>-4.7916666666666599E-4</v>
+      </c>
+      <c r="E103">
+        <v>8.5320347887292605E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <f>EOMONTH(DATE(Sheet1!B105,Sheet1!A105,1),0)</f>
+        <v>31624</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <f>(Sheet1!G105-Sheet1!G104)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D104">
+        <v>-4.4999999999999999E-4</v>
+      </c>
+      <c r="E104">
+        <v>9.1693068597054395E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <f>EOMONTH(DATE(Sheet1!B106,Sheet1!A106,1),0)</f>
+        <v>31655</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <f>(Sheet1!G106-Sheet1!G105)/100</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="D105">
+        <v>1.89583333333332E-4</v>
+      </c>
+      <c r="E105">
+        <v>8.7948444866522493E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <f>EOMONTH(DATE(Sheet1!B107,Sheet1!A107,1),0)</f>
+        <v>31685</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <f>(Sheet1!G107-Sheet1!G106)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D106">
+        <v>-7.9583333333333296E-4</v>
+      </c>
+      <c r="E106">
+        <v>0.100752332257191</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <f>EOMONTH(DATE(Sheet1!B108,Sheet1!A108,1),0)</f>
+        <v>31716</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <f>(Sheet1!G108-Sheet1!G107)/100</f>
+        <v>3.0000000000000027E-3</v>
+      </c>
+      <c r="D107">
+        <v>-6.6666666666666697E-4</v>
+      </c>
+      <c r="E107">
+        <v>9.1116609929110096E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <f>EOMONTH(DATE(Sheet1!B109,Sheet1!A109,1),0)</f>
+        <v>31746</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <f>(Sheet1!G109-Sheet1!G108)/100</f>
+        <v>-4.0000000000000036E-3</v>
+      </c>
+      <c r="D108">
+        <v>-7.7083333333333301E-4</v>
+      </c>
+      <c r="E108">
+        <v>9.0552889613044502E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <f>EOMONTH(DATE(Sheet1!B110,Sheet1!A110,1),0)</f>
+        <v>31777</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <f>(Sheet1!G110-Sheet1!G109)/100</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="D109">
+        <v>-8.2083333333333303E-4</v>
+      </c>
+      <c r="E109">
+        <v>8.6708506777644107E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <f>EOMONTH(DATE(Sheet1!B111,Sheet1!A111,1),0)</f>
+        <v>31808</v>
+      </c>
+      <c r="B110">
+        <v>-3.0000000000001098E-3</v>
+      </c>
+      <c r="C110">
+        <f>(Sheet1!G111-Sheet1!G110)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D110">
+        <v>-4.8333333333333198E-4</v>
+      </c>
+      <c r="E110">
+        <v>9.2234876505635499E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <f>EOMONTH(DATE(Sheet1!B112,Sheet1!A112,1),0)</f>
+        <v>31836</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <f>(Sheet1!G112-Sheet1!G111)/100</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="D111">
+        <v>-6.9791666666666602E-4</v>
+      </c>
+      <c r="E111">
+        <v>8.9575428135624996E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <f>EOMONTH(DATE(Sheet1!B113,Sheet1!A113,1),0)</f>
+        <v>31867</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <f>(Sheet1!G113-Sheet1!G112)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D112">
+        <v>-1.03125E-3</v>
+      </c>
+      <c r="E112">
+        <v>9.0799615442134093E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <f>EOMONTH(DATE(Sheet1!B114,Sheet1!A114,1),0)</f>
+        <v>31897</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <f>(Sheet1!G114-Sheet1!G113)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>-1.26249999999999E-3</v>
+      </c>
+      <c r="E113">
+        <v>0.100176987235969</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <f>EOMONTH(DATE(Sheet1!B115,Sheet1!A115,1),0)</f>
+        <v>31928</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <f>(Sheet1!G115-Sheet1!G114)/100</f>
+        <v>3.9999999999999992E-3</v>
+      </c>
+      <c r="D114">
+        <v>-1.53749999999999E-3</v>
+      </c>
+      <c r="E114">
+        <v>9.9353675653675505E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <f>EOMONTH(DATE(Sheet1!B116,Sheet1!A116,1),0)</f>
+        <v>31958</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <f>(Sheet1!G116-Sheet1!G115)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D115">
+        <v>-1.25624999999999E-3</v>
+      </c>
+      <c r="E115">
+        <v>8.9463204507939903E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <f>EOMONTH(DATE(Sheet1!B117,Sheet1!A117,1),0)</f>
+        <v>31989</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <f>(Sheet1!G117-Sheet1!G116)/100</f>
+        <v>-1.9999999999999974E-3</v>
+      </c>
+      <c r="D116">
+        <v>-1.05833333333333E-3</v>
+      </c>
+      <c r="E116">
+        <v>8.4231493044814698E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <f>EOMONTH(DATE(Sheet1!B118,Sheet1!A118,1),0)</f>
+        <v>32020</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <f>(Sheet1!G118-Sheet1!G117)/100</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="D117">
+        <v>-9.8333333333333302E-4</v>
+      </c>
+      <c r="E117">
+        <v>8.6388944421091102E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <f>EOMONTH(DATE(Sheet1!B119,Sheet1!A119,1),0)</f>
+        <v>32050</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <f>(Sheet1!G119-Sheet1!G118)/100</f>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="D118">
+        <v>-1.6666666666666601E-3</v>
+      </c>
+      <c r="E118">
+        <v>9.0342276384612105E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <f>EOMONTH(DATE(Sheet1!B120,Sheet1!A120,1),0)</f>
+        <v>32081</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <f>(Sheet1!G120-Sheet1!G119)/100</f>
+        <v>2.9999999999999983E-3</v>
+      </c>
+      <c r="D119">
+        <v>-8.4583333333333299E-4</v>
+      </c>
+      <c r="E119">
+        <v>0.27042482273826302</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <f>EOMONTH(DATE(Sheet1!B121,Sheet1!A121,1),0)</f>
+        <v>32111</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <f>(Sheet1!G121-Sheet1!G120)/100</f>
+        <v>-9.9999999999999655E-4</v>
+      </c>
+      <c r="D120">
+        <v>-2.2750000000000001E-3</v>
+      </c>
+      <c r="E120">
+        <v>0.22130150152470701</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <f>EOMONTH(DATE(Sheet1!B122,Sheet1!A122,1),0)</f>
+        <v>32142</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <f>(Sheet1!G122-Sheet1!G121)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D121">
+        <v>-1.85625E-3</v>
+      </c>
+      <c r="E121">
+        <v>0.18787470478840801</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <f>EOMONTH(DATE(Sheet1!B123,Sheet1!A123,1),0)</f>
+        <v>32173</v>
+      </c>
+      <c r="B122">
+        <v>0.71699999999999897</v>
+      </c>
+      <c r="C122">
+        <f>(Sheet1!G123-Sheet1!G122)/100</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="D122">
+        <v>-9.9583333333333295E-4</v>
+      </c>
+      <c r="E122">
+        <v>0.17032810669913701</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <f>EOMONTH(DATE(Sheet1!B124,Sheet1!A124,1),0)</f>
+        <v>32202</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <f>(Sheet1!G124-Sheet1!G123)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D123">
+        <v>-9.7708333333333393E-4</v>
+      </c>
+      <c r="E123">
+        <v>0.140144885603742</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <f>EOMONTH(DATE(Sheet1!B125,Sheet1!A125,1),0)</f>
+        <v>32233</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <f>(Sheet1!G125-Sheet1!G124)/100</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="D124">
+        <v>-1.09791666666666E-3</v>
+      </c>
+      <c r="E124">
+        <v>0.11979928074002399</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <f>EOMONTH(DATE(Sheet1!B126,Sheet1!A126,1),0)</f>
+        <v>32263</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <f>(Sheet1!G126-Sheet1!G125)/100</f>
+        <v>9.9999999999999655E-4</v>
+      </c>
+      <c r="D125">
+        <v>-1.3354166666666601E-3</v>
+      </c>
+      <c r="E125">
+        <v>0.112964070736757</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <f>EOMONTH(DATE(Sheet1!B127,Sheet1!A127,1),0)</f>
+        <v>32294</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <f>(Sheet1!G127-Sheet1!G126)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>-1.47499999999999E-3</v>
+      </c>
+      <c r="E126">
+        <v>0.100909877601881</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <f>EOMONTH(DATE(Sheet1!B128,Sheet1!A128,1),0)</f>
+        <v>32324</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <f>(Sheet1!G128-Sheet1!G127)/100</f>
+        <v>4.0000000000000036E-3</v>
+      </c>
+      <c r="D127">
+        <v>-1.25624999999999E-3</v>
+      </c>
+      <c r="E127">
+        <v>9.9356493544243002E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <f>EOMONTH(DATE(Sheet1!B129,Sheet1!A129,1),0)</f>
+        <v>32355</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <f>(Sheet1!G129-Sheet1!G128)/100</f>
+        <v>8.9999999999999941E-3</v>
+      </c>
+      <c r="D128">
+        <v>-1.5645833333333299E-3</v>
+      </c>
+      <c r="E128">
+        <v>9.2814824379780198E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <f>EOMONTH(DATE(Sheet1!B130,Sheet1!A130,1),0)</f>
+        <v>32386</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <f>(Sheet1!G130-Sheet1!G129)/100</f>
+        <v>-1.9999999999999931E-3</v>
+      </c>
+      <c r="D129">
+        <v>-1.3437499999999999E-3</v>
+      </c>
+      <c r="E129">
+        <v>9.0354019654989806E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <f>EOMONTH(DATE(Sheet1!B131,Sheet1!A131,1),0)</f>
+        <v>32416</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <f>(Sheet1!G131-Sheet1!G130)/100</f>
+        <v>-5.0000000000000044E-3</v>
+      </c>
+      <c r="D130">
+        <v>-1.10416666666666E-3</v>
+      </c>
+      <c r="E130">
+        <v>8.5411300826007203E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <f>EOMONTH(DATE(Sheet1!B132,Sheet1!A132,1),0)</f>
+        <v>32447</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <f>(Sheet1!G132-Sheet1!G131)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>-1.1458333333333301E-3</v>
+      </c>
+      <c r="E131">
+        <v>8.5361529261558503E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <f>EOMONTH(DATE(Sheet1!B133,Sheet1!A133,1),0)</f>
+        <v>32477</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <f>(Sheet1!G133-Sheet1!G132)/100</f>
+        <v>-1.9999999999999974E-3</v>
+      </c>
+      <c r="D132">
+        <v>-1.62708333333333E-3</v>
+      </c>
+      <c r="E132">
+        <v>8.4302188913856005E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <f>EOMONTH(DATE(Sheet1!B134,Sheet1!A134,1),0)</f>
+        <v>32508</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <f>(Sheet1!G134-Sheet1!G133)/100</f>
+        <v>1.9999999999999974E-3</v>
+      </c>
+      <c r="D133">
+        <v>-1.49166666666666E-3</v>
+      </c>
+      <c r="E133">
+        <v>7.9715320682360202E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <f>EOMONTH(DATE(Sheet1!B135,Sheet1!A135,1),0)</f>
+        <v>32539</v>
+      </c>
+      <c r="B134">
+        <v>-0.503999999999999</v>
+      </c>
+      <c r="C134">
+        <f>(Sheet1!G135-Sheet1!G134)/100</f>
+        <v>-3.9999999999999992E-3</v>
+      </c>
+      <c r="D134">
+        <v>-1.0624999999999901E-3</v>
+      </c>
+      <c r="E134">
+        <v>7.8665136427197399E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <f>EOMONTH(DATE(Sheet1!B136,Sheet1!A136,1),0)</f>
+        <v>32567</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <f>(Sheet1!G136-Sheet1!G135)/100</f>
+        <v>5.9999999999999967E-3</v>
+      </c>
+      <c r="D135">
+        <v>-1.6020833333333299E-3</v>
+      </c>
+      <c r="E135">
+        <v>8.1233115533440106E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <f>EOMONTH(DATE(Sheet1!B137,Sheet1!A137,1),0)</f>
+        <v>32598</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <f>(Sheet1!G137-Sheet1!G136)/100</f>
+        <v>-3.9999999999999949E-3</v>
+      </c>
+      <c r="D136">
+        <v>-1.3354166666666601E-3</v>
+      </c>
+      <c r="E136">
+        <v>8.1287329445267703E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <f>EOMONTH(DATE(Sheet1!B138,Sheet1!A138,1),0)</f>
+        <v>32628</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <f>(Sheet1!G138-Sheet1!G137)/100</f>
+        <v>5.9999999999999967E-3</v>
+      </c>
+      <c r="D137">
+        <v>-9.6875000000000097E-4</v>
+      </c>
+      <c r="E137">
+        <v>8.0089578823313801E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <f>EOMONTH(DATE(Sheet1!B139,Sheet1!A139,1),0)</f>
+        <v>32659</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <f>(Sheet1!G139-Sheet1!G138)/100</f>
+        <v>2.9999999999999983E-3</v>
+      </c>
+      <c r="D138">
+        <v>-9.6041666666666595E-4</v>
+      </c>
+      <c r="E138">
+        <v>7.9178663759206194E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <f>EOMONTH(DATE(Sheet1!B140,Sheet1!A140,1),0)</f>
+        <v>32689</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <f>(Sheet1!G140-Sheet1!G139)/100</f>
+        <v>-7.9999999999999984E-3</v>
+      </c>
+      <c r="D139">
+        <v>-5.8541666666666703E-4</v>
+      </c>
+      <c r="E139">
+        <v>8.2484715527556096E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <f>EOMONTH(DATE(Sheet1!B141,Sheet1!A141,1),0)</f>
+        <v>32720</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <f>(Sheet1!G141-Sheet1!G140)/100</f>
+        <v>2.9999999999999983E-3</v>
+      </c>
+      <c r="D140">
+        <v>-4.7708333333333299E-4</v>
+      </c>
+      <c r="E140">
+        <v>8.0634841174010305E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <f>EOMONTH(DATE(Sheet1!B142,Sheet1!A142,1),0)</f>
+        <v>32751</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <f>(Sheet1!G142-Sheet1!G141)/100</f>
+        <v>-5.9999999999999967E-3</v>
+      </c>
+      <c r="D141">
+        <v>-9.9999999999999894E-4</v>
+      </c>
+      <c r="E141">
+        <v>8.1826473819964204E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <f>EOMONTH(DATE(Sheet1!B143,Sheet1!A143,1),0)</f>
+        <v>32781</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <f>(Sheet1!G143-Sheet1!G142)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D142">
+        <v>-1.08124999999999E-3</v>
+      </c>
+      <c r="E142">
+        <v>7.8697586540306105E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <f>EOMONTH(DATE(Sheet1!B144,Sheet1!A144,1),0)</f>
+        <v>32812</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <f>(Sheet1!G144-Sheet1!G143)/100</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="D143">
+        <v>-6.47916666666666E-4</v>
+      </c>
+      <c r="E143">
+        <v>0.100409270884211</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <f>EOMONTH(DATE(Sheet1!B145,Sheet1!A145,1),0)</f>
+        <v>32842</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <f>(Sheet1!G145-Sheet1!G144)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D144">
+        <v>-6.0833333333333399E-4</v>
+      </c>
+      <c r="E144">
+        <v>9.1270205405553501E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <f>EOMONTH(DATE(Sheet1!B146,Sheet1!A146,1),0)</f>
+        <v>32873</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <f>(Sheet1!G146-Sheet1!G145)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>-6.5416666666666705E-4</v>
+      </c>
+      <c r="E145">
+        <v>8.6372185744916202E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <f>EOMONTH(DATE(Sheet1!B147,Sheet1!A147,1),0)</f>
+        <v>32904</v>
+      </c>
+      <c r="B146">
+        <v>-1.7869999999999999</v>
+      </c>
+      <c r="C146">
+        <f>(Sheet1!G147-Sheet1!G146)/100</f>
+        <v>5.9999999999999967E-3</v>
+      </c>
+      <c r="D146">
+        <v>-6.8749999999999996E-4</v>
+      </c>
+      <c r="E146">
+        <v>9.2145713254572298E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <f>EOMONTH(DATE(Sheet1!B148,Sheet1!A148,1),0)</f>
+        <v>32932</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <f>(Sheet1!G148-Sheet1!G147)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>-5.2916666666666704E-4</v>
+      </c>
+      <c r="E147">
+        <v>8.8967061931589195E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <f>EOMONTH(DATE(Sheet1!B149,Sheet1!A149,1),0)</f>
+        <v>32963</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <f>(Sheet1!G149-Sheet1!G148)/100</f>
+        <v>-3.9999999999999949E-3</v>
+      </c>
+      <c r="D148">
+        <v>-6.0833333333333399E-4</v>
+      </c>
+      <c r="E148">
+        <v>8.4849093705241199E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <f>EOMONTH(DATE(Sheet1!B150,Sheet1!A150,1),0)</f>
+        <v>32993</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <f>(Sheet1!G150-Sheet1!G149)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D149">
+        <v>-7.39583333333332E-4</v>
+      </c>
+      <c r="E149">
+        <v>8.3817613001852698E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <f>EOMONTH(DATE(Sheet1!B151,Sheet1!A151,1),0)</f>
+        <v>33024</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <f>(Sheet1!G151-Sheet1!G150)/100</f>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="D150">
+        <v>-4.8750000000000101E-4</v>
+      </c>
+      <c r="E150">
+        <v>8.3349500965485407E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <f>EOMONTH(DATE(Sheet1!B152,Sheet1!A152,1),0)</f>
+        <v>33054</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <f>(Sheet1!G152-Sheet1!G151)/100</f>
+        <v>3.9999999999999992E-3</v>
+      </c>
+      <c r="D151">
+        <v>-5.2083333333333398E-4</v>
+      </c>
+      <c r="E151">
+        <v>8.3871801001779503E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <f>EOMONTH(DATE(Sheet1!B153,Sheet1!A153,1),0)</f>
+        <v>33085</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <f>(Sheet1!G153-Sheet1!G152)/100</f>
+        <v>-3.9999999999999992E-3</v>
+      </c>
+      <c r="D152">
+        <v>-1.6458333333333299E-4</v>
+      </c>
+      <c r="E152">
+        <v>8.4458087228574993E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <f>EOMONTH(DATE(Sheet1!B154,Sheet1!A154,1),0)</f>
+        <v>33116</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <f>(Sheet1!G154-Sheet1!G153)/100</f>
+        <v>1.1999999999999997E-2</v>
+      </c>
+      <c r="D153">
+        <v>-4.7708333333333202E-4</v>
+      </c>
+      <c r="E153">
+        <v>0.111924202460011</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <f>EOMONTH(DATE(Sheet1!B155,Sheet1!A155,1),0)</f>
+        <v>33146</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <f>(Sheet1!G155-Sheet1!G154)/100</f>
+        <v>1.0000000000000052E-3</v>
+      </c>
+      <c r="D154">
+        <v>-7.6874999999999903E-4</v>
+      </c>
+      <c r="E154">
+        <v>0.106340969907712</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <f>EOMONTH(DATE(Sheet1!B156,Sheet1!A156,1),0)</f>
+        <v>33177</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <f>(Sheet1!G156-Sheet1!G155)/100</f>
+        <v>9.9999999999999655E-4</v>
+      </c>
+      <c r="D155">
+        <v>-7.6874999999999795E-4</v>
+      </c>
+      <c r="E155">
+        <v>0.111407807710399</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <f>EOMONTH(DATE(Sheet1!B157,Sheet1!A157,1),0)</f>
+        <v>33207</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <f>(Sheet1!G157-Sheet1!G156)/100</f>
+        <v>-9.9999999999999655E-4</v>
+      </c>
+      <c r="D156">
+        <v>-1.05833333333333E-3</v>
+      </c>
+      <c r="E156">
+        <v>0.103020285682021</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <f>EOMONTH(DATE(Sheet1!B158,Sheet1!A158,1),0)</f>
+        <v>33238</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <f>(Sheet1!G158-Sheet1!G157)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>-5.0833333333333199E-4</v>
+      </c>
+      <c r="E157">
+        <v>9.3988828708759603E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <f>EOMONTH(DATE(Sheet1!B159,Sheet1!A159,1),0)</f>
+        <v>33269</v>
+      </c>
+      <c r="B158">
+        <v>-1.994</v>
+      </c>
+      <c r="C158">
+        <f>(Sheet1!G159-Sheet1!G158)/100</f>
+        <v>-8.0000000000000019E-3</v>
+      </c>
+      <c r="D158">
+        <v>-5.1666666666666603E-4</v>
+      </c>
+      <c r="E158">
+        <v>9.8999406339896595E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <f>EOMONTH(DATE(Sheet1!B160,Sheet1!A160,1),0)</f>
+        <v>33297</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159">
+        <f>(Sheet1!G160-Sheet1!G159)/100</f>
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="D159">
+        <v>-5.7499999999999999E-4</v>
+      </c>
+      <c r="E159">
+        <v>9.9639225653434804E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <f>EOMONTH(DATE(Sheet1!B161,Sheet1!A161,1),0)</f>
+        <v>33328</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160">
+        <f>(Sheet1!G161-Sheet1!G160)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D160">
+        <v>-2.7916666666666698E-4</v>
+      </c>
+      <c r="E160">
+        <v>9.4187816603361105E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <f>EOMONTH(DATE(Sheet1!B162,Sheet1!A162,1),0)</f>
+        <v>33358</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <f>(Sheet1!G162-Sheet1!G161)/100</f>
+        <v>-9.9999999999999655E-4</v>
+      </c>
+      <c r="D161">
+        <v>-2.6666666666666597E-4</v>
+      </c>
+      <c r="E161">
+        <v>9.3252189233500996E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <f>EOMONTH(DATE(Sheet1!B163,Sheet1!A163,1),0)</f>
+        <v>33389</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="C162">
+        <f>(Sheet1!G163-Sheet1!G162)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D162">
+        <v>-4.58333333333333E-4</v>
+      </c>
+      <c r="E162">
+        <v>8.9996947692611906E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <f>EOMONTH(DATE(Sheet1!B164,Sheet1!A164,1),0)</f>
+        <v>33419</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+      <c r="C163">
+        <f>(Sheet1!G164-Sheet1!G163)/100</f>
+        <v>1.9999999999999974E-3</v>
+      </c>
+      <c r="D163">
+        <v>-5.4791666666666704E-4</v>
+      </c>
+      <c r="E163">
+        <v>8.8073738517322794E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <f>EOMONTH(DATE(Sheet1!B165,Sheet1!A165,1),0)</f>
+        <v>33450</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="C164">
+        <f>(Sheet1!G165-Sheet1!G164)/100</f>
+        <v>-1.9999999999999974E-3</v>
+      </c>
+      <c r="D164">
+        <v>-3.8333333333333302E-4</v>
+      </c>
+      <c r="E164">
+        <v>8.4510315236336606E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <f>EOMONTH(DATE(Sheet1!B166,Sheet1!A166,1),0)</f>
+        <v>33481</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="C165">
+        <f>(Sheet1!G166-Sheet1!G165)/100</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="D165">
+        <v>-1.3124999999999999E-4</v>
+      </c>
+      <c r="E165">
+        <v>8.9801136981213003E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <f>EOMONTH(DATE(Sheet1!B167,Sheet1!A167,1),0)</f>
+        <v>33511</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <f>(Sheet1!G167-Sheet1!G166)/100</f>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="D166">
+        <v>-2.4583333333333401E-4</v>
+      </c>
+      <c r="E166">
+        <v>8.3599403880413994E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <f>EOMONTH(DATE(Sheet1!B168,Sheet1!A168,1),0)</f>
+        <v>33542</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167">
+        <f>(Sheet1!G168-Sheet1!G167)/100</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="D167">
+        <v>-1.6874999999999901E-4</v>
+      </c>
+      <c r="E167">
+        <v>8.3320878228479806E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <f>EOMONTH(DATE(Sheet1!B169,Sheet1!A169,1),0)</f>
+        <v>33572</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168">
+        <f>(Sheet1!G169-Sheet1!G168)/100</f>
+        <v>-3.0000000000000027E-3</v>
+      </c>
+      <c r="D168">
+        <v>-9.7916666666667104E-5</v>
+      </c>
+      <c r="E168">
+        <v>8.9980810591995697E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <f>EOMONTH(DATE(Sheet1!B170,Sheet1!A170,1),0)</f>
+        <v>33603</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+      <c r="C169">
+        <f>(Sheet1!G170-Sheet1!G169)/100</f>
+        <v>-1.9999999999999974E-3</v>
+      </c>
+      <c r="D169">
+        <v>3.12500000000004E-5</v>
+      </c>
+      <c r="E169">
+        <v>9.2954544577471696E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <f>EOMONTH(DATE(Sheet1!B171,Sheet1!A171,1),0)</f>
+        <v>33634</v>
+      </c>
+      <c r="B170">
+        <v>3.63</v>
+      </c>
+      <c r="C170">
+        <f>(Sheet1!G171-Sheet1!G170)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <v>-2.5625000000000002E-4</v>
+      </c>
+      <c r="E170">
+        <v>8.7761024723705103E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <f>EOMONTH(DATE(Sheet1!B172,Sheet1!A172,1),0)</f>
+        <v>33663</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="C171">
+        <f>(Sheet1!G172-Sheet1!G171)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D171">
+        <v>-3.4166666666666601E-4</v>
+      </c>
+      <c r="E171">
+        <v>8.5714495617720293E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <f>EOMONTH(DATE(Sheet1!B173,Sheet1!A173,1),0)</f>
+        <v>33694</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+      <c r="C172">
+        <f>(Sheet1!G173-Sheet1!G172)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <v>-3.1875000000000002E-4</v>
+      </c>
+      <c r="E172">
+        <v>8.1314108516289105E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <f>EOMONTH(DATE(Sheet1!B174,Sheet1!A174,1),0)</f>
+        <v>33724</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <f>(Sheet1!G174-Sheet1!G173)/100</f>
+        <v>3.9999999999999992E-3</v>
+      </c>
+      <c r="D173">
+        <v>-1.04166666666663E-5</v>
+      </c>
+      <c r="E173">
+        <v>8.55286996204455E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <f>EOMONTH(DATE(Sheet1!B175,Sheet1!A175,1),0)</f>
+        <v>33755</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+      <c r="C174">
+        <f>(Sheet1!G175-Sheet1!G174)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D174">
+        <v>-3.0208333333333302E-4</v>
+      </c>
+      <c r="E174">
+        <v>8.2078348170058504E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <f>EOMONTH(DATE(Sheet1!B176,Sheet1!A176,1),0)</f>
+        <v>33785</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175">
+        <f>(Sheet1!G176-Sheet1!G175)/100</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="D175">
+        <v>-1.9791666666666601E-4</v>
+      </c>
+      <c r="E175">
+        <v>8.1369171192229001E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <f>EOMONTH(DATE(Sheet1!B177,Sheet1!A177,1),0)</f>
+        <v>33816</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+      <c r="C176">
+        <f>(Sheet1!G177-Sheet1!G176)/100</f>
+        <v>-3.9999999999999992E-3</v>
+      </c>
+      <c r="D176">
+        <v>1.10416666666667E-4</v>
+      </c>
+      <c r="E176">
+        <v>8.0503782792390205E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <f>EOMONTH(DATE(Sheet1!B178,Sheet1!A178,1),0)</f>
+        <v>33847</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+      <c r="C177">
+        <f>(Sheet1!G178-Sheet1!G177)/100</f>
+        <v>9.9999999999999655E-4</v>
+      </c>
+      <c r="D177">
+        <v>-2.6666666666666597E-4</v>
+      </c>
+      <c r="E177">
+        <v>7.7795399904486501E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <f>EOMONTH(DATE(Sheet1!B179,Sheet1!A179,1),0)</f>
+        <v>33877</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+      <c r="C178">
+        <f>(Sheet1!G179-Sheet1!G178)/100</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="D178">
+        <v>2.91666666666669E-5</v>
+      </c>
+      <c r="E178">
+        <v>7.8862940381401098E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <f>EOMONTH(DATE(Sheet1!B180,Sheet1!A180,1),0)</f>
+        <v>33908</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <f>(Sheet1!G180-Sheet1!G179)/100</f>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="D179">
+        <v>-7.2708333333333305E-4</v>
+      </c>
+      <c r="E179">
+        <v>7.9003439522947499E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <f>EOMONTH(DATE(Sheet1!B181,Sheet1!A181,1),0)</f>
+        <v>33938</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+      <c r="C180">
+        <f>(Sheet1!G181-Sheet1!G180)/100</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="D180">
+        <v>-8.6666666666666598E-4</v>
+      </c>
+      <c r="E180">
+        <v>7.7019846592309399E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <f>EOMONTH(DATE(Sheet1!B182,Sheet1!A182,1),0)</f>
+        <v>33969</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+      <c r="C181">
+        <f>(Sheet1!G182-Sheet1!G181)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D181">
+        <v>-1.39583333333333E-4</v>
+      </c>
+      <c r="E181">
+        <v>7.4863801230103902E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <f>EOMONTH(DATE(Sheet1!B183,Sheet1!A183,1),0)</f>
+        <v>34000</v>
+      </c>
+      <c r="B182">
+        <v>-0.76899999999999902</v>
+      </c>
+      <c r="C182">
+        <f>(Sheet1!G183-Sheet1!G182)/100</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="D182">
+        <v>-1.9374999999999999E-4</v>
+      </c>
+      <c r="E182">
+        <v>7.4016305783580996E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <f>EOMONTH(DATE(Sheet1!B184,Sheet1!A184,1),0)</f>
+        <v>34028</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="C183">
+        <f>(Sheet1!G184-Sheet1!G183)/100</f>
+        <v>3.0000000000000027E-3</v>
+      </c>
+      <c r="D183">
+        <v>-2.3958333333333299E-4</v>
+      </c>
+      <c r="E183">
+        <v>8.1211318394561402E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <f>EOMONTH(DATE(Sheet1!B185,Sheet1!A185,1),0)</f>
+        <v>34059</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+      <c r="C184">
+        <f>(Sheet1!G185-Sheet1!G184)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D184">
+        <v>-2.5000000000000001E-4</v>
+      </c>
+      <c r="E184">
+        <v>7.9884431694260793E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <f>EOMONTH(DATE(Sheet1!B186,Sheet1!A186,1),0)</f>
+        <v>34089</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+      <c r="C185">
+        <f>(Sheet1!G186-Sheet1!G185)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D185">
+        <v>-2.4791666666666701E-4</v>
+      </c>
+      <c r="E185">
+        <v>8.0738060320988098E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <f>EOMONTH(DATE(Sheet1!B187,Sheet1!A187,1),0)</f>
+        <v>34120</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+      <c r="C186">
+        <f>(Sheet1!G187-Sheet1!G186)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D186">
+        <v>-3.8749999999999901E-4</v>
+      </c>
+      <c r="E186">
+        <v>7.99861274925215E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <f>EOMONTH(DATE(Sheet1!B188,Sheet1!A188,1),0)</f>
+        <v>34150</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+      <c r="C187">
+        <f>(Sheet1!G188-Sheet1!G187)/100</f>
+        <v>6.000000000000001E-3</v>
+      </c>
+      <c r="D187">
+        <v>-2.1041666666666599E-4</v>
+      </c>
+      <c r="E187">
+        <v>7.80676138799105E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <f>EOMONTH(DATE(Sheet1!B189,Sheet1!A189,1),0)</f>
+        <v>34181</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+      <c r="C188">
+        <f>(Sheet1!G189-Sheet1!G188)/100</f>
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="D188">
+        <v>-2.35416666666666E-4</v>
+      </c>
+      <c r="E188">
+        <v>7.6072966426790095E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <f>EOMONTH(DATE(Sheet1!B190,Sheet1!A190,1),0)</f>
+        <v>34212</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+      <c r="C189">
+        <f>(Sheet1!G190-Sheet1!G189)/100</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="D189">
+        <v>-1.8333333333333301E-4</v>
+      </c>
+      <c r="E189">
+        <v>7.3671866141916495E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <f>EOMONTH(DATE(Sheet1!B191,Sheet1!A191,1),0)</f>
+        <v>34242</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+      <c r="C190">
+        <f>(Sheet1!G191-Sheet1!G190)/100</f>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="D190">
+        <v>-3.0416666666666699E-4</v>
+      </c>
+      <c r="E190">
+        <v>7.4534274265543807E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <f>EOMONTH(DATE(Sheet1!B192,Sheet1!A192,1),0)</f>
+        <v>34273</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+      <c r="C191">
+        <f>(Sheet1!G192-Sheet1!G191)/100</f>
+        <v>2.9999999999999983E-3</v>
+      </c>
+      <c r="D191">
+        <v>-4.3124999999999999E-4</v>
+      </c>
+      <c r="E191">
+        <v>7.3260214437892199E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <f>EOMONTH(DATE(Sheet1!B193,Sheet1!A193,1),0)</f>
+        <v>34303</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+      <c r="C192">
+        <f>(Sheet1!G193-Sheet1!G192)/100</f>
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="D192">
+        <v>-3.9166666666666598E-4</v>
+      </c>
+      <c r="E192">
+        <v>7.5686469820113803E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <f>EOMONTH(DATE(Sheet1!B194,Sheet1!A194,1),0)</f>
+        <v>34334</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+      <c r="C193">
+        <f>(Sheet1!G194-Sheet1!G193)/100</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="D193">
+        <v>-1.9583333333333299E-4</v>
+      </c>
+      <c r="E193">
+        <v>7.32289865751687E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <f>EOMONTH(DATE(Sheet1!B195,Sheet1!A195,1),0)</f>
+        <v>34365</v>
+      </c>
+      <c r="B194">
+        <v>1.27599999999999</v>
+      </c>
+      <c r="C194">
+        <f>(Sheet1!G195-Sheet1!G194)/100</f>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="D194">
+        <v>-2.0000000000000001E-4</v>
+      </c>
+      <c r="E194">
+        <v>7.2647407955776996E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <f>EOMONTH(DATE(Sheet1!B196,Sheet1!A196,1),0)</f>
+        <v>34393</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+      <c r="C195">
+        <f>(Sheet1!G196-Sheet1!G195)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <v>-6.5833333333333195E-4</v>
+      </c>
+      <c r="E195">
+        <v>7.7604362321108594E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
+        <f>EOMONTH(DATE(Sheet1!B197,Sheet1!A197,1),0)</f>
+        <v>34424</v>
+      </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
+      <c r="C196">
+        <f>(Sheet1!G197-Sheet1!G196)/100</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="D196">
+        <v>-4.8124999999999899E-4</v>
+      </c>
+      <c r="E196">
+        <v>8.1515439798825598E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
+        <f>EOMONTH(DATE(Sheet1!B198,Sheet1!A198,1),0)</f>
+        <v>34454</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+      <c r="C197">
+        <f>(Sheet1!G198-Sheet1!G197)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D197">
+        <v>-6.9374999999999895E-4</v>
+      </c>
+      <c r="E197">
+        <v>8.5136902536796497E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
+        <f>EOMONTH(DATE(Sheet1!B199,Sheet1!A199,1),0)</f>
+        <v>34485</v>
+      </c>
+      <c r="B198">
+        <v>0</v>
+      </c>
+      <c r="C198">
+        <f>(Sheet1!G199-Sheet1!G198)/100</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="D198">
+        <v>-6.29166666666666E-4</v>
+      </c>
+      <c r="E198">
+        <v>8.2089910439268096E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <f>EOMONTH(DATE(Sheet1!B200,Sheet1!A200,1),0)</f>
+        <v>34515</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+      <c r="C199">
+        <f>(Sheet1!G200-Sheet1!G199)/100</f>
+        <v>-3.9999999999999992E-3</v>
+      </c>
+      <c r="D199">
+        <v>-5.9583333333333298E-4</v>
+      </c>
+      <c r="E199">
+        <v>8.1619951660661896E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <f>EOMONTH(DATE(Sheet1!B201,Sheet1!A201,1),0)</f>
+        <v>34546</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200">
+        <f>(Sheet1!G201-Sheet1!G200)/100</f>
+        <v>1.9999999999999974E-3</v>
+      </c>
+      <c r="D200">
+        <v>-6.0416666666666605E-4</v>
+      </c>
+      <c r="E200">
+        <v>7.7218266197774693E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <f>EOMONTH(DATE(Sheet1!B202,Sheet1!A202,1),0)</f>
+        <v>34577</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+      <c r="C201">
+        <f>(Sheet1!G202-Sheet1!G201)/100</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="D201">
+        <v>-6.0833333333333204E-4</v>
+      </c>
+      <c r="E201">
+        <v>7.5980719693943502E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <f>EOMONTH(DATE(Sheet1!B203,Sheet1!A203,1),0)</f>
+        <v>34607</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+      <c r="C202">
+        <f>(Sheet1!G203-Sheet1!G202)/100</f>
+        <v>2.9999999999999983E-3</v>
+      </c>
+      <c r="D202">
+        <v>-7.8333333333333304E-4</v>
+      </c>
+      <c r="E202">
+        <v>7.6901947443273694E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <f>EOMONTH(DATE(Sheet1!B204,Sheet1!A204,1),0)</f>
+        <v>34638</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="C203">
+        <f>(Sheet1!G204-Sheet1!G203)/100</f>
+        <v>-3.9999999999999992E-3</v>
+      </c>
+      <c r="D203">
+        <v>-7.9583333333333199E-4</v>
+      </c>
+      <c r="E203">
+        <v>7.9621593769627394E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
+        <f>EOMONTH(DATE(Sheet1!B205,Sheet1!A205,1),0)</f>
+        <v>34668</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+      <c r="C204">
+        <f>(Sheet1!G205-Sheet1!G204)/100</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="D204">
+        <v>-9.6458333333333303E-4</v>
+      </c>
+      <c r="E204">
+        <v>8.0102394600204394E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" s="1">
+        <f>EOMONTH(DATE(Sheet1!B206,Sheet1!A206,1),0)</f>
+        <v>34699</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+      <c r="C205">
+        <f>(Sheet1!G206-Sheet1!G205)/100</f>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="D205">
+        <v>-7.8333333333333195E-4</v>
+      </c>
+      <c r="E205">
+        <v>7.8676401661734396E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" s="1">
+        <f>EOMONTH(DATE(Sheet1!B207,Sheet1!A207,1),0)</f>
+        <v>34730</v>
+      </c>
+      <c r="B206">
+        <v>-1.34499999999999</v>
+      </c>
+      <c r="C206">
+        <f>(Sheet1!G207-Sheet1!G206)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D206">
+        <v>-6.5208333333333297E-4</v>
+      </c>
+      <c r="E206">
+        <v>7.5578007140438094E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" s="1">
+        <f>EOMONTH(DATE(Sheet1!B208,Sheet1!A208,1),0)</f>
+        <v>34758</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+      <c r="C207">
+        <f>(Sheet1!G208-Sheet1!G207)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D207">
+        <v>-3.4999999999999902E-4</v>
+      </c>
+      <c r="E207">
+        <v>7.4872454219498202E-2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" s="1">
+        <f>EOMONTH(DATE(Sheet1!B209,Sheet1!A209,1),0)</f>
+        <v>34789</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+      <c r="C208">
+        <f>(Sheet1!G209-Sheet1!G208)/100</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="D208">
+        <v>-4.08333333333332E-4</v>
+      </c>
+      <c r="E208">
+        <v>7.4287417096807307E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" s="1">
+        <f>EOMONTH(DATE(Sheet1!B210,Sheet1!A210,1),0)</f>
+        <v>34819</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+      <c r="C209">
+        <f>(Sheet1!G210-Sheet1!G209)/100</f>
+        <v>9.9999999999999655E-4</v>
+      </c>
+      <c r="D209">
+        <v>-4.0624999999999998E-4</v>
+      </c>
+      <c r="E209">
+        <v>7.2714787569745601E-2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" s="1">
+        <f>EOMONTH(DATE(Sheet1!B211,Sheet1!A211,1),0)</f>
+        <v>34850</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+      <c r="C210">
+        <f>(Sheet1!G211-Sheet1!G210)/100</f>
+        <v>-2.9999999999999983E-3</v>
+      </c>
+      <c r="D210">
+        <v>-3.1041666666666598E-4</v>
+      </c>
+      <c r="E210">
+        <v>7.4138055037746398E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" s="1">
+        <f>EOMONTH(DATE(Sheet1!B212,Sheet1!A212,1),0)</f>
+        <v>34880</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+      <c r="C211">
+        <f>(Sheet1!G212-Sheet1!G211)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D211">
+        <v>-3.5715833333333299E-4</v>
+      </c>
+      <c r="E211">
+        <v>7.6520931273991497E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" s="1">
+        <f>EOMONTH(DATE(Sheet1!B213,Sheet1!A213,1),0)</f>
+        <v>34911</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+      <c r="C212">
+        <f>(Sheet1!G213-Sheet1!G212)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D212">
+        <v>-3.62499999999999E-4</v>
+      </c>
+      <c r="E212">
+        <v>7.9058711950080005E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
+        <f>EOMONTH(DATE(Sheet1!B214,Sheet1!A214,1),0)</f>
+        <v>34942</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+      <c r="C213">
+        <f>(Sheet1!G214-Sheet1!G213)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D213">
+        <v>-3.8567499999999901E-4</v>
+      </c>
+      <c r="E213">
+        <v>7.4898292959022894E-2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" s="1">
+        <f>EOMONTH(DATE(Sheet1!B215,Sheet1!A215,1),0)</f>
+        <v>34972</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+      <c r="C214">
+        <f>(Sheet1!G215-Sheet1!G214)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D214">
+        <v>-5.5260833333333197E-4</v>
+      </c>
+      <c r="E214">
+        <v>7.4376577756840007E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" s="1">
+        <f>EOMONTH(DATE(Sheet1!B216,Sheet1!A216,1),0)</f>
+        <v>35003</v>
+      </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
+      <c r="C215">
+        <f>(Sheet1!G216-Sheet1!G215)/100</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="D215">
+        <v>-5.8124999999999898E-4</v>
+      </c>
+      <c r="E215">
+        <v>7.61319919113886E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" s="1">
+        <f>EOMONTH(DATE(Sheet1!B217,Sheet1!A217,1),0)</f>
+        <v>35033</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+      <c r="C216">
+        <f>(Sheet1!G217-Sheet1!G216)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D216">
+        <v>-4.6249999999999899E-4</v>
+      </c>
+      <c r="E216">
+        <v>7.5579611304012098E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
+        <f>EOMONTH(DATE(Sheet1!B218,Sheet1!A218,1),0)</f>
+        <v>35064</v>
+      </c>
+      <c r="B217">
+        <v>0</v>
+      </c>
+      <c r="C217">
+        <f>(Sheet1!G218-Sheet1!G217)/100</f>
+        <v>-9.9999999999999655E-4</v>
+      </c>
+      <c r="D217">
+        <v>-2.54166666666666E-4</v>
+      </c>
+      <c r="E217">
+        <v>7.79298475904764E-2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" s="1">
+        <f>EOMONTH(DATE(Sheet1!B219,Sheet1!A219,1),0)</f>
+        <v>35095</v>
+      </c>
+      <c r="B218">
+        <v>1.0879999999999901</v>
+      </c>
+      <c r="C218">
+        <f>(Sheet1!G219-Sheet1!G218)/100</f>
+        <v>9.9999999999999655E-4</v>
+      </c>
+      <c r="D218">
+        <v>-3.4583333333333298E-4</v>
+      </c>
+      <c r="E218">
+        <v>8.1301722142121197E-2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" s="1">
+        <f>EOMONTH(DATE(Sheet1!B220,Sheet1!A220,1),0)</f>
+        <v>35124</v>
+      </c>
+      <c r="B219">
+        <v>0</v>
+      </c>
+      <c r="C219">
+        <f>(Sheet1!G220-Sheet1!G219)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D219">
+        <v>-3.2890833333333401E-4</v>
+      </c>
+      <c r="E219">
+        <v>8.2233220486039205E-2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" s="1">
+        <f>EOMONTH(DATE(Sheet1!B221,Sheet1!A221,1),0)</f>
+        <v>35155</v>
+      </c>
+      <c r="B220">
+        <v>0</v>
+      </c>
+      <c r="C220">
+        <f>(Sheet1!G221-Sheet1!G220)/100</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="D220">
+        <v>-4.8555000000000001E-4</v>
+      </c>
+      <c r="E220">
+        <v>8.5126158186051307E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" s="1">
+        <f>EOMONTH(DATE(Sheet1!B222,Sheet1!A222,1),0)</f>
+        <v>35185</v>
+      </c>
+      <c r="B221">
+        <v>0</v>
+      </c>
+      <c r="C221">
+        <f>(Sheet1!G222-Sheet1!G221)/100</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="D221">
+        <v>-4.0365000000000003E-4</v>
+      </c>
+      <c r="E221">
+        <v>8.2870007688331304E-2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
+        <f>EOMONTH(DATE(Sheet1!B223,Sheet1!A223,1),0)</f>
+        <v>35216</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <f>(Sheet1!G223-Sheet1!G222)/100</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="D222">
+        <v>-4.0833333333333298E-4</v>
+      </c>
+      <c r="E222">
+        <v>8.1859200683198602E-2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <f>EOMONTH(DATE(Sheet1!B224,Sheet1!A224,1),0)</f>
+        <v>35246</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <f>(Sheet1!G224-Sheet1!G223)/100</f>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="D223">
+        <v>-4.5169166666666599E-4</v>
+      </c>
+      <c r="E223">
+        <v>7.9205289283431499E-2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
+        <f>EOMONTH(DATE(Sheet1!B225,Sheet1!A225,1),0)</f>
+        <v>35277</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <f>(Sheet1!G225-Sheet1!G224)/100</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="D224">
+        <v>-5.2981666666666698E-4</v>
+      </c>
+      <c r="E224">
+        <v>9.2881861932797294E-2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
+        <f>EOMONTH(DATE(Sheet1!B226,Sheet1!A226,1),0)</f>
+        <v>35308</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <f>(Sheet1!G226-Sheet1!G225)/100</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="D225">
+        <v>-3.1875000000000002E-4</v>
+      </c>
+      <c r="E225">
+        <v>8.7989648705781007E-2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
+        <f>EOMONTH(DATE(Sheet1!B227,Sheet1!A227,1),0)</f>
+        <v>35338</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <f>(Sheet1!G227-Sheet1!G226)/100</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="D226">
+        <v>-3.95833333333333E-4</v>
+      </c>
+      <c r="E226">
+        <v>8.3231985919759693E-2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" s="1">
+        <f>EOMONTH(DATE(Sheet1!B228,Sheet1!A228,1),0)</f>
+        <v>35369</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <f>(Sheet1!G228-Sheet1!G227)/100</f>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="D227">
+        <v>-4.9166666666666705E-4</v>
+      </c>
+      <c r="E227">
+        <v>7.90070750790106E-2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
+        <f>EOMONTH(DATE(Sheet1!B229,Sheet1!A229,1),0)</f>
+        <v>35399</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <f>(Sheet1!G229-Sheet1!G228)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>-3.9166666666666598E-4</v>
+      </c>
+      <c r="E228">
+        <v>7.7761565907514305E-2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
+        <f>EOMONTH(DATE(Sheet1!B230,Sheet1!A230,1),0)</f>
+        <v>35430</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <f>(Sheet1!G230-Sheet1!G229)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>-4.6874999999999998E-4</v>
+      </c>
+      <c r="E229">
+        <v>8.1158419234901899E-2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" s="1">
+        <f>EOMONTH(DATE(Sheet1!B231,Sheet1!A231,1),0)</f>
+        <v>35461</v>
+      </c>
+      <c r="B230">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="C230">
+        <f>(Sheet1!G231-Sheet1!G230)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>-4.1041666666666603E-4</v>
+      </c>
+      <c r="E230">
+        <v>8.2644899786659898E-2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" s="1">
+        <f>EOMONTH(DATE(Sheet1!B232,Sheet1!A232,1),0)</f>
+        <v>35489</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <f>(Sheet1!G232-Sheet1!G231)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>-4.3255000000000002E-4</v>
+      </c>
+      <c r="E231">
+        <v>8.4815941901472805E-2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" s="1">
+        <f>EOMONTH(DATE(Sheet1!B233,Sheet1!A233,1),0)</f>
+        <v>35520</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <f>(Sheet1!G233-Sheet1!G232)/100</f>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="D232">
+        <v>-5.6953333333333196E-4</v>
+      </c>
+      <c r="E232">
+        <v>8.6164895734484201E-2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" s="1">
+        <f>EOMONTH(DATE(Sheet1!B234,Sheet1!A234,1),0)</f>
+        <v>35550</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <f>(Sheet1!G234-Sheet1!G233)/100</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="D233">
+        <v>-5.0534166666666705E-4</v>
+      </c>
+      <c r="E233">
+        <v>9.6180803220918598E-2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" s="1">
+        <f>EOMONTH(DATE(Sheet1!B235,Sheet1!A235,1),0)</f>
+        <v>35581</v>
+      </c>
+      <c r="B234">
+        <v>0</v>
+      </c>
+      <c r="C234">
+        <f>(Sheet1!G235-Sheet1!G234)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D234">
+        <v>-5.6041666666666599E-4</v>
+      </c>
+      <c r="E234">
+        <v>9.3823723157968206E-2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" s="1">
+        <f>EOMONTH(DATE(Sheet1!B236,Sheet1!A236,1),0)</f>
+        <v>35611</v>
+      </c>
+      <c r="B235">
+        <v>0</v>
+      </c>
+      <c r="C235">
+        <f>(Sheet1!G236-Sheet1!G235)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D235">
+        <v>-8.0104166666666605E-4</v>
+      </c>
+      <c r="E235">
+        <v>9.21524313698837E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236" s="1">
+        <f>EOMONTH(DATE(Sheet1!B237,Sheet1!A237,1),0)</f>
+        <v>35642</v>
+      </c>
+      <c r="B236">
+        <v>0</v>
+      </c>
+      <c r="C236">
+        <f>(Sheet1!G237-Sheet1!G236)/100</f>
+        <v>-9.9999999999999655E-4</v>
+      </c>
+      <c r="D236">
+        <v>-5.3919166666666605E-4</v>
+      </c>
+      <c r="E236">
+        <v>9.0946965281228004E-2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237" s="1">
+        <f>EOMONTH(DATE(Sheet1!B238,Sheet1!A238,1),0)</f>
+        <v>35673</v>
+      </c>
+      <c r="B237">
+        <v>0</v>
+      </c>
+      <c r="C237">
+        <f>(Sheet1!G238-Sheet1!G237)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D237">
+        <v>-5.0729166666666598E-4</v>
+      </c>
+      <c r="E237">
+        <v>9.2749351246852199E-2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238" s="1">
+        <f>EOMONTH(DATE(Sheet1!B239,Sheet1!A239,1),0)</f>
+        <v>35703</v>
+      </c>
+      <c r="B238">
+        <v>0</v>
+      </c>
+      <c r="C238">
+        <f>(Sheet1!G239-Sheet1!G238)/100</f>
+        <v>9.9999999999999655E-4</v>
+      </c>
+      <c r="D238">
+        <v>-5.5794166666666605E-4</v>
+      </c>
+      <c r="E238">
+        <v>9.2125368335744001E-2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239" s="1">
+        <f>EOMONTH(DATE(Sheet1!B240,Sheet1!A240,1),0)</f>
+        <v>35734</v>
+      </c>
+      <c r="B239">
+        <v>0</v>
+      </c>
+      <c r="C239">
+        <f>(Sheet1!G240-Sheet1!G239)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D239">
+        <v>-6.8333333333333299E-4</v>
+      </c>
+      <c r="E239">
+        <v>0.130564423125163</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A240" s="1">
+        <f>EOMONTH(DATE(Sheet1!B241,Sheet1!A241,1),0)</f>
+        <v>35764</v>
+      </c>
+      <c r="B240">
+        <v>0</v>
+      </c>
+      <c r="C240">
+        <f>(Sheet1!G241-Sheet1!G240)/100</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="D240">
+        <v>-6.93616666666665E-4</v>
+      </c>
+      <c r="E240">
+        <v>0.12026368506403801</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241" s="1">
+        <f>EOMONTH(DATE(Sheet1!B242,Sheet1!A242,1),0)</f>
+        <v>35795</v>
+      </c>
+      <c r="B241">
+        <v>0</v>
+      </c>
+      <c r="C241">
+        <f>(Sheet1!G242-Sheet1!G241)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D241">
+        <v>-6.1041666666666601E-4</v>
+      </c>
+      <c r="E241">
+        <v>0.10957814724004999</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" s="1">
+        <f>EOMONTH(DATE(Sheet1!B243,Sheet1!A243,1),0)</f>
+        <v>35826</v>
+      </c>
+      <c r="B242">
+        <v>3.3999999999999801E-2</v>
+      </c>
+      <c r="C242">
+        <f>(Sheet1!G243-Sheet1!G242)/100</f>
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="D242">
+        <v>-3.3749999999999899E-4</v>
+      </c>
+      <c r="E242">
+        <v>0.10556853164534501</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243" s="1">
+        <f>EOMONTH(DATE(Sheet1!B244,Sheet1!A244,1),0)</f>
+        <v>35854</v>
+      </c>
+      <c r="B243">
+        <v>0</v>
+      </c>
+      <c r="C243">
+        <f>(Sheet1!G244-Sheet1!G243)/100</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="D243">
+        <v>-5.1640833333333304E-4</v>
+      </c>
+      <c r="E243">
+        <v>9.6281247940288403E-2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" s="1">
+        <f>EOMONTH(DATE(Sheet1!B245,Sheet1!A245,1),0)</f>
+        <v>35885</v>
+      </c>
+      <c r="B244">
+        <v>0</v>
+      </c>
+      <c r="C244">
+        <f>(Sheet1!G245-Sheet1!G244)/100</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="D244">
+        <v>-4.4244999999999902E-4</v>
+      </c>
+      <c r="E244">
+        <v>8.9429439312605399E-2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" s="1">
+        <f>EOMONTH(DATE(Sheet1!B246,Sheet1!A246,1),0)</f>
+        <v>35915</v>
+      </c>
+      <c r="B245">
+        <v>0</v>
+      </c>
+      <c r="C245">
+        <f>(Sheet1!G246-Sheet1!G245)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D245">
+        <v>-5.8229166666666596E-4</v>
+      </c>
+      <c r="E245">
+        <v>9.0287032758825506E-2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246" s="1">
+        <f>EOMONTH(DATE(Sheet1!B247,Sheet1!A247,1),0)</f>
+        <v>35946</v>
+      </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
+      <c r="C246">
+        <f>(Sheet1!G247-Sheet1!G246)/100</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="D246">
+        <v>-6.8124999999999902E-4</v>
+      </c>
+      <c r="E246">
+        <v>8.7754455318314495E-2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247" s="1">
+        <f>EOMONTH(DATE(Sheet1!B248,Sheet1!A248,1),0)</f>
+        <v>35976</v>
+      </c>
+      <c r="B247">
+        <v>0</v>
+      </c>
+      <c r="C247">
+        <f>(Sheet1!G248-Sheet1!G247)/100</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="D247">
+        <v>-6.64583333333333E-4</v>
+      </c>
+      <c r="E247">
+        <v>9.1163122065521601E-2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248" s="1">
+        <f>EOMONTH(DATE(Sheet1!B249,Sheet1!A249,1),0)</f>
+        <v>36007</v>
+      </c>
+      <c r="B248">
+        <v>0</v>
+      </c>
+      <c r="C248">
+        <f>(Sheet1!G249-Sheet1!G248)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D248">
+        <v>-5.97916666666665E-4</v>
+      </c>
+      <c r="E248">
+        <v>9.2017174684904696E-2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249" s="1">
+        <f>EOMONTH(DATE(Sheet1!B250,Sheet1!A250,1),0)</f>
+        <v>36038</v>
+      </c>
+      <c r="B249">
+        <v>0</v>
+      </c>
+      <c r="C249">
+        <f>(Sheet1!G250-Sheet1!G249)/100</f>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="D249">
+        <v>-5.4583333333333198E-4</v>
+      </c>
+      <c r="E249">
+        <v>0.114754105179721</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250" s="1">
+        <f>EOMONTH(DATE(Sheet1!B251,Sheet1!A251,1),0)</f>
+        <v>36068</v>
+      </c>
+      <c r="B250">
+        <v>0</v>
+      </c>
+      <c r="C250">
+        <f>(Sheet1!G251-Sheet1!G250)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D250">
+        <v>-4.5208333333333298E-4</v>
+      </c>
+      <c r="E250">
+        <v>0.147587638527126</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251" s="1">
+        <f>EOMONTH(DATE(Sheet1!B252,Sheet1!A252,1),0)</f>
+        <v>36099</v>
+      </c>
+      <c r="B251">
+        <v>0</v>
+      </c>
+      <c r="C251">
+        <f>(Sheet1!G252-Sheet1!G251)/100</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="D251">
+        <v>-7.9960833333333299E-4</v>
+      </c>
+      <c r="E251">
+        <v>0.144335262857955</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252" s="1">
+        <f>EOMONTH(DATE(Sheet1!B253,Sheet1!A253,1),0)</f>
+        <v>36129</v>
+      </c>
+      <c r="B252">
+        <v>0</v>
+      </c>
+      <c r="C252">
+        <f>(Sheet1!G253-Sheet1!G252)/100</f>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="D252">
+        <v>-8.7721666666666599E-4</v>
+      </c>
+      <c r="E252">
+        <v>0.123853133228623</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253" s="1">
+        <f>EOMONTH(DATE(Sheet1!B254,Sheet1!A254,1),0)</f>
+        <v>36160</v>
+      </c>
+      <c r="B253">
+        <v>0</v>
+      </c>
+      <c r="C253">
+        <f>(Sheet1!G254-Sheet1!G253)/100</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="D253">
+        <v>-5.3802499999999797E-4</v>
+      </c>
+      <c r="E253">
+        <v>0.117086961939812</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A254" s="1">
+        <f>EOMONTH(DATE(Sheet1!B255,Sheet1!A255,1),0)</f>
+        <v>36191</v>
+      </c>
+      <c r="B254">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="C254">
+        <f>(Sheet1!G255-Sheet1!G254)/100</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="D254">
+        <v>-4.9960833333333198E-4</v>
+      </c>
+      <c r="E254">
+        <v>0.113956224289347</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255" s="1">
+        <f>EOMONTH(DATE(Sheet1!B256,Sheet1!A256,1),0)</f>
+        <v>36219</v>
+      </c>
+      <c r="B255">
+        <v>0</v>
+      </c>
+      <c r="C255">
+        <f>(Sheet1!G256-Sheet1!G255)/100</f>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="D255">
+        <v>-5.4687499999999897E-4</v>
+      </c>
+      <c r="E255">
+        <v>0.115253391082152</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A256" s="1">
+        <f>EOMONTH(DATE(Sheet1!B257,Sheet1!A257,1),0)</f>
+        <v>36250</v>
+      </c>
+      <c r="B256">
+        <v>0</v>
+      </c>
+      <c r="C256">
+        <f>(Sheet1!G257-Sheet1!G256)/100</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="D256">
+        <v>-3.7499999999999898E-4</v>
+      </c>
+      <c r="E256">
+        <v>0.111417004490229</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A257" s="1">
+        <f>EOMONTH(DATE(Sheet1!B258,Sheet1!A258,1),0)</f>
+        <v>36280</v>
+      </c>
+      <c r="B257">
+        <v>0</v>
+      </c>
+      <c r="C257">
+        <f>(Sheet1!G258-Sheet1!G257)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D257">
+        <v>-5.1562499999999796E-4</v>
+      </c>
+      <c r="E257">
+        <v>0.108338485548354</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A258" s="1">
+        <f>EOMONTH(DATE(Sheet1!B259,Sheet1!A259,1),0)</f>
+        <v>36311</v>
+      </c>
+      <c r="B258">
+        <v>0</v>
+      </c>
+      <c r="C258">
+        <f>(Sheet1!G259-Sheet1!G258)/100</f>
+        <v>9.9999999999999655E-4</v>
+      </c>
+      <c r="D258">
+        <v>-5.3020833333333305E-4</v>
+      </c>
+      <c r="E258">
+        <v>0.108886886442564</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A259" s="1">
+        <f>EOMONTH(DATE(Sheet1!B260,Sheet1!A260,1),0)</f>
+        <v>36341</v>
+      </c>
+      <c r="B259">
+        <v>0</v>
+      </c>
+      <c r="C259">
+        <f>(Sheet1!G260-Sheet1!G259)/100</f>
+        <v>-2.9999999999999983E-3</v>
+      </c>
+      <c r="D259">
+        <v>-6.97916666666667E-4</v>
+      </c>
+      <c r="E259">
+        <v>0.104248002760627</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A260" s="1">
+        <f>EOMONTH(DATE(Sheet1!B261,Sheet1!A261,1),0)</f>
+        <v>36372</v>
+      </c>
+      <c r="B260">
+        <v>0</v>
+      </c>
+      <c r="C260">
+        <f>(Sheet1!G261-Sheet1!G260)/100</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="D260">
+        <v>-5.7708333333333201E-4</v>
+      </c>
+      <c r="E260">
+        <v>0.101042885765358</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A261" s="1">
+        <f>EOMONTH(DATE(Sheet1!B262,Sheet1!A262,1),0)</f>
+        <v>36403</v>
+      </c>
+      <c r="B261">
+        <v>0</v>
+      </c>
+      <c r="C261">
+        <f>(Sheet1!G262-Sheet1!G261)/100</f>
+        <v>9.9999999999999655E-4</v>
+      </c>
+      <c r="D261">
+        <v>-7.4999999999999904E-4</v>
+      </c>
+      <c r="E261">
+        <v>0.10405789720804801</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A262" s="1">
+        <f>EOMONTH(DATE(Sheet1!B263,Sheet1!A263,1),0)</f>
+        <v>36433</v>
+      </c>
+      <c r="B262">
+        <v>0</v>
+      </c>
+      <c r="C262">
+        <f>(Sheet1!G263-Sheet1!G262)/100</f>
+        <v>-9.9999999999999655E-4</v>
+      </c>
+      <c r="D262">
+        <v>-1.03645833333333E-3</v>
+      </c>
+      <c r="E262">
+        <v>0.10311427368491299</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A263" s="1">
+        <f>EOMONTH(DATE(Sheet1!B264,Sheet1!A264,1),0)</f>
+        <v>36464</v>
+      </c>
+      <c r="B263">
+        <v>0</v>
+      </c>
+      <c r="C263">
+        <f>(Sheet1!G264-Sheet1!G263)/100</f>
+        <v>1.9999999999999974E-3</v>
+      </c>
+      <c r="D263">
+        <v>-1.20416666666666E-3</v>
+      </c>
+      <c r="E263">
+        <v>0.113246642235297</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A264" s="1">
+        <f>EOMONTH(DATE(Sheet1!B265,Sheet1!A265,1),0)</f>
+        <v>36494</v>
+      </c>
+      <c r="B264">
+        <v>0</v>
+      </c>
+      <c r="C264">
+        <f>(Sheet1!G265-Sheet1!G264)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D264">
+        <v>-9.5416666666666501E-4</v>
+      </c>
+      <c r="E264">
+        <v>0.103336947466754</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A265" s="1">
+        <f>EOMONTH(DATE(Sheet1!B266,Sheet1!A266,1),0)</f>
+        <v>36525</v>
+      </c>
+      <c r="B265">
+        <v>0</v>
+      </c>
+      <c r="C265">
+        <f>(Sheet1!G266-Sheet1!G265)/100</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="D265">
+        <v>-7.0937499999999896E-4</v>
+      </c>
+      <c r="E265">
+        <v>9.5680477199966002E-2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A266" s="1">
+        <f>EOMONTH(DATE(Sheet1!B267,Sheet1!A267,1),0)</f>
+        <v>36556</v>
+      </c>
+      <c r="B266">
+        <v>-0.626</v>
+      </c>
+      <c r="C266">
+        <f>(Sheet1!G267-Sheet1!G266)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D266">
+        <v>-7.5624999999999998E-4</v>
+      </c>
+      <c r="E266">
+        <v>0.114922640085904</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A267" s="1">
+        <f>EOMONTH(DATE(Sheet1!B268,Sheet1!A268,1),0)</f>
+        <v>36585</v>
+      </c>
+      <c r="B267">
+        <v>0</v>
+      </c>
+      <c r="C267">
+        <f>(Sheet1!G268-Sheet1!G267)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D267">
+        <v>-4.8229166666666603E-4</v>
+      </c>
+      <c r="E267">
+        <v>0.111046473753796</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A268" s="1">
+        <f>EOMONTH(DATE(Sheet1!B269,Sheet1!A269,1),0)</f>
+        <v>36616</v>
+      </c>
+      <c r="B268">
+        <v>0</v>
+      </c>
+      <c r="C268">
+        <f>(Sheet1!G269-Sheet1!G268)/100</f>
+        <v>3.0000000000000027E-3</v>
+      </c>
+      <c r="D268">
+        <v>-5.5833333333333202E-4</v>
+      </c>
+      <c r="E268">
+        <v>0.125683418552165</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A269" s="1">
+        <f>EOMONTH(DATE(Sheet1!B270,Sheet1!A270,1),0)</f>
+        <v>36646</v>
+      </c>
+      <c r="B269">
+        <v>0</v>
+      </c>
+      <c r="C269">
+        <f>(Sheet1!G270-Sheet1!G269)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D269">
+        <v>-6.5208333333333199E-4</v>
+      </c>
+      <c r="E269">
+        <v>0.157394588696083</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A270" s="1">
+        <f>EOMONTH(DATE(Sheet1!B271,Sheet1!A271,1),0)</f>
+        <v>36677</v>
+      </c>
+      <c r="B270">
+        <v>0</v>
+      </c>
+      <c r="C270">
+        <f>(Sheet1!G271-Sheet1!G270)/100</f>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="D270">
+        <v>-1.0020833333333301E-3</v>
+      </c>
+      <c r="E270">
+        <v>0.15298234321078599</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A271" s="1">
+        <f>EOMONTH(DATE(Sheet1!B272,Sheet1!A272,1),0)</f>
+        <v>36707</v>
+      </c>
+      <c r="B271">
+        <v>0</v>
+      </c>
+      <c r="C271">
+        <f>(Sheet1!G272-Sheet1!G271)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D271">
+        <v>-1.0744833333333299E-3</v>
+      </c>
+      <c r="E271">
+        <v>0.134730166602088</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A272" s="1">
+        <f>EOMONTH(DATE(Sheet1!B273,Sheet1!A273,1),0)</f>
+        <v>36738</v>
+      </c>
+      <c r="B272">
+        <v>0</v>
+      </c>
+      <c r="C272">
+        <f>(Sheet1!G273-Sheet1!G272)/100</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="D272">
+        <v>-8.4323333333333195E-4</v>
+      </c>
+      <c r="E272">
+        <v>0.12427010917725199</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A273" s="1">
+        <f>EOMONTH(DATE(Sheet1!B274,Sheet1!A274,1),0)</f>
+        <v>36769</v>
+      </c>
+      <c r="B273">
+        <v>0</v>
+      </c>
+      <c r="C273">
+        <f>(Sheet1!G274-Sheet1!G273)/100</f>
+        <v>-2.9999999999999983E-3</v>
+      </c>
+      <c r="D273">
+        <v>-5.4166666666666599E-4</v>
+      </c>
+      <c r="E273">
+        <v>0.106487453715187</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A274" s="1">
+        <f>EOMONTH(DATE(Sheet1!B275,Sheet1!A275,1),0)</f>
+        <v>36799</v>
+      </c>
+      <c r="B274">
+        <v>0</v>
+      </c>
+      <c r="C274">
+        <f>(Sheet1!G275-Sheet1!G274)/100</f>
+        <v>1.9999999999999974E-3</v>
+      </c>
+      <c r="D274">
+        <v>-5.6770833333333304E-4</v>
+      </c>
+      <c r="E274">
+        <v>0.103772489681625</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A275" s="1">
+        <f>EOMONTH(DATE(Sheet1!B276,Sheet1!A276,1),0)</f>
+        <v>36830</v>
+      </c>
+      <c r="B275">
+        <v>0</v>
+      </c>
+      <c r="C275">
+        <f>(Sheet1!G276-Sheet1!G275)/100</f>
+        <v>3.0000000000000027E-3</v>
+      </c>
+      <c r="D275">
+        <v>-5.9166666666666601E-4</v>
+      </c>
+      <c r="E275">
+        <v>0.12456636632828599</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A276" s="1">
+        <f>EOMONTH(DATE(Sheet1!B277,Sheet1!A277,1),0)</f>
+        <v>36860</v>
+      </c>
+      <c r="B276">
+        <v>0</v>
+      </c>
+      <c r="C276">
+        <f>(Sheet1!G277-Sheet1!G276)/100</f>
+        <v>-3.0000000000000027E-3</v>
+      </c>
+      <c r="D276">
+        <v>-4.3750000000000001E-4</v>
+      </c>
+      <c r="E276">
+        <v>0.12803152240428201</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A277" s="1">
+        <f>EOMONTH(DATE(Sheet1!B278,Sheet1!A278,1),0)</f>
+        <v>36891</v>
+      </c>
+      <c r="B277">
+        <v>0</v>
+      </c>
+      <c r="C277">
+        <f>(Sheet1!G278-Sheet1!G277)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D277">
+        <v>-3.07291666666666E-4</v>
+      </c>
+      <c r="E277">
+        <v>0.139849085653483</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A278" s="1">
+        <f>EOMONTH(DATE(Sheet1!B279,Sheet1!A279,1),0)</f>
+        <v>36922</v>
+      </c>
+      <c r="B278">
+        <v>-3.1279999999999899</v>
+      </c>
+      <c r="C278">
+        <f>(Sheet1!G279-Sheet1!G278)/100</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="D278">
+        <v>2.5729166666666598E-4</v>
+      </c>
+      <c r="E278">
+        <v>0.136250825656939</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A279" s="1">
+        <f>EOMONTH(DATE(Sheet1!B280,Sheet1!A280,1),0)</f>
+        <v>36950</v>
+      </c>
+      <c r="B279">
+        <v>0</v>
+      </c>
+      <c r="C279">
+        <f>(Sheet1!G280-Sheet1!G279)/100</f>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="D279">
+        <v>-1.60416666666667E-4</v>
+      </c>
+      <c r="E279">
+        <v>0.12717925864075999</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A280" s="1">
+        <f>EOMONTH(DATE(Sheet1!B281,Sheet1!A281,1),0)</f>
+        <v>36981</v>
+      </c>
+      <c r="B280">
+        <v>0</v>
+      </c>
+      <c r="C280">
+        <f>(Sheet1!G281-Sheet1!G280)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D280">
+        <v>-1.2395833333333399E-4</v>
+      </c>
+      <c r="E280">
+        <v>0.14040568001319101</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A281" s="1">
+        <f>EOMONTH(DATE(Sheet1!B282,Sheet1!A282,1),0)</f>
+        <v>37011</v>
+      </c>
+      <c r="B281">
+        <v>0</v>
+      </c>
+      <c r="C281">
+        <f>(Sheet1!G282-Sheet1!G281)/100</f>
+        <v>3.0000000000000027E-3</v>
+      </c>
+      <c r="D281">
+        <v>-1.1354166666666601E-4</v>
+      </c>
+      <c r="E281">
+        <v>0.14912203604402299</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A282" s="1">
+        <f>EOMONTH(DATE(Sheet1!B283,Sheet1!A283,1),0)</f>
+        <v>37042</v>
+      </c>
+      <c r="B282">
+        <v>0</v>
+      </c>
+      <c r="C282">
+        <f>(Sheet1!G283-Sheet1!G282)/100</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="D282">
+        <v>-1.08333333333333E-4</v>
+      </c>
+      <c r="E282">
+        <v>0.13102305770272099</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A283" s="1">
+        <f>EOMONTH(DATE(Sheet1!B284,Sheet1!A284,1),0)</f>
+        <v>37072</v>
+      </c>
+      <c r="B283">
+        <v>0</v>
+      </c>
+      <c r="C283">
+        <f>(Sheet1!G284-Sheet1!G283)/100</f>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="D283">
+        <v>-2.3854166666666601E-4</v>
+      </c>
+      <c r="E283">
+        <v>0.116485772283627</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A284" s="1">
+        <f>EOMONTH(DATE(Sheet1!B285,Sheet1!A285,1),0)</f>
+        <v>37103</v>
+      </c>
+      <c r="B284">
+        <v>0</v>
+      </c>
+      <c r="C284">
+        <f>(Sheet1!G285-Sheet1!G284)/100</f>
+        <v>-3.9999999999999992E-3</v>
+      </c>
+      <c r="D284">
+        <v>-8.3333333333332395E-5</v>
+      </c>
+      <c r="E284">
+        <v>0.112274675580538</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A285" s="1">
+        <f>EOMONTH(DATE(Sheet1!B286,Sheet1!A286,1),0)</f>
+        <v>37134</v>
+      </c>
+      <c r="B285">
+        <v>0</v>
+      </c>
+      <c r="C285">
+        <f>(Sheet1!G286-Sheet1!G285)/100</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="D285">
+        <v>-2.0833333333326702E-6</v>
+      </c>
+      <c r="E285">
+        <v>0.106639510259967</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A286" s="1">
+        <f>EOMONTH(DATE(Sheet1!B287,Sheet1!A287,1),0)</f>
+        <v>37164</v>
+      </c>
+      <c r="B286">
+        <v>0</v>
+      </c>
+      <c r="C286">
+        <f>(Sheet1!G287-Sheet1!G286)/100</f>
+        <v>9.9999999999999655E-4</v>
+      </c>
+      <c r="D286">
+        <v>5.9166666666666699E-4</v>
+      </c>
+      <c r="E286">
+        <v>0.131884269718267</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A287" s="1">
+        <f>EOMONTH(DATE(Sheet1!B288,Sheet1!A288,1),0)</f>
+        <v>37195</v>
+      </c>
+      <c r="B287">
+        <v>0</v>
+      </c>
+      <c r="C287">
+        <f>(Sheet1!G288-Sheet1!G287)/100</f>
+        <v>-1.7999999999999999E-2</v>
+      </c>
+      <c r="D287">
+        <v>1.24999999999999E-4</v>
+      </c>
+      <c r="E287">
+        <v>0.12569286991941001</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A288" s="1">
+        <f>EOMONTH(DATE(Sheet1!B289,Sheet1!A289,1),0)</f>
+        <v>37225</v>
+      </c>
+      <c r="B288">
+        <v>0</v>
+      </c>
+      <c r="C288">
+        <f>(Sheet1!G289-Sheet1!G288)/100</f>
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="D288">
+        <v>-1.8233333333333402E-5</v>
+      </c>
+      <c r="E288">
+        <v>0.114077439187231</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A289" s="1">
+        <f>EOMONTH(DATE(Sheet1!B290,Sheet1!A290,1),0)</f>
+        <v>37256</v>
+      </c>
+      <c r="B289">
+        <v>0</v>
+      </c>
+      <c r="C289">
+        <f>(Sheet1!G290-Sheet1!G289)/100</f>
+        <v>1.3999999999999999E-2</v>
+      </c>
+      <c r="D289">
+        <v>-1.09375E-4</v>
+      </c>
+      <c r="E289">
+        <v>0.10574555304144199</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A290" s="1">
+        <f>EOMONTH(DATE(Sheet1!B291,Sheet1!A291,1),0)</f>
+        <v>37287</v>
+      </c>
+      <c r="B290">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="C290">
+        <f>(Sheet1!G291-Sheet1!G290)/100</f>
+        <v>9.9999999999999872E-4</v>
+      </c>
+      <c r="D290">
+        <v>-1.41666666666666E-4</v>
+      </c>
+      <c r="E290">
+        <v>0.102462586557986</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A291" s="1">
+        <f>EOMONTH(DATE(Sheet1!B292,Sheet1!A292,1),0)</f>
+        <v>37315</v>
+      </c>
+      <c r="B291">
+        <v>0</v>
+      </c>
+      <c r="C291">
+        <f>(Sheet1!G292-Sheet1!G291)/100</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="D291">
+        <v>-1.41666666666666E-4</v>
+      </c>
+      <c r="E291">
+        <v>0.10488351617435</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A292" s="1">
+        <f>EOMONTH(DATE(Sheet1!B293,Sheet1!A293,1),0)</f>
+        <v>37346</v>
+      </c>
+      <c r="B292">
+        <v>0</v>
+      </c>
+      <c r="C292">
+        <f>(Sheet1!G293-Sheet1!G292)/100</f>
+        <v>6.000000000000001E-3</v>
+      </c>
+      <c r="D292">
+        <v>-2.2499999999999899E-4</v>
+      </c>
+      <c r="E292">
+        <v>0.10115551959111201</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A293" s="1">
+        <f>EOMONTH(DATE(Sheet1!B294,Sheet1!A294,1),0)</f>
+        <v>37376</v>
+      </c>
+      <c r="B293">
+        <v>0</v>
+      </c>
+      <c r="C293">
+        <f>(Sheet1!G294-Sheet1!G293)/100</f>
+        <v>9.9999999999999655E-4</v>
+      </c>
+      <c r="D293">
+        <v>-1.3333333333333201E-4</v>
+      </c>
+      <c r="E293">
+        <v>0.100250887234323</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A294" s="1">
+        <f>EOMONTH(DATE(Sheet1!B295,Sheet1!A295,1),0)</f>
+        <v>37407</v>
+      </c>
+      <c r="B294">
+        <v>0</v>
+      </c>
+      <c r="C294">
+        <f>(Sheet1!G295-Sheet1!G294)/100</f>
+        <v>-9.9999999999999655E-4</v>
+      </c>
+      <c r="D294">
+        <v>-1.3020833333333301E-4</v>
+      </c>
+      <c r="E294">
+        <v>0.10659605800670501</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A295" s="1">
+        <f>EOMONTH(DATE(Sheet1!B296,Sheet1!A296,1),0)</f>
+        <v>37437</v>
+      </c>
+      <c r="B295">
+        <v>0</v>
+      </c>
+      <c r="C295">
+        <f>(Sheet1!G296-Sheet1!G295)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D295">
+        <v>-1.24999999999999E-4</v>
+      </c>
+      <c r="E295">
+        <v>0.11162484445062699</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A296" s="1">
+        <f>EOMONTH(DATE(Sheet1!B297,Sheet1!A297,1),0)</f>
+        <v>37468</v>
+      </c>
+      <c r="B296">
+        <v>0</v>
+      </c>
+      <c r="C296">
+        <f>(Sheet1!G297-Sheet1!G296)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D296">
+        <v>-1.2812500000000001E-4</v>
+      </c>
+      <c r="E296">
+        <v>0.16164262916902</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A297" s="1">
+        <f>EOMONTH(DATE(Sheet1!B298,Sheet1!A298,1),0)</f>
+        <v>37499</v>
+      </c>
+      <c r="B297">
+        <v>0</v>
+      </c>
+      <c r="C297">
+        <f>(Sheet1!G298-Sheet1!G297)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D297">
+        <v>-1.0520833333333299E-4</v>
+      </c>
+      <c r="E297">
+        <v>0.15971584927740801</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A298" s="1">
+        <f>EOMONTH(DATE(Sheet1!B299,Sheet1!A299,1),0)</f>
+        <v>37529</v>
+      </c>
+      <c r="B298">
+        <v>0</v>
+      </c>
+      <c r="C298">
+        <f>(Sheet1!G299-Sheet1!G298)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D298">
+        <v>-1.08333333333333E-4</v>
+      </c>
+      <c r="E298">
+        <v>0.15582369134650201</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A299" s="1">
+        <f>EOMONTH(DATE(Sheet1!B300,Sheet1!A300,1),0)</f>
+        <v>37560</v>
+      </c>
+      <c r="B299">
+        <v>0</v>
+      </c>
+      <c r="C299">
+        <f>(Sheet1!G300-Sheet1!G299)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D299">
+        <v>-1.2187499999999999E-4</v>
+      </c>
+      <c r="E299">
+        <v>0.163416355935007</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A300" s="1">
+        <f>EOMONTH(DATE(Sheet1!B301,Sheet1!A301,1),0)</f>
+        <v>37590</v>
+      </c>
+      <c r="B300">
+        <v>0</v>
+      </c>
+      <c r="C300">
+        <f>(Sheet1!G301-Sheet1!G300)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D300">
+        <v>-4.1666666666666398E-6</v>
+      </c>
+      <c r="E300">
+        <v>0.149226492690063</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A301" s="1">
+        <f>EOMONTH(DATE(Sheet1!B302,Sheet1!A302,1),0)</f>
+        <v>37621</v>
+      </c>
+      <c r="B301">
+        <v>0</v>
+      </c>
+      <c r="C301">
+        <f>(Sheet1!G302-Sheet1!G301)/100</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="D301">
+        <v>-1.4999999999999901E-4</v>
+      </c>
+      <c r="E301">
+        <v>0.13071562257205299</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A302" s="1">
+        <f>EOMONTH(DATE(Sheet1!B303,Sheet1!A303,1),0)</f>
+        <v>37652</v>
+      </c>
+      <c r="B302">
+        <v>1.119</v>
+      </c>
+      <c r="C302">
+        <f>(Sheet1!G303-Sheet1!G302)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D302">
+        <v>-1.25E-4</v>
+      </c>
+      <c r="E302">
+        <v>0.127782332092363</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A303" s="1">
+        <f>EOMONTH(DATE(Sheet1!B304,Sheet1!A304,1),0)</f>
+        <v>37680</v>
+      </c>
+      <c r="B303">
+        <v>0</v>
+      </c>
+      <c r="C303">
+        <f>(Sheet1!G304-Sheet1!G303)/100</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="D303">
+        <v>-1.4999999999999999E-4</v>
+      </c>
+      <c r="E303">
+        <v>0.119146435182604</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A304" s="1">
+        <f>EOMONTH(DATE(Sheet1!B305,Sheet1!A305,1),0)</f>
+        <v>37711</v>
+      </c>
+      <c r="B304">
+        <v>0</v>
+      </c>
+      <c r="C304">
+        <f>(Sheet1!G305-Sheet1!G304)/100</f>
+        <v>3.9999999999999992E-3</v>
+      </c>
+      <c r="D304">
+        <v>-8.2291666666666494E-5</v>
+      </c>
+      <c r="E304">
+        <v>0.12651133571447001</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A305" s="1">
+        <f>EOMONTH(DATE(Sheet1!B306,Sheet1!A306,1),0)</f>
+        <v>37741</v>
+      </c>
+      <c r="B305">
+        <v>0</v>
+      </c>
+      <c r="C305">
+        <f>(Sheet1!G306-Sheet1!G305)/100</f>
+        <v>-7.0000000000000019E-3</v>
+      </c>
+      <c r="D305">
+        <v>-1.58333333333333E-4</v>
+      </c>
+      <c r="E305">
+        <v>0.11899702083548599</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A306" s="1">
+        <f>EOMONTH(DATE(Sheet1!B307,Sheet1!A307,1),0)</f>
+        <v>37772</v>
+      </c>
+      <c r="B306">
+        <v>0</v>
+      </c>
+      <c r="C306">
+        <f>(Sheet1!G307-Sheet1!G306)/100</f>
+        <v>-3.9999999999999992E-3</v>
+      </c>
+      <c r="D306">
+        <v>-1.41666666666666E-4</v>
+      </c>
+      <c r="E306">
+        <v>0.109043570430089</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A307" s="1">
+        <f>EOMONTH(DATE(Sheet1!B308,Sheet1!A308,1),0)</f>
+        <v>37802</v>
+      </c>
+      <c r="B307">
+        <v>0</v>
+      </c>
+      <c r="C307">
+        <f>(Sheet1!G308-Sheet1!G307)/100</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="D307">
+        <v>-2.1874999999999702E-5</v>
+      </c>
+      <c r="E307">
+        <v>0.105584621198672</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A308" s="1">
+        <f>EOMONTH(DATE(Sheet1!B309,Sheet1!A309,1),0)</f>
+        <v>37833</v>
+      </c>
+      <c r="B308">
+        <v>0</v>
+      </c>
+      <c r="C308">
+        <f>(Sheet1!G309-Sheet1!G308)/100</f>
+        <v>-4.000000000000001E-3</v>
+      </c>
+      <c r="D308">
+        <v>-1.8698333333333299E-4</v>
+      </c>
+      <c r="E308">
+        <v>0.100745560489004</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A309" s="1">
+        <f>EOMONTH(DATE(Sheet1!B310,Sheet1!A310,1),0)</f>
+        <v>37864</v>
+      </c>
+      <c r="B309">
+        <v>0</v>
+      </c>
+      <c r="C309">
+        <f>(Sheet1!G310-Sheet1!G309)/100</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D309">
+        <v>-1.6666666666666601E-4</v>
+      </c>
+      <c r="E309">
+        <v>9.3092502144945799E-2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A310" s="1">
+        <f>EOMONTH(DATE(Sheet1!B311,Sheet1!A311,1),0)</f>
+        <v>37894</v>
+      </c>
+      <c r="B310">
+        <v>0</v>
+      </c>
+      <c r="C310">
+        <f>(Sheet1!G311-Sheet1!G310)/100</f>
+        <v>2.9999999999999983E-3</v>
+      </c>
+      <c r="D310">
+        <v>-1.6666666666666601E-4</v>
+      </c>
+      <c r="E310">
+        <v>9.4481288182616793E-2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A311" s="1">
+        <f>EOMONTH(DATE(Sheet1!B312,Sheet1!A312,1),0)</f>
+        <v>37925</v>
+      </c>
+      <c r="B311">
+        <v>0</v>
+      </c>
+      <c r="C311">
+        <f>(Sheet1!G312-Sheet1!G311)/100</f>
+        <v>-1.9999999999999974E-3</v>
+      </c>
+      <c r="D311">
+        <v>-1.99483333333333E-4</v>
+      </c>
+      <c r="E311">
+        <v>9.1825901767134593E-2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A312" s="1">
+        <f>EOMONTH(DATE(Sheet1!B313,Sheet1!A313,1),0)</f>
+        <v>37955</v>
+      </c>
+      <c r="B312">
+        <v>0</v>
+      </c>
+      <c r="C312">
+        <f>(Sheet1!G313-Sheet1!G312)/100</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="D312">
+        <v>-1.9323333333333301E-4</v>
+      </c>
+      <c r="E312">
+        <v>8.9014027454607098E-2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A313" s="1">
+        <f>EOMONTH(DATE(Sheet1!B314,Sheet1!A314,1),0)</f>
+        <v>37986</v>
+      </c>
+      <c r="B313">
+        <v>0</v>
+      </c>
+      <c r="C313">
+        <f>(Sheet1!G314-Sheet1!G313)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D313">
+        <v>-2.0156666666666599E-4</v>
+      </c>
+      <c r="E313">
+        <v>8.5707098637462897E-2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A314" s="1">
+        <f>EOMONTH(DATE(Sheet1!B315,Sheet1!A315,1),0)</f>
+        <v>38017</v>
+      </c>
+      <c r="B314">
+        <v>0.93799999999999895</v>
+      </c>
+      <c r="C314">
+        <f>(Sheet1!G315-Sheet1!G314)/100</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="D314">
+        <v>-1.6666666666666601E-4</v>
+      </c>
+      <c r="E314">
+        <v>8.4049699042263101E-2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A315" s="1">
+        <f>EOMONTH(DATE(Sheet1!B316,Sheet1!A316,1),0)</f>
+        <v>38046</v>
+      </c>
+      <c r="B315">
+        <v>0</v>
+      </c>
+      <c r="C315">
+        <f>(Sheet1!G316-Sheet1!G315)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D315">
+        <v>-1.8333333333333301E-4</v>
+      </c>
+      <c r="E315">
+        <v>8.2487666438644899E-2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A316" s="1">
+        <f>EOMONTH(DATE(Sheet1!B317,Sheet1!A317,1),0)</f>
+        <v>38077</v>
+      </c>
+      <c r="B316">
+        <v>0</v>
+      </c>
+      <c r="C316">
+        <f>(Sheet1!G317-Sheet1!G316)/100</f>
+        <v>2.9999999999999983E-3</v>
+      </c>
+      <c r="D316">
+        <v>-1.41666666666666E-4</v>
+      </c>
+      <c r="E316">
+        <v>9.0652242885423895E-2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A317" s="1">
+        <f>EOMONTH(DATE(Sheet1!B318,Sheet1!A318,1),0)</f>
+        <v>38107</v>
+      </c>
+      <c r="B317">
+        <v>0</v>
+      </c>
+      <c r="C317">
+        <f>(Sheet1!G318-Sheet1!G317)/100</f>
+        <v>3.0000000000000027E-3</v>
+      </c>
+      <c r="D317">
+        <v>-2.0833333333333299E-4</v>
+      </c>
+      <c r="E317">
+        <v>9.0352312142434402E-2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A318" s="1">
+        <f>EOMONTH(DATE(Sheet1!B319,Sheet1!A319,1),0)</f>
+        <v>38138</v>
+      </c>
+      <c r="B318">
+        <v>0</v>
+      </c>
+      <c r="C318">
+        <f>(Sheet1!G319-Sheet1!G318)/100</f>
+        <v>9.9999999999999655E-4</v>
+      </c>
+      <c r="D318">
+        <v>-2.9583333333333301E-4</v>
+      </c>
+      <c r="E318">
+        <v>8.9309431146437496E-2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A319" s="1">
+        <f>EOMONTH(DATE(Sheet1!B320,Sheet1!A320,1),0)</f>
+        <v>38168</v>
+      </c>
+      <c r="B319">
+        <v>0</v>
+      </c>
+      <c r="C319">
+        <f>(Sheet1!G320-Sheet1!G319)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D319">
+        <v>-4.58333333333333E-4</v>
+      </c>
+      <c r="E319">
+        <v>8.5238118529309695E-2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A320" s="1">
+        <f>EOMONTH(DATE(Sheet1!B321,Sheet1!A321,1),0)</f>
+        <v>38199</v>
+      </c>
+      <c r="B320">
+        <v>0</v>
+      </c>
+      <c r="C320">
+        <f>(Sheet1!G321-Sheet1!G320)/100</f>
+        <v>-2.9999999999999983E-3</v>
+      </c>
+      <c r="D320">
+        <v>-3.2499999999999999E-4</v>
+      </c>
+      <c r="E320">
+        <v>8.4346188896115601E-2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A321" s="1">
+        <f>EOMONTH(DATE(Sheet1!B322,Sheet1!A322,1),0)</f>
+        <v>38230</v>
+      </c>
+      <c r="B321">
+        <v>0</v>
+      </c>
+      <c r="C321">
+        <f>(Sheet1!G322-Sheet1!G321)/100</f>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="D321">
+        <v>-3.16666666666666E-4</v>
+      </c>
+      <c r="E321">
+        <v>8.7107370489165795E-2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A322" s="1">
+        <f>EOMONTH(DATE(Sheet1!B323,Sheet1!A323,1),0)</f>
+        <v>38260</v>
+      </c>
+      <c r="B322">
+        <v>0</v>
+      </c>
+      <c r="C322">
+        <f>(Sheet1!G323-Sheet1!G322)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D322">
+        <v>-3.7499999999999898E-4</v>
+      </c>
+      <c r="E322">
+        <v>8.3917402341325803E-2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A323" s="1">
+        <f>EOMONTH(DATE(Sheet1!B324,Sheet1!A324,1),0)</f>
+        <v>38291</v>
+      </c>
+      <c r="B323">
+        <v>0</v>
+      </c>
+      <c r="C323">
+        <f>(Sheet1!G324-Sheet1!G323)/100</f>
+        <v>3.0000000000000027E-3</v>
+      </c>
+      <c r="D323">
+        <v>-4.0833333333333298E-4</v>
+      </c>
+      <c r="E323">
+        <v>8.5175191331067601E-2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A324" s="1">
+        <f>EOMONTH(DATE(Sheet1!B325,Sheet1!A325,1),0)</f>
+        <v>38321</v>
+      </c>
+      <c r="B324">
+        <v>0</v>
+      </c>
+      <c r="C324">
+        <f>(Sheet1!G325-Sheet1!G324)/100</f>
+        <v>-3.0000000000000027E-3</v>
+      </c>
+      <c r="D324">
+        <v>-4.4999999999999999E-4</v>
+      </c>
+      <c r="E324">
+        <v>8.2483217049004895E-2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A325" s="1">
+        <f>EOMONTH(DATE(Sheet1!B326,Sheet1!A326,1),0)</f>
+        <v>38352</v>
+      </c>
+      <c r="B325">
+        <v>0</v>
+      </c>
+      <c r="C325">
+        <f>(Sheet1!G326-Sheet1!G325)/100</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="D325">
+        <v>-3.1198333333333299E-4</v>
+      </c>
+      <c r="E325">
+        <v>8.0186238850652902E-2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A326" s="1">
+        <f>EOMONTH(DATE(Sheet1!B327,Sheet1!A327,1),0)</f>
+        <v>38383</v>
+      </c>
+      <c r="B326">
+        <v>-0.28599999999999998</v>
+      </c>
+      <c r="C326">
+        <f>(Sheet1!G327-Sheet1!G326)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D326">
+        <v>-4.7499999999999902E-4</v>
+      </c>
+      <c r="E326">
+        <v>8.0723169853535504E-2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A327" s="1">
+        <f>EOMONTH(DATE(Sheet1!B328,Sheet1!A328,1),0)</f>
+        <v>38411</v>
+      </c>
+      <c r="B327">
+        <v>0</v>
+      </c>
+      <c r="C327">
+        <f>(Sheet1!G328-Sheet1!G327)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D327">
+        <v>-3.6666666666666602E-4</v>
+      </c>
+      <c r="E327">
+        <v>8.1820480745135205E-2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A328" s="1">
+        <f>EOMONTH(DATE(Sheet1!B329,Sheet1!A329,1),0)</f>
+        <v>38442</v>
+      </c>
+      <c r="B328">
+        <v>0</v>
+      </c>
+      <c r="C328">
+        <f>(Sheet1!G329-Sheet1!G328)/100</f>
+        <v>3.0000000000000027E-3</v>
+      </c>
+      <c r="D328">
+        <v>-3.33333333333333E-4</v>
+      </c>
+      <c r="E328">
+        <v>8.1349073407736797E-2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A329" s="1">
+        <f>EOMONTH(DATE(Sheet1!B330,Sheet1!A330,1),0)</f>
+        <v>38472</v>
+      </c>
+      <c r="B329">
+        <v>0</v>
+      </c>
+      <c r="C329">
+        <f>(Sheet1!G330-Sheet1!G329)/100</f>
+        <v>9.9999999999999655E-4</v>
+      </c>
+      <c r="D329">
+        <v>-3.9999999999999899E-4</v>
+      </c>
+      <c r="E329">
+        <v>8.8067863057394696E-2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A330" s="1">
+        <f>EOMONTH(DATE(Sheet1!B331,Sheet1!A331,1),0)</f>
+        <v>38503</v>
+      </c>
+      <c r="B330">
+        <v>0</v>
+      </c>
+      <c r="C330">
+        <f>(Sheet1!G331-Sheet1!G330)/100</f>
+        <v>-9.9999999999999655E-4</v>
+      </c>
+      <c r="D330">
+        <v>-4.1458333333333299E-4</v>
+      </c>
+      <c r="E330">
+        <v>8.5537979925950205E-2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A331" s="1">
+        <f>EOMONTH(DATE(Sheet1!B332,Sheet1!A332,1),0)</f>
+        <v>38533</v>
+      </c>
+      <c r="B331">
+        <v>0</v>
+      </c>
+      <c r="C331">
+        <f>(Sheet1!G332-Sheet1!G331)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D331">
+        <v>-4.8854166666666599E-4</v>
+      </c>
+      <c r="E331">
+        <v>8.1356953846940999E-2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A332" s="1">
+        <f>EOMONTH(DATE(Sheet1!B333,Sheet1!A333,1),0)</f>
+        <v>38564</v>
+      </c>
+      <c r="B332">
+        <v>0</v>
+      </c>
+      <c r="C332">
+        <f>(Sheet1!G333-Sheet1!G332)/100</f>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="D332">
+        <v>-5.3333333333333401E-4</v>
+      </c>
+      <c r="E332">
+        <v>8.0044664248232394E-2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A333" s="1">
+        <f>EOMONTH(DATE(Sheet1!B334,Sheet1!A334,1),0)</f>
+        <v>38595</v>
+      </c>
+      <c r="B333">
+        <v>0</v>
+      </c>
+      <c r="C333">
+        <f>(Sheet1!G334-Sheet1!G333)/100</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="D333">
+        <v>-4.4166666666666698E-4</v>
+      </c>
+      <c r="E333">
+        <v>7.8838016766732799E-2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A334" s="1">
+        <f>EOMONTH(DATE(Sheet1!B335,Sheet1!A335,1),0)</f>
+        <v>38625</v>
+      </c>
+      <c r="B334">
+        <v>0</v>
+      </c>
+      <c r="C334">
+        <f>(Sheet1!G335-Sheet1!G334)/100</f>
+        <v>1.1999999999999997E-2</v>
+      </c>
+      <c r="D334">
+        <v>-5.2083333333333398E-4</v>
+      </c>
+      <c r="E334">
+        <v>7.8991583491939896E-2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A335" s="1">
+        <f>EOMONTH(DATE(Sheet1!B336,Sheet1!A336,1),0)</f>
+        <v>38656</v>
+      </c>
+      <c r="B335">
+        <v>0</v>
+      </c>
+      <c r="C335">
+        <f>(Sheet1!G336-Sheet1!G335)/100</f>
+        <v>2.9999999999999983E-3</v>
+      </c>
+      <c r="D335">
+        <v>-6.5833333333333195E-4</v>
+      </c>
+      <c r="E335">
+        <v>8.8856840840544002E-2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A336" s="1">
+        <f>EOMONTH(DATE(Sheet1!B337,Sheet1!A337,1),0)</f>
+        <v>38686</v>
+      </c>
+      <c r="B336">
+        <v>0</v>
+      </c>
+      <c r="C336">
+        <f>(Sheet1!G337-Sheet1!G336)/100</f>
+        <v>-1.2999999999999998E-2</v>
+      </c>
+      <c r="D336">
+        <v>-4.41666666666666E-4</v>
+      </c>
+      <c r="E336">
+        <v>8.4197904228001094E-2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A337" s="1">
+        <f>EOMONTH(DATE(Sheet1!B338,Sheet1!A338,1),0)</f>
+        <v>38717</v>
+      </c>
+      <c r="B337">
+        <v>0</v>
+      </c>
+      <c r="C337">
+        <f>(Sheet1!G338-Sheet1!G337)/100</f>
+        <v>-1.9999999999999974E-3</v>
+      </c>
+      <c r="D337">
+        <v>-5.6354166666666597E-4</v>
+      </c>
+      <c r="E337">
+        <v>8.0220544619908907E-2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A338" s="1">
+        <f>EOMONTH(DATE(Sheet1!B339,Sheet1!A339,1),0)</f>
+        <v>38748</v>
+      </c>
+      <c r="B338">
+        <v>-0.65799999999999903</v>
+      </c>
+      <c r="C338">
+        <f>(Sheet1!G339-Sheet1!G338)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D338">
+        <v>-5.7499999999999901E-4</v>
+      </c>
+      <c r="E338">
+        <v>8.1472157181483304E-2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A339" s="1">
+        <f>EOMONTH(DATE(Sheet1!B340,Sheet1!A340,1),0)</f>
+        <v>38776</v>
+      </c>
+      <c r="B339">
+        <v>0</v>
+      </c>
+      <c r="C339">
+        <f>(Sheet1!G340-Sheet1!G339)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D339">
+        <v>-3.7708333333333197E-4</v>
+      </c>
+      <c r="E339">
+        <v>7.9455567282209399E-2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A340" s="1">
+        <f>EOMONTH(DATE(Sheet1!B341,Sheet1!A341,1),0)</f>
+        <v>38807</v>
+      </c>
+      <c r="B340">
+        <v>0</v>
+      </c>
+      <c r="C340">
+        <f>(Sheet1!G341-Sheet1!G340)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D340">
+        <v>-4.0833333333333298E-4</v>
+      </c>
+      <c r="E340">
+        <v>7.8706588574085801E-2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A341" s="1">
+        <f>EOMONTH(DATE(Sheet1!B342,Sheet1!A342,1),0)</f>
+        <v>38837</v>
+      </c>
+      <c r="B341">
+        <v>0</v>
+      </c>
+      <c r="C341">
+        <f>(Sheet1!G342-Sheet1!G341)/100</f>
+        <v>2.9999999999999983E-3</v>
+      </c>
+      <c r="D341">
+        <v>-5.0833333333333297E-4</v>
+      </c>
+      <c r="E341">
+        <v>7.84649943556609E-2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A342" s="1">
+        <f>EOMONTH(DATE(Sheet1!B343,Sheet1!A343,1),0)</f>
+        <v>38868</v>
+      </c>
+      <c r="B342">
+        <v>0</v>
+      </c>
+      <c r="C342">
+        <f>(Sheet1!G343-Sheet1!G342)/100</f>
+        <v>7.0000000000000019E-3</v>
+      </c>
+      <c r="D342">
+        <v>-4.9010833333333202E-4</v>
+      </c>
+      <c r="E342">
+        <v>8.4692037344469201E-2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A343" s="1">
+        <f>EOMONTH(DATE(Sheet1!B344,Sheet1!A344,1),0)</f>
+        <v>38898</v>
+      </c>
+      <c r="B343">
+        <v>0</v>
+      </c>
+      <c r="C343">
+        <f>(Sheet1!G344-Sheet1!G343)/100</f>
+        <v>-7.0000000000000019E-3</v>
+      </c>
+      <c r="D343">
+        <v>-6.17191666666666E-4</v>
+      </c>
+      <c r="E343">
+        <v>9.5526176501377402E-2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A344" s="1">
+        <f>EOMONTH(DATE(Sheet1!B345,Sheet1!A345,1),0)</f>
+        <v>38929</v>
+      </c>
+      <c r="B344">
+        <v>0</v>
+      </c>
+      <c r="C344">
+        <f>(Sheet1!G345-Sheet1!G344)/100</f>
+        <v>-9.9999999999999655E-4</v>
+      </c>
+      <c r="D344">
+        <v>-4.9635833333333199E-4</v>
+      </c>
+      <c r="E344">
+        <v>9.65711505337844E-2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A345" s="1">
+        <f>EOMONTH(DATE(Sheet1!B346,Sheet1!A346,1),0)</f>
+        <v>38960</v>
+      </c>
+      <c r="B345">
+        <v>0</v>
+      </c>
+      <c r="C345">
+        <f>(Sheet1!G346-Sheet1!G345)/100</f>
+        <v>5.9999999999999967E-3</v>
+      </c>
+      <c r="D345">
+        <v>-3.5624999999999801E-4</v>
+      </c>
+      <c r="E345">
+        <v>8.7617356554685999E-2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A346" s="1">
+        <f>EOMONTH(DATE(Sheet1!B347,Sheet1!A347,1),0)</f>
+        <v>38990</v>
+      </c>
+      <c r="B346">
+        <v>0</v>
+      </c>
+      <c r="C346">
+        <f>(Sheet1!G347-Sheet1!G346)/100</f>
+        <v>-6.9999999999999975E-3</v>
+      </c>
+      <c r="D346">
+        <v>-3.7499999999999898E-4</v>
+      </c>
+      <c r="E346">
+        <v>8.3114742823110196E-2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A347" s="1">
+        <f>EOMONTH(DATE(Sheet1!B348,Sheet1!A348,1),0)</f>
+        <v>39021</v>
+      </c>
+      <c r="B347">
+        <v>0</v>
+      </c>
+      <c r="C347">
+        <f>(Sheet1!G348-Sheet1!G347)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D347">
+        <v>-5.0052499999999895E-4</v>
+      </c>
+      <c r="E347">
+        <v>8.0092300463037405E-2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A348" s="1">
+        <f>EOMONTH(DATE(Sheet1!B349,Sheet1!A349,1),0)</f>
+        <v>39051</v>
+      </c>
+      <c r="B348">
+        <v>0</v>
+      </c>
+      <c r="C348">
+        <f>(Sheet1!G349-Sheet1!G348)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D348">
+        <v>-3.4999999999999902E-4</v>
+      </c>
+      <c r="E348">
+        <v>7.9614472096134897E-2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A349" s="1">
+        <f>EOMONTH(DATE(Sheet1!B350,Sheet1!A350,1),0)</f>
+        <v>39082</v>
+      </c>
+      <c r="B349">
+        <v>0</v>
+      </c>
+      <c r="C349">
+        <f>(Sheet1!G350-Sheet1!G349)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D349">
+        <v>-3.8333333333333302E-4</v>
+      </c>
+      <c r="E349">
+        <v>7.6951365122766596E-2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A350" s="1">
+        <f>EOMONTH(DATE(Sheet1!B351,Sheet1!A351,1),0)</f>
+        <v>39113</v>
+      </c>
+      <c r="B350">
+        <v>-0.97899999999999998</v>
+      </c>
+      <c r="C350">
+        <f>(Sheet1!G351-Sheet1!G350)/100</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="D350">
+        <v>-3.9166666666666598E-4</v>
+      </c>
+      <c r="E350">
+        <v>7.6467835134711101E-2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A351" s="1">
+        <f>EOMONTH(DATE(Sheet1!B352,Sheet1!A352,1),0)</f>
+        <v>39141</v>
+      </c>
+      <c r="B351">
+        <v>0</v>
+      </c>
+      <c r="C351">
+        <f>(Sheet1!G352-Sheet1!G351)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D351">
+        <v>-2.98441666666667E-4</v>
+      </c>
+      <c r="E351">
+        <v>8.5994642000467206E-2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A352" s="1">
+        <f>EOMONTH(DATE(Sheet1!B353,Sheet1!A353,1),0)</f>
+        <v>39172</v>
+      </c>
+      <c r="B352">
+        <v>0</v>
+      </c>
+      <c r="C352">
+        <f>(Sheet1!G353-Sheet1!G352)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D352">
+        <v>-2.8333333333333297E-4</v>
+      </c>
+      <c r="E352">
+        <v>8.9186063404345706E-2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A353" s="1">
+        <f>EOMONTH(DATE(Sheet1!B354,Sheet1!A354,1),0)</f>
+        <v>39202</v>
+      </c>
+      <c r="B353">
+        <v>0</v>
+      </c>
+      <c r="C353">
+        <f>(Sheet1!G354-Sheet1!G353)/100</f>
+        <v>2.9999999999999983E-3</v>
+      </c>
+      <c r="D353">
+        <v>-3.7916666666666697E-4</v>
+      </c>
+      <c r="E353">
+        <v>8.3609978149000799E-2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A354" s="1">
+        <f>EOMONTH(DATE(Sheet1!B355,Sheet1!A355,1),0)</f>
+        <v>39233</v>
+      </c>
+      <c r="B354">
+        <v>0</v>
+      </c>
+      <c r="C354">
+        <f>(Sheet1!G355-Sheet1!G354)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D354">
+        <v>-4.7499999999999902E-4</v>
+      </c>
+      <c r="E354">
+        <v>8.23242829181806E-2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A355" s="1">
+        <f>EOMONTH(DATE(Sheet1!B356,Sheet1!A356,1),0)</f>
+        <v>39263</v>
+      </c>
+      <c r="B355">
+        <v>0</v>
+      </c>
+      <c r="C355">
+        <f>(Sheet1!G356-Sheet1!G355)/100</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="D355">
+        <v>-6.3333333333333297E-4</v>
+      </c>
+      <c r="E355">
+        <v>8.6310168987864699E-2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A356" s="1">
+        <f>EOMONTH(DATE(Sheet1!B357,Sheet1!A357,1),0)</f>
+        <v>39294</v>
+      </c>
+      <c r="B356">
+        <v>0</v>
+      </c>
+      <c r="C356">
+        <f>(Sheet1!G357-Sheet1!G356)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D356">
+        <v>-5.6554999999999995E-4</v>
+      </c>
+      <c r="E356">
+        <v>9.4627000152980603E-2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A357" s="1">
+        <f>EOMONTH(DATE(Sheet1!B358,Sheet1!A358,1),0)</f>
+        <v>39325</v>
+      </c>
+      <c r="B357">
+        <v>0</v>
+      </c>
+      <c r="C357">
+        <f>(Sheet1!G358-Sheet1!G357)/100</f>
+        <v>-1.9999999999999974E-3</v>
+      </c>
+      <c r="D357">
+        <v>-6.6770833333333298E-4</v>
+      </c>
+      <c r="E357">
+        <v>0.111663459619033</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A358" s="1">
+        <f>EOMONTH(DATE(Sheet1!B359,Sheet1!A359,1),0)</f>
+        <v>39355</v>
+      </c>
+      <c r="B358">
+        <v>0</v>
+      </c>
+      <c r="C358">
+        <f>(Sheet1!G359-Sheet1!G358)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D358">
+        <v>-1.09895833333333E-3</v>
+      </c>
+      <c r="E358">
+        <v>0.106567103461679</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A359" s="1">
+        <f>EOMONTH(DATE(Sheet1!B360,Sheet1!A360,1),0)</f>
+        <v>39386</v>
+      </c>
+      <c r="B359">
+        <v>0</v>
+      </c>
+      <c r="C359">
+        <f>(Sheet1!G360-Sheet1!G359)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D359">
+        <v>-9.7812499999999896E-4</v>
+      </c>
+      <c r="E359">
+        <v>0.100431735529523</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A360" s="1">
+        <f>EOMONTH(DATE(Sheet1!B361,Sheet1!A361,1),0)</f>
+        <v>39416</v>
+      </c>
+      <c r="B360">
+        <v>0</v>
+      </c>
+      <c r="C360">
+        <f>(Sheet1!G361-Sheet1!G360)/100</f>
+        <v>2.9999999999999983E-3</v>
+      </c>
+      <c r="D360">
+        <v>-1.07604166666666E-3</v>
+      </c>
+      <c r="E360">
+        <v>0.1188933720026</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A361" s="1">
+        <f>EOMONTH(DATE(Sheet1!B362,Sheet1!A362,1),0)</f>
+        <v>39447</v>
+      </c>
+      <c r="B361">
+        <v>0</v>
+      </c>
+      <c r="C361">
+        <f>(Sheet1!G362-Sheet1!G361)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D361">
+        <v>-1.3520833333333299E-3</v>
+      </c>
+      <c r="E361">
+        <v>0.11279773536714401</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A362" s="1">
+        <f>EOMONTH(DATE(Sheet1!B363,Sheet1!A363,1),0)</f>
+        <v>39478</v>
+      </c>
+      <c r="B362">
+        <v>-2.0129999999999999</v>
+      </c>
+      <c r="C362">
+        <f>(Sheet1!G363-Sheet1!G362)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D362">
+        <v>1.48433333333332E-4</v>
+      </c>
+      <c r="E362">
+        <v>0.11836421867659</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A363" s="1">
+        <f>EOMONTH(DATE(Sheet1!B364,Sheet1!A364,1),0)</f>
+        <v>39507</v>
+      </c>
+      <c r="B363">
+        <v>0</v>
+      </c>
+      <c r="C363">
+        <f>(Sheet1!G364-Sheet1!G363)/100</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="D363">
+        <v>-9.4791666666666603E-4</v>
+      </c>
+      <c r="E363">
+        <v>0.113396587551874</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A364" s="1">
+        <f>EOMONTH(DATE(Sheet1!B365,Sheet1!A365,1),0)</f>
+        <v>39538</v>
+      </c>
+      <c r="B364">
+        <v>0</v>
+      </c>
+      <c r="C364">
+        <f>(Sheet1!G365-Sheet1!G364)/100</f>
+        <v>6.9999999999999975E-3</v>
+      </c>
+      <c r="D364">
+        <v>-7.3177499999999896E-4</v>
+      </c>
+      <c r="E364">
+        <v>0.132083186461597</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A365" s="1">
+        <f>EOMONTH(DATE(Sheet1!B366,Sheet1!A366,1),0)</f>
+        <v>39568</v>
+      </c>
+      <c r="B365">
+        <v>0</v>
+      </c>
+      <c r="C365">
+        <f>(Sheet1!G366-Sheet1!G365)/100</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D365">
+        <v>-1.24166666666666E-3</v>
+      </c>
+      <c r="E365">
+        <v>0.120549285443574</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A366" s="1">
+        <f>EOMONTH(DATE(Sheet1!B367,Sheet1!A367,1),0)</f>
+        <v>39599</v>
+      </c>
+      <c r="B366">
+        <v>0</v>
+      </c>
+      <c r="C366">
+        <f>(Sheet1!G367-Sheet1!G366)/100</f>
+        <v>4.0000000000000036E-3</v>
+      </c>
+      <c r="D366">
+        <v>-1.0588583333333301E-3</v>
+      </c>
+      <c r="E366">
+        <v>0.107520739785465</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A367" s="1">
+        <f>EOMONTH(DATE(Sheet1!B368,Sheet1!A368,1),0)</f>
+        <v>39629</v>
+      </c>
+      <c r="B367">
+        <v>0</v>
+      </c>
+      <c r="C367">
+        <f>(Sheet1!G368-Sheet1!G367)/100</f>
+        <v>-1.0000000000000052E-3</v>
+      </c>
+      <c r="D367">
+        <v>-7.7760833333333299E-4</v>
+      </c>
+      <c r="E367">
+        <v>0.110039103981745</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A368" s="1">
+        <f>EOMONTH(DATE(Sheet1!B369,Sheet1!A369,1),0)</f>
+        <v>39660</v>
+      </c>
+      <c r="B368">
+        <v>0</v>
+      </c>
+      <c r="C368">
+        <f>(Sheet1!G369-Sheet1!G368)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D368">
+        <v>-7.6770833333333302E-4</v>
+      </c>
+      <c r="E368">
+        <v>0.116196627806793</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A369" s="1">
+        <f>EOMONTH(DATE(Sheet1!B370,Sheet1!A370,1),0)</f>
+        <v>39691</v>
+      </c>
+      <c r="B369">
+        <v>0</v>
+      </c>
+      <c r="C369">
+        <f>(Sheet1!G370-Sheet1!G369)/100</f>
+        <v>-2.9999999999999983E-3</v>
+      </c>
+      <c r="D369">
+        <v>-9.6719166666666605E-4</v>
+      </c>
+      <c r="E369">
+        <v>0.113809736819563</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A370" s="1">
+        <f>EOMONTH(DATE(Sheet1!B371,Sheet1!A371,1),0)</f>
+        <v>39721</v>
+      </c>
+      <c r="B370">
+        <v>0</v>
+      </c>
+      <c r="C370">
+        <f>(Sheet1!G371-Sheet1!G370)/100</f>
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="D370">
+        <v>-1.96875E-3</v>
+      </c>
+      <c r="E370">
+        <v>0.18924104850679599</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A371" s="1">
+        <f>EOMONTH(DATE(Sheet1!B372,Sheet1!A372,1),0)</f>
+        <v>39752</v>
+      </c>
+      <c r="B371">
+        <v>0</v>
+      </c>
+      <c r="C371">
+        <f>(Sheet1!G372-Sheet1!G371)/100</f>
+        <v>-3.9999999999999992E-3</v>
+      </c>
+      <c r="D371">
+        <v>-1.771875E-3</v>
+      </c>
+      <c r="E371">
+        <v>0.29776632948028098</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A372" s="1">
+        <f>EOMONTH(DATE(Sheet1!B373,Sheet1!A373,1),0)</f>
+        <v>39782</v>
+      </c>
+      <c r="B372">
+        <v>0</v>
+      </c>
+      <c r="C372">
+        <f>(Sheet1!G373-Sheet1!G372)/100</f>
+        <v>-0.01</v>
+      </c>
+      <c r="D372">
+        <v>-1.48073333333333E-3</v>
+      </c>
+      <c r="E372">
+        <v>0.31557111629262502</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A373" s="1">
+        <f>EOMONTH(DATE(Sheet1!B374,Sheet1!A374,1),0)</f>
+        <v>39813</v>
+      </c>
+      <c r="B373">
+        <v>0</v>
+      </c>
+      <c r="C373">
+        <f>(Sheet1!G374-Sheet1!G373)/100</f>
+        <v>-1.2E-2</v>
+      </c>
+      <c r="D373">
+        <v>-1.17916666666666E-3</v>
+      </c>
+      <c r="E373">
+        <v>0.27584990278920801</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A374" s="1">
+        <f>EOMONTH(DATE(Sheet1!B375,Sheet1!A375,1),0)</f>
+        <v>39844</v>
+      </c>
+      <c r="B374">
+        <v>-2.4</v>
+      </c>
+      <c r="C374">
+        <f>(Sheet1!G375-Sheet1!G374)/100</f>
+        <v>5.0000000000000018E-3</v>
+      </c>
+      <c r="D374">
+        <v>-8.9531666666666605E-4</v>
+      </c>
+      <c r="E374">
+        <v>0.24360355198724001</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A375" s="1">
+        <f>EOMONTH(DATE(Sheet1!B376,Sheet1!A376,1),0)</f>
+        <v>39872</v>
+      </c>
+      <c r="B375">
+        <v>0</v>
+      </c>
+      <c r="C375">
+        <f>(Sheet1!G376-Sheet1!G375)/100</f>
+        <v>-3.0000000000000027E-3</v>
+      </c>
+      <c r="D375">
+        <v>-8.5364999999999996E-4</v>
+      </c>
+      <c r="E375">
+        <v>0.220129380607376</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A376" s="1">
+        <f>EOMONTH(DATE(Sheet1!B377,Sheet1!A377,1),0)</f>
+        <v>39903</v>
+      </c>
+      <c r="B376">
+        <v>0</v>
+      </c>
+      <c r="C376">
+        <f>(Sheet1!G377-Sheet1!G376)/100</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="D376">
+        <v>-7.7656666666666601E-4</v>
+      </c>
+      <c r="E376">
+        <v>0.23133793986155901</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A377" s="1">
+        <f>EOMONTH(DATE(Sheet1!B378,Sheet1!A378,1),0)</f>
+        <v>39933</v>
+      </c>
+      <c r="B377">
+        <v>0</v>
+      </c>
+      <c r="C377">
+        <f>(Sheet1!G378-Sheet1!G377)/100</f>
+        <v>7.9999999999999984E-3</v>
+      </c>
+      <c r="D377">
+        <v>-6.7187499999999995E-4</v>
+      </c>
+      <c r="E377">
+        <v>0.20399367473612201</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A378" s="1">
+        <f>EOMONTH(DATE(Sheet1!B379,Sheet1!A379,1),0)</f>
+        <v>39964</v>
+      </c>
+      <c r="B378">
+        <v>0</v>
+      </c>
+      <c r="C378">
+        <f>(Sheet1!G379-Sheet1!G378)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D378">
+        <v>-4.3020833333333301E-4</v>
+      </c>
+      <c r="E378">
+        <v>0.18381059914985301</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A379" s="1">
+        <f>EOMONTH(DATE(Sheet1!B380,Sheet1!A380,1),0)</f>
+        <v>39994</v>
+      </c>
+      <c r="B379">
+        <v>0</v>
+      </c>
+      <c r="C379">
+        <f>(Sheet1!G380-Sheet1!G379)/100</f>
+        <v>3.0000000000000027E-3</v>
+      </c>
+      <c r="D379">
+        <v>-3.79166666666666E-4</v>
+      </c>
+      <c r="E379">
+        <v>0.159818261283633</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A380" s="1">
+        <f>EOMONTH(DATE(Sheet1!B381,Sheet1!A381,1),0)</f>
+        <v>40025</v>
+      </c>
+      <c r="B380">
+        <v>0</v>
+      </c>
+      <c r="C380">
+        <f>(Sheet1!G381-Sheet1!G380)/100</f>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="D380">
+        <v>-2.4115000000000001E-4</v>
+      </c>
+      <c r="E380">
+        <v>0.14256701042571601</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A381" s="1">
+        <f>EOMONTH(DATE(Sheet1!B382,Sheet1!A382,1),0)</f>
+        <v>40056</v>
+      </c>
+      <c r="B381">
+        <v>0</v>
+      </c>
+      <c r="C381">
+        <f>(Sheet1!G382-Sheet1!G381)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D381">
+        <v>-1.39583333333333E-4</v>
+      </c>
+      <c r="E381">
+        <v>0.127415710035854</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A382" s="1">
+        <f>EOMONTH(DATE(Sheet1!B383,Sheet1!A383,1),0)</f>
+        <v>40086</v>
+      </c>
+      <c r="B382">
+        <v>0</v>
+      </c>
+      <c r="C382">
+        <f>(Sheet1!G383-Sheet1!G382)/100</f>
+        <v>-5.9999999999999967E-3</v>
+      </c>
+      <c r="D382">
+        <v>-1.1406666666666601E-4</v>
+      </c>
+      <c r="E382">
+        <v>0.116366168529867</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A383" s="1">
+        <f>EOMONTH(DATE(Sheet1!B384,Sheet1!A384,1),0)</f>
+        <v>40117</v>
+      </c>
+      <c r="B383">
+        <v>0</v>
+      </c>
+      <c r="C383">
+        <f>(Sheet1!G384-Sheet1!G383)/100</f>
+        <v>6.9999999999999975E-3</v>
+      </c>
+      <c r="D383">
+        <v>-1.17191666666666E-4</v>
+      </c>
+      <c r="E383">
+        <v>0.11787189014045001</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A384" s="1">
+        <f>EOMONTH(DATE(Sheet1!B385,Sheet1!A385,1),0)</f>
+        <v>40147</v>
+      </c>
+      <c r="B384">
+        <v>0</v>
+      </c>
+      <c r="C384">
+        <f>(Sheet1!G385-Sheet1!G384)/100</f>
+        <v>-1.9999999999999974E-3</v>
+      </c>
+      <c r="D384">
+        <v>-1.7213333333333301E-4</v>
+      </c>
+      <c r="E384">
+        <v>0.114633748027236</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A385" s="1">
+        <f>EOMONTH(DATE(Sheet1!B386,Sheet1!A386,1),0)</f>
+        <v>40178</v>
+      </c>
+      <c r="B385">
+        <v>0</v>
+      </c>
+      <c r="C385">
+        <f>(Sheet1!G386-Sheet1!G385)/100</f>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="D385">
+        <v>-1.58858333333333E-4</v>
+      </c>
+      <c r="E385">
+        <v>0.100640228378766</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A386" s="1">
+        <f>EOMONTH(DATE(Sheet1!B387,Sheet1!A387,1),0)</f>
+        <v>40209</v>
+      </c>
+      <c r="B386">
+        <v>5.101</v>
+      </c>
+      <c r="C386">
+        <f>(Sheet1!G387-Sheet1!G386)/100</f>
+        <v>2.9999999999999983E-3</v>
+      </c>
+      <c r="D386">
+        <v>-1.5755000000000001E-4</v>
+      </c>
+      <c r="E386">
+        <v>0.10083225365342</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A387" s="1">
+        <f>EOMONTH(DATE(Sheet1!B388,Sheet1!A388,1),0)</f>
+        <v>40237</v>
+      </c>
+      <c r="B387">
+        <v>0</v>
+      </c>
+      <c r="C387">
+        <f>(Sheet1!G388-Sheet1!G387)/100</f>
+        <v>-9.9999999999999655E-4</v>
+      </c>
+      <c r="D387">
+        <v>-1.4307499999999999E-4</v>
+      </c>
+      <c r="E387">
+        <v>0.103144648424752</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A388" s="1">
+        <f>EOMONTH(DATE(Sheet1!B389,Sheet1!A389,1),0)</f>
+        <v>40268</v>
+      </c>
+      <c r="B388">
+        <v>0</v>
+      </c>
+      <c r="C388">
+        <f>(Sheet1!G389-Sheet1!G388)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D388">
+        <v>-1.3458333333333299E-4</v>
+      </c>
+      <c r="E388">
+        <v>9.2676296194378602E-2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A389" s="1">
+        <f>EOMONTH(DATE(Sheet1!B390,Sheet1!A390,1),0)</f>
+        <v>40298</v>
+      </c>
+      <c r="B389">
+        <v>0</v>
+      </c>
+      <c r="C389">
+        <f>(Sheet1!G390-Sheet1!G389)/100</f>
+        <v>1.9999999999999974E-3</v>
+      </c>
+      <c r="D389">
+        <v>-1.5546666666666601E-4</v>
+      </c>
+      <c r="E389">
+        <v>9.41850878454948E-2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A390" s="1">
+        <f>EOMONTH(DATE(Sheet1!B391,Sheet1!A391,1),0)</f>
+        <v>40329</v>
+      </c>
+      <c r="B390">
+        <v>0</v>
+      </c>
+      <c r="C390">
+        <f>(Sheet1!G391-Sheet1!G390)/100</f>
+        <v>3.0000000000000027E-3</v>
+      </c>
+      <c r="D390">
+        <v>-3.1354166666666602E-4</v>
+      </c>
+      <c r="E390">
+        <v>0.13260800074868101</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A391" s="1">
+        <f>EOMONTH(DATE(Sheet1!B392,Sheet1!A392,1),0)</f>
+        <v>40359</v>
+      </c>
+      <c r="B391">
+        <v>0</v>
+      </c>
+      <c r="C391">
+        <f>(Sheet1!G392-Sheet1!G391)/100</f>
+        <v>-4.0000000000000036E-3</v>
+      </c>
+      <c r="D391">
+        <v>-3.1161666666666601E-4</v>
+      </c>
+      <c r="E391">
+        <v>0.13656352466334101</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A392" s="1">
+        <f>EOMONTH(DATE(Sheet1!B393,Sheet1!A393,1),0)</f>
+        <v>40390</v>
+      </c>
+      <c r="B392">
+        <v>0</v>
+      </c>
+      <c r="C392">
+        <f>(Sheet1!G393-Sheet1!G392)/100</f>
+        <v>-9.9999999999999655E-4</v>
+      </c>
+      <c r="D392">
+        <v>-2.28124999999999E-4</v>
+      </c>
+      <c r="E392">
+        <v>0.128711682117267</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A393" s="1">
+        <f>EOMONTH(DATE(Sheet1!B394,Sheet1!A394,1),0)</f>
+        <v>40421</v>
+      </c>
+      <c r="B393">
+        <v>0</v>
+      </c>
+      <c r="C393">
+        <f>(Sheet1!G394-Sheet1!G393)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D393">
+        <v>-1.2135833333333299E-4</v>
+      </c>
+      <c r="E393">
+        <v>0.12112460728869499</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A394" s="1">
+        <f>EOMONTH(DATE(Sheet1!B395,Sheet1!A395,1),0)</f>
+        <v>40451</v>
+      </c>
+      <c r="B394">
+        <v>0</v>
+      </c>
+      <c r="C394">
+        <f>(Sheet1!G395-Sheet1!G394)/100</f>
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="D394">
+        <v>-1.25E-4</v>
+      </c>
+      <c r="E394">
+        <v>0.112662087560671</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A395" s="1">
+        <f>EOMONTH(DATE(Sheet1!B396,Sheet1!A396,1),0)</f>
+        <v>40482</v>
+      </c>
+      <c r="B395">
+        <v>0</v>
+      </c>
+      <c r="C395">
+        <f>(Sheet1!G396-Sheet1!G395)/100</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D395">
+        <v>-1.0495E-4</v>
+      </c>
+      <c r="E395">
+        <v>0.102153632298758</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A396" s="1">
+        <f>EOMONTH(DATE(Sheet1!B397,Sheet1!A397,1),0)</f>
+        <v>40512</v>
+      </c>
+      <c r="B396">
+        <v>0</v>
+      </c>
+      <c r="C396">
+        <f>(Sheet1!G397-Sheet1!G396)/100</f>
+        <v>2.9999999999999983E-3</v>
+      </c>
+      <c r="D396">
+        <v>-1.5025833333333301E-4</v>
+      </c>
+      <c r="E396">
+        <v>9.9711059607908006E-2</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A397" s="1">
+        <f>EOMONTH(DATE(Sheet1!B398,Sheet1!A398,1),0)</f>
+        <v>40543</v>
+      </c>
+      <c r="B397">
+        <v>0</v>
+      </c>
+      <c r="C397">
+        <f>(Sheet1!G398-Sheet1!G397)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D397">
+        <v>-1.1067500000000001E-4</v>
+      </c>
+      <c r="E397">
+        <v>9.0334739545835499E-2</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A398" s="1">
+        <f>EOMONTH(DATE(Sheet1!B399,Sheet1!A399,1),0)</f>
+        <v>40574</v>
+      </c>
+      <c r="B398">
+        <v>-1.0129999999999999</v>
+      </c>
+      <c r="C398">
+        <f>(Sheet1!G399-Sheet1!G398)/100</f>
+        <v>3.9999999999999992E-3</v>
+      </c>
+      <c r="D398">
+        <v>-1.5364999999999899E-4</v>
+      </c>
+      <c r="E398">
+        <v>8.7890185138975604E-2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A399" s="1">
+        <f>EOMONTH(DATE(Sheet1!B400,Sheet1!A400,1),0)</f>
+        <v>40602</v>
+      </c>
+      <c r="B399">
+        <v>0</v>
+      </c>
+      <c r="C399">
+        <f>(Sheet1!G400-Sheet1!G399)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D399">
+        <v>-1.32916666666666E-4</v>
+      </c>
+      <c r="E399">
+        <v>8.8821219986604305E-2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A400" s="1">
+        <f>EOMONTH(DATE(Sheet1!B401,Sheet1!A401,1),0)</f>
+        <v>40633</v>
+      </c>
+      <c r="B400">
+        <v>0</v>
+      </c>
+      <c r="C400">
+        <f>(Sheet1!G401-Sheet1!G400)/100</f>
+        <v>1.1999999999999997E-2</v>
+      </c>
+      <c r="D400">
+        <v>-1.2749999999999901E-4</v>
+      </c>
+      <c r="E400">
+        <v>9.3935753247664205E-2</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A401" s="1">
+        <f>EOMONTH(DATE(Sheet1!B402,Sheet1!A402,1),0)</f>
+        <v>40663</v>
+      </c>
+      <c r="B401">
+        <v>0</v>
+      </c>
+      <c r="C401">
+        <f>(Sheet1!G402-Sheet1!G401)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D401">
+        <v>-1.5249999999999999E-4</v>
+      </c>
+      <c r="E401">
+        <v>8.8239448510117793E-2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A402" s="1">
+        <f>EOMONTH(DATE(Sheet1!B403,Sheet1!A403,1),0)</f>
+        <v>40694</v>
+      </c>
+      <c r="B402">
+        <v>0</v>
+      </c>
+      <c r="C402">
+        <f>(Sheet1!G403-Sheet1!G402)/100</f>
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="D402">
+        <v>-1.77399999999999E-4</v>
+      </c>
+      <c r="E402">
+        <v>8.6700112771321405E-2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A403" s="1">
+        <f>EOMONTH(DATE(Sheet1!B404,Sheet1!A404,1),0)</f>
+        <v>40724</v>
+      </c>
+      <c r="B403">
+        <v>0</v>
+      </c>
+      <c r="C403">
+        <f>(Sheet1!G404-Sheet1!G403)/100</f>
+        <v>-2.9999999999999983E-3</v>
+      </c>
+      <c r="D403">
+        <v>-1.5479166666666601E-4</v>
+      </c>
+      <c r="E403">
+        <v>9.4719600679607399E-2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A404" s="1">
+        <f>EOMONTH(DATE(Sheet1!B405,Sheet1!A405,1),0)</f>
+        <v>40755</v>
+      </c>
+      <c r="B404">
+        <v>0</v>
+      </c>
+      <c r="C404">
+        <f>(Sheet1!G405-Sheet1!G404)/100</f>
+        <v>-3.9999999999999992E-3</v>
+      </c>
+      <c r="D404">
+        <v>-1.8791666666666601E-4</v>
+      </c>
+      <c r="E404">
+        <v>9.7612449452053898E-2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A405" s="1">
+        <f>EOMONTH(DATE(Sheet1!B406,Sheet1!A406,1),0)</f>
+        <v>40786</v>
+      </c>
+      <c r="B405">
+        <v>0</v>
+      </c>
+      <c r="C405">
+        <f>(Sheet1!G406-Sheet1!G405)/100</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="D405">
+        <v>-1.8934999999999999E-4</v>
+      </c>
+      <c r="E405">
+        <v>0.17274600655733299</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A406" s="1">
+        <f>EOMONTH(DATE(Sheet1!B407,Sheet1!A407,1),0)</f>
+        <v>40816</v>
+      </c>
+      <c r="B406">
+        <v>0</v>
+      </c>
+      <c r="C406">
+        <f>(Sheet1!G407-Sheet1!G406)/100</f>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="D406">
+        <v>-2.9527499999999898E-4</v>
+      </c>
+      <c r="E406">
+        <v>0.16342128461543901</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A407" s="1">
+        <f>EOMONTH(DATE(Sheet1!B408,Sheet1!A408,1),0)</f>
+        <v>40847</v>
+      </c>
+      <c r="B407">
+        <v>0</v>
+      </c>
+      <c r="C407">
+        <f>(Sheet1!G408-Sheet1!G407)/100</f>
+        <v>-9.9999999999999655E-4</v>
+      </c>
+      <c r="D407">
+        <v>-3.412E-4</v>
+      </c>
+      <c r="E407">
+        <v>0.16421014434266801</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A408" s="1">
+        <f>EOMONTH(DATE(Sheet1!B409,Sheet1!A409,1),0)</f>
+        <v>40877</v>
+      </c>
+      <c r="B408">
+        <v>0</v>
+      </c>
+      <c r="C408">
+        <f>(Sheet1!G409-Sheet1!G408)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D408">
+        <v>-4.3240833333333301E-4</v>
+      </c>
+      <c r="E408">
+        <v>0.15690351249325599</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A409" s="1">
+        <f>EOMONTH(DATE(Sheet1!B410,Sheet1!A410,1),0)</f>
+        <v>40908</v>
+      </c>
+      <c r="B409">
+        <v>0</v>
+      </c>
+      <c r="C409">
+        <f>(Sheet1!G410-Sheet1!G409)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D409">
+        <v>-4.7583333333333299E-4</v>
+      </c>
+      <c r="E409">
+        <v>0.14485550430903901</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A410" s="1">
+        <f>EOMONTH(DATE(Sheet1!B411,Sheet1!A411,1),0)</f>
+        <v>40939</v>
+      </c>
+      <c r="B410">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="C410">
+        <f>(Sheet1!G411-Sheet1!G410)/100</f>
+        <v>1.9999999999999974E-3</v>
+      </c>
+      <c r="D410">
+        <v>-4.3529166666666602E-4</v>
+      </c>
+      <c r="E410">
+        <v>0.12002884608613799</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A411" s="1">
+        <f>EOMONTH(DATE(Sheet1!B412,Sheet1!A412,1),0)</f>
+        <v>40968</v>
+      </c>
+      <c r="B411">
+        <v>0</v>
+      </c>
+      <c r="C411">
+        <f>(Sheet1!G412-Sheet1!G411)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D411">
+        <v>-3.5354166666666601E-4</v>
+      </c>
+      <c r="E411">
+        <v>0.104200620925213</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A412" s="1">
+        <f>EOMONTH(DATE(Sheet1!B413,Sheet1!A413,1),0)</f>
+        <v>40999</v>
+      </c>
+      <c r="B412">
+        <v>0</v>
+      </c>
+      <c r="C412">
+        <f>(Sheet1!G413-Sheet1!G412)/100</f>
+        <v>6.000000000000001E-3</v>
+      </c>
+      <c r="D412">
+        <v>-3.2345833333333299E-4</v>
+      </c>
+      <c r="E412">
+        <v>9.7630248593823896E-2</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A413" s="1">
+        <f>EOMONTH(DATE(Sheet1!B414,Sheet1!A414,1),0)</f>
+        <v>41029</v>
+      </c>
+      <c r="B413">
+        <v>0</v>
+      </c>
+      <c r="C413">
+        <f>(Sheet1!G414-Sheet1!G413)/100</f>
+        <v>-6.9999999999999975E-3</v>
+      </c>
+      <c r="D413">
+        <v>-3.2987499999999998E-4</v>
+      </c>
+      <c r="E413">
+        <v>9.7264890264059795E-2</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A414" s="1">
+        <f>EOMONTH(DATE(Sheet1!B415,Sheet1!A415,1),0)</f>
+        <v>41060</v>
+      </c>
+      <c r="B414">
+        <v>0</v>
+      </c>
+      <c r="C414">
+        <f>(Sheet1!G415-Sheet1!G414)/100</f>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="D414">
+        <v>-3.0570833333333302E-4</v>
+      </c>
+      <c r="E414">
+        <v>9.6537100171738499E-2</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A415" s="1">
+        <f>EOMONTH(DATE(Sheet1!B416,Sheet1!A416,1),0)</f>
+        <v>41090</v>
+      </c>
+      <c r="B415">
+        <v>0</v>
+      </c>
+      <c r="C415">
+        <f>(Sheet1!G416-Sheet1!G415)/100</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="D415">
+        <v>-3.255E-4</v>
+      </c>
+      <c r="E415">
+        <v>0.103436695102743</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A416" s="1">
+        <f>EOMONTH(DATE(Sheet1!B417,Sheet1!A417,1),0)</f>
+        <v>41121</v>
+      </c>
+      <c r="B416">
+        <v>0</v>
+      </c>
+      <c r="C416">
+        <f>(Sheet1!G417-Sheet1!G416)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D416">
+        <v>-2.9383333333333301E-4</v>
+      </c>
+      <c r="E416">
+        <v>0.102440873789784</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A417" s="1">
+        <f>EOMONTH(DATE(Sheet1!B418,Sheet1!A418,1),0)</f>
+        <v>41152</v>
+      </c>
+      <c r="B417">
+        <v>0</v>
+      </c>
+      <c r="C417">
+        <f>(Sheet1!G418-Sheet1!G417)/100</f>
+        <v>6.000000000000001E-3</v>
+      </c>
+      <c r="D417">
+        <v>-2.56875E-4</v>
+      </c>
+      <c r="E417">
+        <v>9.2247452932186599E-2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A418" s="1">
+        <f>EOMONTH(DATE(Sheet1!B419,Sheet1!A419,1),0)</f>
+        <v>41182</v>
+      </c>
+      <c r="B418">
+        <v>0</v>
+      </c>
+      <c r="C418">
+        <f>(Sheet1!G419-Sheet1!G418)/100</f>
+        <v>-3.0000000000000027E-3</v>
+      </c>
+      <c r="D418">
+        <v>-2.2374999999999899E-4</v>
+      </c>
+      <c r="E418">
+        <v>8.9860748756060302E-2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A419" s="1">
+        <f>EOMONTH(DATE(Sheet1!B420,Sheet1!A420,1),0)</f>
+        <v>41213</v>
+      </c>
+      <c r="B419">
+        <v>0</v>
+      </c>
+      <c r="C419">
+        <f>(Sheet1!G420-Sheet1!G419)/100</f>
+        <v>-1.9999999999999974E-3</v>
+      </c>
+      <c r="D419">
+        <v>-1.7729166666666601E-4</v>
+      </c>
+      <c r="E419">
+        <v>8.6395420934681305E-2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A420" s="1">
+        <f>EOMONTH(DATE(Sheet1!B421,Sheet1!A421,1),0)</f>
+        <v>41243</v>
+      </c>
+      <c r="B420">
+        <v>0</v>
+      </c>
+      <c r="C420">
+        <f>(Sheet1!G421-Sheet1!G420)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D420">
+        <v>-1.6708333333333299E-4</v>
+      </c>
+      <c r="E420">
+        <v>9.0625279417814397E-2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A421" s="1">
+        <f>EOMONTH(DATE(Sheet1!B422,Sheet1!A422,1),0)</f>
+        <v>41274</v>
+      </c>
+      <c r="B421">
+        <v>0</v>
+      </c>
+      <c r="C421">
+        <f>(Sheet1!G422-Sheet1!G421)/100</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="D421">
+        <v>-1.88333333333333E-4</v>
+      </c>
+      <c r="E421">
+        <v>8.5903958966503796E-2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A422" s="1">
+        <f>EOMONTH(DATE(Sheet1!B423,Sheet1!A423,1),0)</f>
+        <v>41305</v>
+      </c>
+      <c r="B422">
+        <v>-0.40699999999999997</v>
+      </c>
+      <c r="C422">
+        <f>(Sheet1!G423-Sheet1!G422)/100</f>
+        <v>9.9999999999999655E-4</v>
+      </c>
+      <c r="D422">
+        <v>-2.0666666666666601E-4</v>
+      </c>
+      <c r="E422">
+        <v>8.4114212155523602E-2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A423" s="1">
+        <f>EOMONTH(DATE(Sheet1!B424,Sheet1!A424,1),0)</f>
+        <v>41333</v>
+      </c>
+      <c r="B423">
+        <v>0</v>
+      </c>
+      <c r="C423">
+        <f>(Sheet1!G424-Sheet1!G423)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D423">
+        <v>-1.80916666666666E-4</v>
+      </c>
+      <c r="E423">
+        <v>8.6910290409219396E-2</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A424" s="1">
+        <f>EOMONTH(DATE(Sheet1!B425,Sheet1!A425,1),0)</f>
+        <v>41364</v>
+      </c>
+      <c r="B424">
+        <v>0</v>
+      </c>
+      <c r="C424">
+        <f>(Sheet1!G425-Sheet1!G424)/100</f>
+        <v>-9.9999999999999655E-4</v>
+      </c>
+      <c r="D424">
+        <v>-1.43833333333333E-4</v>
+      </c>
+      <c r="E424">
+        <v>8.2123427821025899E-2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A425" s="1">
+        <f>EOMONTH(DATE(Sheet1!B426,Sheet1!A426,1),0)</f>
+        <v>41394</v>
+      </c>
+      <c r="B425">
+        <v>0</v>
+      </c>
+      <c r="C425">
+        <f>(Sheet1!G426-Sheet1!G425)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D425">
+        <v>-1.6924999999999999E-4</v>
+      </c>
+      <c r="E425">
+        <v>8.9080547693155598E-2</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A426" s="1">
+        <f>EOMONTH(DATE(Sheet1!B427,Sheet1!A427,1),0)</f>
+        <v>41425</v>
+      </c>
+      <c r="B426">
+        <v>0</v>
+      </c>
+      <c r="C426">
+        <f>(Sheet1!G427-Sheet1!G426)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D426">
+        <v>-1.8770833333333299E-4</v>
+      </c>
+      <c r="E426">
+        <v>8.5217288264729393E-2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A427" s="1">
+        <f>EOMONTH(DATE(Sheet1!B428,Sheet1!A428,1),0)</f>
+        <v>41455</v>
+      </c>
+      <c r="B427">
+        <v>0</v>
+      </c>
+      <c r="C427">
+        <f>(Sheet1!G428-Sheet1!G427)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D427">
+        <v>-1.94249999999999E-4</v>
+      </c>
+      <c r="E427">
+        <v>9.5328623895442194E-2</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A428" s="1">
+        <f>EOMONTH(DATE(Sheet1!B429,Sheet1!A429,1),0)</f>
+        <v>41486</v>
+      </c>
+      <c r="B428">
+        <v>0</v>
+      </c>
+      <c r="C428">
+        <f>(Sheet1!G429-Sheet1!G428)/100</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="D428">
+        <v>-1.8799999999999999E-4</v>
+      </c>
+      <c r="E428">
+        <v>8.6709757491757203E-2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A429" s="1">
+        <f>EOMONTH(DATE(Sheet1!B430,Sheet1!A430,1),0)</f>
+        <v>41517</v>
+      </c>
+      <c r="B429">
+        <v>0</v>
+      </c>
+      <c r="C429">
+        <f>(Sheet1!G430-Sheet1!G429)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D429">
+        <v>-1.82916666666666E-4</v>
+      </c>
+      <c r="E429">
+        <v>8.5801487679801197E-2</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A430" s="1">
+        <f>EOMONTH(DATE(Sheet1!B431,Sheet1!A431,1),0)</f>
+        <v>41547</v>
+      </c>
+      <c r="B430">
+        <v>0</v>
+      </c>
+      <c r="C430">
+        <f>(Sheet1!G431-Sheet1!G430)/100</f>
+        <v>2.9999999999999983E-3</v>
+      </c>
+      <c r="D430">
+        <v>-1.82374999999999E-4</v>
+      </c>
+      <c r="E430">
+        <v>8.2381652989072601E-2</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A431" s="1">
+        <f>EOMONTH(DATE(Sheet1!B432,Sheet1!A432,1),0)</f>
+        <v>41578</v>
+      </c>
+      <c r="B431">
+        <v>0</v>
+      </c>
+      <c r="C431">
+        <f>(Sheet1!G432-Sheet1!G431)/100</f>
+        <v>-2.9999999999999983E-3</v>
+      </c>
+      <c r="D431">
+        <v>-1.8499999999999899E-4</v>
+      </c>
+      <c r="E431">
+        <v>8.5259467937911004E-2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A432" s="1">
+        <f>EOMONTH(DATE(Sheet1!B433,Sheet1!A433,1),0)</f>
+        <v>41608</v>
+      </c>
+      <c r="B432">
+        <v>0</v>
+      </c>
+      <c r="C432">
+        <f>(Sheet1!G433-Sheet1!G432)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D432">
+        <v>-1.6591666666666599E-4</v>
+      </c>
+      <c r="E432">
+        <v>8.24542087537454E-2</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A433" s="1">
+        <f>EOMONTH(DATE(Sheet1!B434,Sheet1!A434,1),0)</f>
+        <v>41639</v>
+      </c>
+      <c r="B433">
+        <v>0</v>
+      </c>
+      <c r="C433">
+        <f>(Sheet1!G434-Sheet1!G433)/100</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="D433">
+        <v>-1.55083333333333E-4</v>
+      </c>
+      <c r="E433">
+        <v>8.0686476817201605E-2</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A434" s="1">
+        <f>EOMONTH(DATE(Sheet1!B435,Sheet1!A435,1),0)</f>
+        <v>41670</v>
+      </c>
+      <c r="B434">
+        <v>0.60999999999999899</v>
+      </c>
+      <c r="C434">
+        <f>(Sheet1!G435-Sheet1!G434)/100</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="D434">
+        <v>-1.3883333333333301E-4</v>
+      </c>
+      <c r="E434">
+        <v>8.5325184028463993E-2</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A435" s="1">
+        <f>EOMONTH(DATE(Sheet1!B436,Sheet1!A436,1),0)</f>
+        <v>41698</v>
+      </c>
+      <c r="B435">
+        <v>0</v>
+      </c>
+      <c r="C435">
+        <f>(Sheet1!G436-Sheet1!G435)/100</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="D435">
+        <v>-1.7970833333333299E-4</v>
+      </c>
+      <c r="E435">
+        <v>8.6245553662562605E-2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A436" s="1">
+        <f>EOMONTH(DATE(Sheet1!B437,Sheet1!A437,1),0)</f>
+        <v>41729</v>
+      </c>
+      <c r="B436">
+        <v>0</v>
+      </c>
+      <c r="C436">
+        <f>(Sheet1!G437-Sheet1!G436)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D436">
+        <v>-1.505E-4</v>
+      </c>
+      <c r="E436">
+        <v>8.4085699559923205E-2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A437" s="1">
+        <f>EOMONTH(DATE(Sheet1!B438,Sheet1!A438,1),0)</f>
+        <v>41759</v>
+      </c>
+      <c r="B437">
+        <v>0</v>
+      </c>
+      <c r="C437">
+        <f>(Sheet1!G438-Sheet1!G437)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D437">
+        <v>-1.44458333333333E-4</v>
+      </c>
+      <c r="E437">
+        <v>8.7304300709166602E-2</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A438" s="1">
+        <f>EOMONTH(DATE(Sheet1!B439,Sheet1!A439,1),0)</f>
+        <v>41790</v>
+      </c>
+      <c r="B438">
+        <v>0</v>
+      </c>
+      <c r="C438">
+        <f>(Sheet1!G439-Sheet1!G438)/100</f>
+        <v>9.9999999999999655E-4</v>
+      </c>
+      <c r="D438">
+        <v>-1.6449999999999999E-4</v>
+      </c>
+      <c r="E438">
+        <v>8.2861289408009103E-2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A439" s="1">
+        <f>EOMONTH(DATE(Sheet1!B440,Sheet1!A440,1),0)</f>
+        <v>41820</v>
+      </c>
+      <c r="B439">
+        <v>0</v>
+      </c>
+      <c r="C439">
+        <f>(Sheet1!G440-Sheet1!G439)/100</f>
+        <v>-1.9999999999999974E-3</v>
+      </c>
+      <c r="D439">
+        <v>-1.5891666666666601E-4</v>
+      </c>
+      <c r="E439">
+        <v>7.8493531396340702E-2</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A440" s="1">
+        <f>EOMONTH(DATE(Sheet1!B441,Sheet1!A441,1),0)</f>
+        <v>41851</v>
+      </c>
+      <c r="B440">
+        <v>0</v>
+      </c>
+      <c r="C440">
+        <f>(Sheet1!G441-Sheet1!G440)/100</f>
+        <v>1.9999999999999974E-3</v>
+      </c>
+      <c r="D440">
+        <v>-1.6591666666666599E-4</v>
+      </c>
+      <c r="E440">
+        <v>7.7496162436716004E-2</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A441" s="1">
+        <f>EOMONTH(DATE(Sheet1!B442,Sheet1!A442,1),0)</f>
+        <v>41882</v>
+      </c>
+      <c r="B441">
+        <v>0</v>
+      </c>
+      <c r="C441">
+        <f>(Sheet1!G442-Sheet1!G441)/100</f>
+        <v>-9.9999999999999655E-4</v>
+      </c>
+      <c r="D441">
+        <v>-1.69666666666666E-4</v>
+      </c>
+      <c r="E441">
+        <v>7.8829225168495901E-2</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A442" s="1">
+        <f>EOMONTH(DATE(Sheet1!B443,Sheet1!A443,1),0)</f>
+        <v>41912</v>
+      </c>
+      <c r="B442">
+        <v>0</v>
+      </c>
+      <c r="C442">
+        <f>(Sheet1!G443-Sheet1!G442)/100</f>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="D442">
+        <v>-1.7091666666666601E-4</v>
+      </c>
+      <c r="E442">
+        <v>8.0240496990313603E-2</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A443" s="1">
+        <f>EOMONTH(DATE(Sheet1!B444,Sheet1!A444,1),0)</f>
+        <v>41943</v>
+      </c>
+      <c r="B443">
+        <v>0</v>
+      </c>
+      <c r="C443">
+        <f>(Sheet1!G444-Sheet1!G443)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D443">
+        <v>-1.7674999999999999E-4</v>
+      </c>
+      <c r="E443">
+        <v>9.3242671714677497E-2</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A444" s="1">
+        <f>EOMONTH(DATE(Sheet1!B445,Sheet1!A445,1),0)</f>
+        <v>41973</v>
+      </c>
+      <c r="B444">
+        <v>0</v>
+      </c>
+      <c r="C444">
+        <f>(Sheet1!G445-Sheet1!G444)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D444">
+        <v>-1.86333333333333E-4</v>
+      </c>
+      <c r="E444">
+        <v>8.4999856313626193E-2</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A445" s="1">
+        <f>EOMONTH(DATE(Sheet1!B446,Sheet1!A446,1),0)</f>
+        <v>42004</v>
+      </c>
+      <c r="B445">
+        <v>0</v>
+      </c>
+      <c r="C445">
+        <f>(Sheet1!G446-Sheet1!G445)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D445">
+        <v>-1.96333333333333E-4</v>
+      </c>
+      <c r="E445">
+        <v>9.0733007078672406E-2</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A446" s="1">
+        <f>EOMONTH(DATE(Sheet1!B447,Sheet1!A447,1),0)</f>
+        <v>42035</v>
+      </c>
+      <c r="B446">
+        <v>0.42899999999999899</v>
+      </c>
+      <c r="C446">
+        <f>(Sheet1!G447-Sheet1!G446)/100</f>
+        <v>-2.9999999999999983E-3</v>
+      </c>
+      <c r="D446">
+        <v>-1.7758333333333301E-4</v>
+      </c>
+      <c r="E446">
+        <v>9.46577823156627E-2</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A447" s="1">
+        <f>EOMONTH(DATE(Sheet1!B448,Sheet1!A448,1),0)</f>
+        <v>42063</v>
+      </c>
+      <c r="B447">
+        <v>0</v>
+      </c>
+      <c r="C447">
+        <f>(Sheet1!G448-Sheet1!G447)/100</f>
+        <v>2.9999999999999983E-3</v>
+      </c>
+      <c r="D447">
+        <v>-2.01541666666666E-4</v>
+      </c>
+      <c r="E447">
+        <v>8.9833216261106796E-2</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A448" s="1">
+        <f>EOMONTH(DATE(Sheet1!B449,Sheet1!A449,1),0)</f>
+        <v>42094</v>
+      </c>
+      <c r="B448">
+        <v>0</v>
+      </c>
+      <c r="C448">
+        <f>(Sheet1!G449-Sheet1!G448)/100</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="D448">
+        <v>-2.08958333333333E-4</v>
+      </c>
+      <c r="E448">
+        <v>9.0768782800805206E-2</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A449" s="1">
+        <f>EOMONTH(DATE(Sheet1!B450,Sheet1!A450,1),0)</f>
+        <v>42124</v>
+      </c>
+      <c r="B449">
+        <v>0</v>
+      </c>
+      <c r="C449">
+        <f>(Sheet1!G450-Sheet1!G449)/100</f>
+        <v>-3.9999999999999992E-3</v>
+      </c>
+      <c r="D449">
+        <v>-2.0729166666666601E-4</v>
+      </c>
+      <c r="E449">
+        <v>8.4351899125127E-2</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A450" s="1">
+        <f>EOMONTH(DATE(Sheet1!B451,Sheet1!A451,1),0)</f>
+        <v>42155</v>
+      </c>
+      <c r="B450">
+        <v>0</v>
+      </c>
+      <c r="C450">
+        <f>(Sheet1!G451-Sheet1!G450)/100</f>
+        <v>1.9999999999999974E-3</v>
+      </c>
+      <c r="D450">
+        <v>-2.28125E-4</v>
+      </c>
+      <c r="E450">
+        <v>8.3027022331635003E-2</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A451" s="1">
+        <f>EOMONTH(DATE(Sheet1!B452,Sheet1!A452,1),0)</f>
+        <v>42185</v>
+      </c>
+      <c r="B451">
+        <v>0</v>
+      </c>
+      <c r="C451">
+        <f>(Sheet1!G452-Sheet1!G451)/100</f>
+        <v>-9.9999999999999655E-4</v>
+      </c>
+      <c r="D451">
+        <v>-2.27666666666666E-4</v>
+      </c>
+      <c r="E451">
+        <v>8.4996195728749294E-2</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A452" s="1">
+        <f>EOMONTH(DATE(Sheet1!B453,Sheet1!A453,1),0)</f>
+        <v>42216</v>
+      </c>
+      <c r="B452">
+        <v>0</v>
+      </c>
+      <c r="C452">
+        <f>(Sheet1!G453-Sheet1!G452)/100</f>
+        <v>9.9999999999999655E-4</v>
+      </c>
+      <c r="D452">
+        <v>-2.48833333333333E-4</v>
+      </c>
+      <c r="E452">
+        <v>8.5116459204543096E-2</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A453" s="1">
+        <f>EOMONTH(DATE(Sheet1!B454,Sheet1!A454,1),0)</f>
+        <v>42247</v>
+      </c>
+      <c r="B453">
+        <v>0</v>
+      </c>
+      <c r="C453">
+        <f>(Sheet1!G454-Sheet1!G453)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D453">
+        <v>-2.07499999999999E-4</v>
+      </c>
+      <c r="E453">
+        <v>0.115319570249138</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A454" s="1">
+        <f>EOMONTH(DATE(Sheet1!B455,Sheet1!A455,1),0)</f>
+        <v>42277</v>
+      </c>
+      <c r="B454">
+        <v>0</v>
+      </c>
+      <c r="C454">
+        <f>(Sheet1!G455-Sheet1!G454)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D454">
+        <v>-2.04166666666666E-4</v>
+      </c>
+      <c r="E454">
+        <v>0.116037040464864</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A455" s="1">
+        <f>EOMONTH(DATE(Sheet1!B456,Sheet1!A456,1),0)</f>
+        <v>42308</v>
+      </c>
+      <c r="B455">
+        <v>0</v>
+      </c>
+      <c r="C455">
+        <f>(Sheet1!G456-Sheet1!G455)/100</f>
+        <v>-9.9999999999999655E-4</v>
+      </c>
+      <c r="D455">
+        <v>-2.8675E-4</v>
+      </c>
+      <c r="E455">
+        <v>0.107866372016529</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A456" s="1">
+        <f>EOMONTH(DATE(Sheet1!B457,Sheet1!A457,1),0)</f>
+        <v>42338</v>
+      </c>
+      <c r="B456">
+        <v>0</v>
+      </c>
+      <c r="C456">
+        <f>(Sheet1!G457-Sheet1!G456)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D456">
+        <v>-2.8016666666666598E-4</v>
+      </c>
+      <c r="E456">
+        <v>9.8789814016424102E-2</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A457" s="1">
+        <f>EOMONTH(DATE(Sheet1!B458,Sheet1!A458,1),0)</f>
+        <v>42369</v>
+      </c>
+      <c r="B457">
+        <v>0</v>
+      </c>
+      <c r="C457">
+        <f>(Sheet1!G458-Sheet1!G457)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D457">
+        <v>-3.2725000000000001E-4</v>
+      </c>
+      <c r="E457">
+        <v>0.101343495209697</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A458" s="1">
+        <f>EOMONTH(DATE(Sheet1!B459,Sheet1!A459,1),0)</f>
+        <v>42400</v>
+      </c>
+      <c r="B458">
+        <v>-1.3139999999999901</v>
+      </c>
+      <c r="C458">
+        <f>(Sheet1!G459-Sheet1!G458)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D458">
+        <v>-3.77166666666666E-4</v>
+      </c>
+      <c r="E458">
+        <v>0.11252070807389999</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A459" s="1">
+        <f>EOMONTH(DATE(Sheet1!B460,Sheet1!A460,1),0)</f>
+        <v>42429</v>
+      </c>
+      <c r="B459">
+        <v>0</v>
+      </c>
+      <c r="C459">
+        <f>(Sheet1!G460-Sheet1!G459)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D459">
+        <v>-2.6091666666666602E-4</v>
+      </c>
+      <c r="E459">
+        <v>0.114495764475829</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A460" s="1">
+        <f>EOMONTH(DATE(Sheet1!B461,Sheet1!A461,1),0)</f>
+        <v>42460</v>
+      </c>
+      <c r="B460">
+        <v>0</v>
+      </c>
+      <c r="C460">
+        <f>(Sheet1!G461-Sheet1!G460)/100</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="D460">
+        <v>-2.48833333333333E-4</v>
+      </c>
+      <c r="E460">
+        <v>0.10356854243909901</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A461" s="1">
+        <f>EOMONTH(DATE(Sheet1!B462,Sheet1!A462,1),0)</f>
+        <v>42490</v>
+      </c>
+      <c r="B461">
+        <v>0</v>
+      </c>
+      <c r="C461">
+        <f>(Sheet1!G462-Sheet1!G461)/100</f>
+        <v>9.9999999999999655E-4</v>
+      </c>
+      <c r="D461">
+        <v>-3.5550000000000002E-4</v>
+      </c>
+      <c r="E461">
+        <v>9.4807653130440303E-2</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A462" s="1">
+        <f>EOMONTH(DATE(Sheet1!B463,Sheet1!A463,1),0)</f>
+        <v>42521</v>
+      </c>
+      <c r="B462">
+        <v>0</v>
+      </c>
+      <c r="C462">
+        <f>(Sheet1!G463-Sheet1!G462)/100</f>
+        <v>-3.9999999999999992E-3</v>
+      </c>
+      <c r="D462">
+        <v>-3.88166666666666E-4</v>
+      </c>
+      <c r="E462">
+        <v>9.0266570244711297E-2</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A463" s="1">
+        <f>EOMONTH(DATE(Sheet1!B464,Sheet1!A464,1),0)</f>
+        <v>42551</v>
+      </c>
+      <c r="B463">
+        <v>0</v>
+      </c>
+      <c r="C463">
+        <f>(Sheet1!G464-Sheet1!G463)/100</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="D463">
+        <v>-2.6174999999999902E-4</v>
+      </c>
+      <c r="E463">
+        <v>0.10362498406524</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A464" s="1">
+        <f>EOMONTH(DATE(Sheet1!B465,Sheet1!A465,1),0)</f>
+        <v>42582</v>
+      </c>
+      <c r="B464">
+        <v>0</v>
+      </c>
+      <c r="C464">
+        <f>(Sheet1!G465-Sheet1!G464)/100</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="D464">
+        <v>-4.15916666666666E-4</v>
+      </c>
+      <c r="E464">
+        <v>9.3433770057666898E-2</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A465" s="1">
+        <f>EOMONTH(DATE(Sheet1!B466,Sheet1!A466,1),0)</f>
+        <v>42613</v>
+      </c>
+      <c r="B465">
+        <v>0</v>
+      </c>
+      <c r="C465">
+        <f>(Sheet1!G466-Sheet1!G465)/100</f>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="D465">
+        <v>-4.7444166666666602E-4</v>
+      </c>
+      <c r="E465">
+        <v>8.4292060089946205E-2</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A466" s="1">
+        <f>EOMONTH(DATE(Sheet1!B467,Sheet1!A467,1),0)</f>
+        <v>42643</v>
+      </c>
+      <c r="B466">
+        <v>0</v>
+      </c>
+      <c r="C466">
+        <f>(Sheet1!G467-Sheet1!G466)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D466">
+        <v>-4.3639166666666599E-4</v>
+      </c>
+      <c r="E466">
+        <v>8.8962016942086303E-2</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A467" s="1">
+        <f>EOMONTH(DATE(Sheet1!B468,Sheet1!A468,1),0)</f>
+        <v>42674</v>
+      </c>
+      <c r="B467">
+        <v>0</v>
+      </c>
+      <c r="C467">
+        <f>(Sheet1!G468-Sheet1!G467)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D467">
+        <v>-5.0356666666666599E-4</v>
+      </c>
+      <c r="E467">
+        <v>8.3425281994479697E-2</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A468" s="1">
+        <f>EOMONTH(DATE(Sheet1!B469,Sheet1!A469,1),0)</f>
+        <v>42704</v>
+      </c>
+      <c r="B468">
+        <v>0</v>
+      </c>
+      <c r="C468">
+        <f>(Sheet1!G469-Sheet1!G468)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D468">
+        <v>-4.9514166666666604E-4</v>
+      </c>
+      <c r="E468">
+        <v>8.2792530252322499E-2</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A469" s="1">
+        <f>EOMONTH(DATE(Sheet1!B470,Sheet1!A470,1),0)</f>
+        <v>42735</v>
+      </c>
+      <c r="B469">
+        <v>0</v>
+      </c>
+      <c r="C469">
+        <f>(Sheet1!G470-Sheet1!G469)/100</f>
+        <v>-1.9999999999999974E-3</v>
+      </c>
+      <c r="D469">
+        <v>-4.3157500000000001E-4</v>
+      </c>
+      <c r="E469">
+        <v>7.9811169082364394E-2</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A470" s="1">
+        <f>EOMONTH(DATE(Sheet1!B471,Sheet1!A471,1),0)</f>
+        <v>42766</v>
+      </c>
+      <c r="B470">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="C470">
+        <f>(Sheet1!G471-Sheet1!G470)/100</f>
+        <v>3.9999999999999992E-3</v>
+      </c>
+      <c r="D470">
+        <v>-4.4546666666666598E-4</v>
+      </c>
+      <c r="E470">
+        <v>7.7703672265592397E-2</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A471" s="1">
+        <f>EOMONTH(DATE(Sheet1!B472,Sheet1!A472,1),0)</f>
+        <v>42794</v>
+      </c>
+      <c r="B471">
+        <v>0</v>
+      </c>
+      <c r="C471">
+        <f>(Sheet1!G472-Sheet1!G471)/100</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="D471">
+        <v>-4.5333333333333299E-4</v>
+      </c>
+      <c r="E471">
+        <v>7.5046598740868706E-2</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A472" s="1">
+        <f>EOMONTH(DATE(Sheet1!B473,Sheet1!A473,1),0)</f>
+        <v>42825</v>
+      </c>
+      <c r="B472">
+        <v>0</v>
+      </c>
+      <c r="C472">
+        <f>(Sheet1!G473-Sheet1!G472)/100</f>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="D472">
+        <v>-5.1629999999999905E-4</v>
+      </c>
+      <c r="E472">
+        <v>7.6393360951888506E-2</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A473" s="1">
+        <f>EOMONTH(DATE(Sheet1!B474,Sheet1!A474,1),0)</f>
+        <v>42855</v>
+      </c>
+      <c r="B473">
+        <v>0</v>
+      </c>
+      <c r="C473">
+        <f>(Sheet1!G474-Sheet1!G473)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D473">
+        <v>-3.5194166666666597E-4</v>
+      </c>
+      <c r="E473">
+        <v>7.6098357250433304E-2</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A474" s="1">
+        <f>EOMONTH(DATE(Sheet1!B475,Sheet1!A475,1),0)</f>
+        <v>42886</v>
+      </c>
+      <c r="B474">
+        <v>0</v>
+      </c>
+      <c r="C474">
+        <f>(Sheet1!G475-Sheet1!G474)/100</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="D474">
+        <v>-3.4999999999999902E-4</v>
+      </c>
+      <c r="E474">
+        <v>7.6505516039070701E-2</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A475" s="1">
+        <f>EOMONTH(DATE(Sheet1!B476,Sheet1!A476,1),0)</f>
+        <v>42916</v>
+      </c>
+      <c r="B475">
+        <v>0</v>
+      </c>
+      <c r="C475">
+        <f>(Sheet1!G476-Sheet1!G475)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D475">
+        <v>-2.8264166666666602E-4</v>
+      </c>
+      <c r="E475">
+        <v>7.6533895741424607E-2</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A476" s="1">
+        <f>EOMONTH(DATE(Sheet1!B477,Sheet1!A477,1),0)</f>
+        <v>42947</v>
+      </c>
+      <c r="B476">
+        <v>0</v>
+      </c>
+      <c r="C476">
+        <f>(Sheet1!G477-Sheet1!G476)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D476">
+        <v>-2.5046666666666601E-4</v>
+      </c>
+      <c r="E476">
+        <v>7.4462159376615905E-2</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A477" s="1">
+        <f>EOMONTH(DATE(Sheet1!B478,Sheet1!A478,1),0)</f>
+        <v>42978</v>
+      </c>
+      <c r="B477">
+        <v>0</v>
+      </c>
+      <c r="C477">
+        <f>(Sheet1!G478-Sheet1!G477)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D477">
+        <v>-2.23149999999999E-4</v>
+      </c>
+      <c r="E477">
+        <v>7.6484458186521803E-2</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A478" s="1">
+        <f>EOMONTH(DATE(Sheet1!B479,Sheet1!A479,1),0)</f>
+        <v>43008</v>
+      </c>
+      <c r="B478">
+        <v>0</v>
+      </c>
+      <c r="C478">
+        <f>(Sheet1!G479-Sheet1!G478)/100</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="D478">
+        <v>-2.8657500000000001E-4</v>
+      </c>
+      <c r="E478">
+        <v>7.4436941511318203E-2</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A479" s="1">
+        <f>EOMONTH(DATE(Sheet1!B480,Sheet1!A480,1),0)</f>
+        <v>43039</v>
+      </c>
+      <c r="B479">
+        <v>0</v>
+      </c>
+      <c r="C479">
+        <f>(Sheet1!G480-Sheet1!G479)/100</f>
+        <v>-3.0000000000000027E-3</v>
+      </c>
+      <c r="D479">
+        <v>-2.8434999999999902E-4</v>
+      </c>
+      <c r="E479">
+        <v>7.2903328096422707E-2</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A480" s="1">
+        <f>EOMONTH(DATE(Sheet1!B481,Sheet1!A481,1),0)</f>
+        <v>43069</v>
+      </c>
+      <c r="B480">
+        <v>0</v>
+      </c>
+      <c r="C480">
+        <f>(Sheet1!G481-Sheet1!G480)/100</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="D480">
+        <v>-2.97816666666666E-4</v>
+      </c>
+      <c r="E480">
+        <v>7.2629053907749097E-2</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A481" s="1">
+        <f>EOMONTH(DATE(Sheet1!B482,Sheet1!A482,1),0)</f>
+        <v>43100</v>
+      </c>
+      <c r="B481">
+        <v>0</v>
+      </c>
+      <c r="C481">
+        <f>(Sheet1!G482-Sheet1!G481)/100</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="D481">
+        <v>-3.7023333333333303E-4</v>
+      </c>
+      <c r="E481">
+        <v>7.2216962083386696E-2</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A482" s="1">
+        <f>EOMONTH(DATE(Sheet1!B483,Sheet1!A483,1),0)</f>
+        <v>43131</v>
+      </c>
+      <c r="B482">
+        <v>0.69999999999999896</v>
+      </c>
+      <c r="C482">
+        <f>(Sheet1!G483-Sheet1!G482)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D482">
+        <v>-3.3980833333333298E-4</v>
+      </c>
+      <c r="E482">
+        <v>7.5821824363667398E-2</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A483" s="1">
+        <f>EOMONTH(DATE(Sheet1!B484,Sheet1!A484,1),0)</f>
+        <v>43159</v>
+      </c>
+      <c r="B483">
+        <v>0</v>
+      </c>
+      <c r="C483">
+        <f>(Sheet1!G484-Sheet1!G483)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D483">
+        <v>-4.8099166666666599E-4</v>
+      </c>
+      <c r="E483">
+        <v>0.101473939047958</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A484" s="1">
+        <f>EOMONTH(DATE(Sheet1!B485,Sheet1!A485,1),0)</f>
+        <v>43190</v>
+      </c>
+      <c r="B484">
+        <v>0</v>
+      </c>
+      <c r="C484">
+        <f>(Sheet1!G485-Sheet1!G484)/100</f>
+        <v>9.9999999999999655E-4</v>
+      </c>
+      <c r="D484">
+        <v>-5.6812499999999897E-4</v>
+      </c>
+      <c r="E484">
+        <v>0.107287445305975</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A485" s="1">
+        <f>EOMONTH(DATE(Sheet1!B486,Sheet1!A486,1),0)</f>
+        <v>43220</v>
+      </c>
+      <c r="B485">
+        <v>0</v>
+      </c>
+      <c r="C485">
+        <f>(Sheet1!G486-Sheet1!G485)/100</f>
+        <v>-9.9999999999999655E-4</v>
+      </c>
+      <c r="D485">
+        <v>-5.5244999999999904E-4</v>
+      </c>
+      <c r="E485">
+        <v>0.103324893599314</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A486" s="1">
+        <f>EOMONTH(DATE(Sheet1!B487,Sheet1!A487,1),0)</f>
+        <v>43251</v>
+      </c>
+      <c r="B486">
+        <v>0</v>
+      </c>
+      <c r="C486">
+        <f>(Sheet1!G487-Sheet1!G486)/100</f>
+        <v>9.9999999999999655E-4</v>
+      </c>
+      <c r="D486">
+        <v>-4.0104166666666597E-4</v>
+      </c>
+      <c r="E486">
+        <v>9.3618075193296596E-2</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A487" s="1">
+        <f>EOMONTH(DATE(Sheet1!B488,Sheet1!A488,1),0)</f>
+        <v>43281</v>
+      </c>
+      <c r="B487">
+        <v>0</v>
+      </c>
+      <c r="C487">
+        <f>(Sheet1!G488-Sheet1!G487)/100</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="D487">
+        <v>-3.7145833333333302E-4</v>
+      </c>
+      <c r="E487">
+        <v>8.8165773165693004E-2</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A488" s="1">
+        <f>EOMONTH(DATE(Sheet1!B489,Sheet1!A489,1),0)</f>
+        <v>43312</v>
+      </c>
+      <c r="B488">
+        <v>0</v>
+      </c>
+      <c r="C488">
+        <f>(Sheet1!G489-Sheet1!G488)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D488">
+        <v>-3.8213333333333299E-4</v>
+      </c>
+      <c r="E488">
+        <v>8.3201679793686298E-2</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A489" s="1">
+        <f>EOMONTH(DATE(Sheet1!B490,Sheet1!A490,1),0)</f>
+        <v>43343</v>
+      </c>
+      <c r="B489">
+        <v>0</v>
+      </c>
+      <c r="C489">
+        <f>(Sheet1!G490-Sheet1!G489)/100</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="D489">
+        <v>-2.7562499999999999E-4</v>
+      </c>
+      <c r="E489">
+        <v>7.9724562621592804E-2</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A490" s="1">
+        <f>EOMONTH(DATE(Sheet1!B491,Sheet1!A491,1),0)</f>
+        <v>43373</v>
+      </c>
+      <c r="B490">
+        <v>0</v>
+      </c>
+      <c r="C490">
+        <f>(Sheet1!G491-Sheet1!G490)/100</f>
+        <v>-2.9999999999999983E-3</v>
+      </c>
+      <c r="D490">
+        <v>-2.7364999999999898E-4</v>
+      </c>
+      <c r="E490">
+        <v>7.65236823171805E-2</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A491" s="1">
+        <f>EOMONTH(DATE(Sheet1!B492,Sheet1!A492,1),0)</f>
+        <v>43404</v>
+      </c>
+      <c r="B491">
+        <v>0</v>
+      </c>
+      <c r="C491">
+        <f>(Sheet1!G492-Sheet1!G491)/100</f>
+        <v>1.9999999999999974E-3</v>
+      </c>
+      <c r="D491">
+        <v>-3.4041666666666601E-4</v>
+      </c>
+      <c r="E491">
+        <v>0.102869029049853</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A492" s="1">
+        <f>EOMONTH(DATE(Sheet1!B493,Sheet1!A493,1),0)</f>
+        <v>43434</v>
+      </c>
+      <c r="B492">
+        <v>0</v>
+      </c>
+      <c r="C492">
+        <f>(Sheet1!G493-Sheet1!G492)/100</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="D492">
+        <v>-3.7177500000000002E-4</v>
+      </c>
+      <c r="E492">
+        <v>0.105855374247925</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A493" s="1">
+        <f>EOMONTH(DATE(Sheet1!B494,Sheet1!A494,1),0)</f>
+        <v>43465</v>
+      </c>
+      <c r="B493">
+        <v>0</v>
+      </c>
+      <c r="C493">
+        <f>(Sheet1!G494-Sheet1!G493)/100</f>
+        <v>-9.9999999999999655E-4</v>
+      </c>
+      <c r="D493">
+        <v>-4.06358333333333E-4</v>
+      </c>
+      <c r="E493">
+        <v>0.12874325632845601</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A494" s="1">
+        <f>EOMONTH(DATE(Sheet1!B495,Sheet1!A495,1),0)</f>
+        <v>43496</v>
+      </c>
+      <c r="B494">
+        <v>-0.39999999999999902</v>
+      </c>
+      <c r="C494">
+        <f>(Sheet1!G495-Sheet1!G494)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D494">
+        <v>-2.81249999999999E-4</v>
+      </c>
+      <c r="E494">
+        <v>0.118104841497846</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E494" xr:uid="{ABC54DE2-2AA2-4163-9C78-911D92CB273E}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F65F85A-74EB-43DA-A863-2734801753FA}">
+  <dimension ref="A1:E494"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <f>EOMONTH(DATE(Sheet1!B3,Sheet1!A3,1),0)</f>
+        <v>28521</v>
+      </c>
       <c r="B2">
         <f>Sheet1!C3/100</f>
         <v>0.83700000000000008</v>
